--- a/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上年同月=100)(2014-2017).xlsx
+++ b/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上年同月=100)(2014-2017).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -648,5823 +648,5823 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.56480000000001</v>
+        <v>100.1534</v>
       </c>
       <c r="C2" t="n">
-        <v>100.1489</v>
+        <v>99.6709</v>
       </c>
       <c r="D2" t="n">
-        <v>102.2553</v>
+        <v>101.5905</v>
       </c>
       <c r="E2" t="n">
         <v>100.037</v>
       </c>
       <c r="F2" t="n">
-        <v>98.9953</v>
+        <v>98.8754</v>
       </c>
       <c r="G2" t="n">
-        <v>98.26560000000001</v>
+        <v>98.0735</v>
       </c>
       <c r="H2" t="n">
-        <v>95.2499</v>
+        <v>94.01909999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>100.9411</v>
+        <v>100.4667</v>
       </c>
       <c r="J2" t="n">
-        <v>99.9969</v>
+        <v>99.5046</v>
       </c>
       <c r="K2" t="n">
-        <v>101.2076</v>
+        <v>100.0233</v>
       </c>
       <c r="L2" t="n">
-        <v>97.7572</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>92.5453</v>
+        <v>95.3274</v>
       </c>
       <c r="N2" t="n">
-        <v>99.0491</v>
+        <v>103.0915</v>
       </c>
       <c r="O2" t="n">
-        <v>100.4237</v>
+        <v>98.3758</v>
       </c>
       <c r="P2" t="n">
-        <v>97.17310000000001</v>
+        <v>93.2337</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.4978</v>
+        <v>92.77079999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>101.0318</v>
+        <v>100.46</v>
       </c>
       <c r="S2" t="n">
-        <v>98.48480000000001</v>
+        <v>99.1905</v>
       </c>
       <c r="T2" t="n">
-        <v>102.4475</v>
+        <v>102.4671</v>
       </c>
       <c r="U2" t="n">
-        <v>99.619</v>
+        <v>98.9777</v>
       </c>
       <c r="V2" t="n">
-        <v>100.3587</v>
+        <v>100.2694</v>
       </c>
       <c r="W2" t="n">
-        <v>88.6486</v>
+        <v>90.6181</v>
       </c>
       <c r="X2" t="n">
-        <v>102.0289</v>
+        <v>105.0949</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.9422</v>
+        <v>99.87439999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>98.81829999999999</v>
+        <v>98.78879999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.3189</v>
+        <v>102.126</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.88720000000001</v>
+        <v>97.68259999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.7539</v>
+        <v>99.0463</v>
       </c>
       <c r="AD2" t="n">
-        <v>98.82810000000001</v>
+        <v>100.1642</v>
       </c>
       <c r="AE2" t="n">
-        <v>99.97369999999999</v>
+        <v>100.274</v>
       </c>
       <c r="AF2" t="n">
-        <v>98.5528</v>
+        <v>97.4014</v>
       </c>
       <c r="AG2" t="n">
-        <v>99.4669</v>
+        <v>99.6003</v>
       </c>
       <c r="AH2" t="n">
-        <v>99.61490000000001</v>
+        <v>98.553</v>
       </c>
       <c r="AI2" t="n">
-        <v>100.6255</v>
+        <v>100.3889</v>
       </c>
       <c r="AJ2" t="n">
-        <v>98.9383</v>
+        <v>99.79430000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>98.7715</v>
+        <v>98.4528</v>
       </c>
       <c r="AL2" t="n">
-        <v>99.9021</v>
+        <v>99.31270000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>99.2433</v>
+        <v>101.2725</v>
       </c>
       <c r="AN2" t="n">
-        <v>98.5294</v>
+        <v>100.7061</v>
       </c>
       <c r="AO2" t="n">
-        <v>101.5205</v>
+        <v>102.465</v>
       </c>
       <c r="AP2" t="n">
-        <v>91.52970000000001</v>
+        <v>94.89709999999999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>85.30719999999999</v>
+        <v>99.75320000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.6217</v>
+        <v>100.125</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0233</v>
+        <v>99.706</v>
       </c>
       <c r="D3" t="n">
-        <v>102.1513</v>
+        <v>101.8579</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>100.037</v>
       </c>
       <c r="F3" t="n">
-        <v>98.76009999999999</v>
+        <v>98.37009999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>96.9931</v>
+        <v>97.6186</v>
       </c>
       <c r="H3" t="n">
-        <v>94.3792</v>
+        <v>93.4109</v>
       </c>
       <c r="I3" t="n">
-        <v>100.687</v>
+        <v>100.531</v>
       </c>
       <c r="J3" t="n">
-        <v>99.8369</v>
+        <v>99.8738</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1327</v>
+        <v>100.3418</v>
       </c>
       <c r="L3" t="n">
-        <v>97.30719999999999</v>
+        <v>97.98180000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>91.92870000000001</v>
+        <v>94.89279999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>98.82389999999999</v>
+        <v>101.5349</v>
       </c>
       <c r="O3" t="n">
-        <v>100.0493</v>
+        <v>98.4682</v>
       </c>
       <c r="P3" t="n">
-        <v>97.1279</v>
+        <v>92.2642</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.1833</v>
+        <v>92.8177</v>
       </c>
       <c r="R3" t="n">
-        <v>100.9242</v>
+        <v>100.5051</v>
       </c>
       <c r="S3" t="n">
-        <v>98.26649999999999</v>
+        <v>98.87560000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>101.9795</v>
+        <v>102.6261</v>
       </c>
       <c r="U3" t="n">
-        <v>99.6003</v>
+        <v>99.2124</v>
       </c>
       <c r="V3" t="n">
-        <v>100.3369</v>
+        <v>100.2085</v>
       </c>
       <c r="W3" t="n">
-        <v>88.3856</v>
+        <v>89.7899</v>
       </c>
       <c r="X3" t="n">
-        <v>100.2543</v>
+        <v>105.1878</v>
       </c>
       <c r="Y3" t="n">
-        <v>100.2678</v>
+        <v>100.3441</v>
       </c>
       <c r="Z3" t="n">
-        <v>98.7298</v>
+        <v>98.646</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.2272</v>
+        <v>102.0239</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.7599</v>
+        <v>95.4491</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.99890000000001</v>
+        <v>96.73399999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>98.5</v>
+        <v>100.0607</v>
       </c>
       <c r="AE3" t="n">
-        <v>100.0682</v>
+        <v>100.3712</v>
       </c>
       <c r="AF3" t="n">
-        <v>98.386</v>
+        <v>97.6904</v>
       </c>
       <c r="AG3" t="n">
-        <v>99.3382</v>
+        <v>99.4772</v>
       </c>
       <c r="AH3" t="n">
-        <v>99.5716</v>
+        <v>98.9909</v>
       </c>
       <c r="AI3" t="n">
-        <v>100.2361</v>
+        <v>100.4527</v>
       </c>
       <c r="AJ3" t="n">
-        <v>99.0378</v>
+        <v>99.9115</v>
       </c>
       <c r="AK3" t="n">
-        <v>98.7671</v>
+        <v>98.32859999999999</v>
       </c>
       <c r="AL3" t="n">
-        <v>100.0116</v>
+        <v>99.0628</v>
       </c>
       <c r="AM3" t="n">
-        <v>98.4406</v>
+        <v>101.3099</v>
       </c>
       <c r="AN3" t="n">
-        <v>98.20529999999999</v>
+        <v>100.8483</v>
       </c>
       <c r="AO3" t="n">
-        <v>100.9709</v>
+        <v>102.6399</v>
       </c>
       <c r="AP3" t="n">
-        <v>91.0924</v>
+        <v>93.0335</v>
       </c>
       <c r="AQ3" t="n">
-        <v>83.4281</v>
+        <v>97.69329999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.61969999999999</v>
+        <v>99.95480000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>99.962</v>
+        <v>99.96129999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>102.0189</v>
+        <v>101.8518</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>100.037</v>
       </c>
       <c r="F4" t="n">
-        <v>98.37220000000001</v>
+        <v>98.2414</v>
       </c>
       <c r="G4" t="n">
-        <v>95.0744</v>
+        <v>97.1789</v>
       </c>
       <c r="H4" t="n">
-        <v>93.6904</v>
+        <v>92.3111</v>
       </c>
       <c r="I4" t="n">
-        <v>100.7979</v>
+        <v>100.7433</v>
       </c>
       <c r="J4" t="n">
-        <v>99.8479</v>
+        <v>99.9509</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0533</v>
+        <v>100.354</v>
       </c>
       <c r="L4" t="n">
-        <v>96.6848</v>
+        <v>97.6981</v>
       </c>
       <c r="M4" t="n">
-        <v>92.11</v>
+        <v>92.96169999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>99.227</v>
+        <v>100.1286</v>
       </c>
       <c r="O4" t="n">
-        <v>100.1981</v>
+        <v>98.98739999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>96.5645</v>
+        <v>91.48050000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>96.8485</v>
+        <v>93.56829999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>100.8411</v>
+        <v>100.4641</v>
       </c>
       <c r="S4" t="n">
-        <v>97.4798</v>
+        <v>98.96259999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>102.2229</v>
+        <v>102.3584</v>
       </c>
       <c r="U4" t="n">
-        <v>99.6272</v>
+        <v>99.2717</v>
       </c>
       <c r="V4" t="n">
-        <v>100.5833</v>
+        <v>100.2022</v>
       </c>
       <c r="W4" t="n">
-        <v>87.78449999999999</v>
+        <v>88.422</v>
       </c>
       <c r="X4" t="n">
-        <v>97.4956</v>
+        <v>104.8793</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.3695</v>
+        <v>100.4591</v>
       </c>
       <c r="Z4" t="n">
-        <v>98.7818</v>
+        <v>98.411</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.1904</v>
+        <v>102.3022</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.718</v>
+        <v>94.2144</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.34399999999999</v>
+        <v>95.0356</v>
       </c>
       <c r="AD4" t="n">
-        <v>98.2663</v>
+        <v>99.78700000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>100.1692</v>
+        <v>100.287</v>
       </c>
       <c r="AF4" t="n">
-        <v>98.7496</v>
+        <v>98.06359999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>99.2946</v>
+        <v>99.51730000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>99.3635</v>
+        <v>99.0655</v>
       </c>
       <c r="AI4" t="n">
-        <v>100.1777</v>
+        <v>100.3994</v>
       </c>
       <c r="AJ4" t="n">
-        <v>98.94629999999999</v>
+        <v>99.5929</v>
       </c>
       <c r="AK4" t="n">
-        <v>98.6003</v>
+        <v>98.16549999999999</v>
       </c>
       <c r="AL4" t="n">
-        <v>99.9705</v>
+        <v>99.1236</v>
       </c>
       <c r="AM4" t="n">
-        <v>97.7192</v>
+        <v>100.9796</v>
       </c>
       <c r="AN4" t="n">
-        <v>98.0423</v>
+        <v>100.2802</v>
       </c>
       <c r="AO4" t="n">
-        <v>100.6253</v>
+        <v>102.4523</v>
       </c>
       <c r="AP4" t="n">
-        <v>90.3441</v>
+        <v>92.2103</v>
       </c>
       <c r="AQ4" t="n">
-        <v>80.9648</v>
+        <v>95.22369999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.1534</v>
+        <v>99.8887</v>
       </c>
       <c r="C5" t="n">
-        <v>99.6709</v>
+        <v>99.937</v>
       </c>
       <c r="D5" t="n">
-        <v>101.5905</v>
+        <v>101.8238</v>
       </c>
       <c r="E5" t="n">
         <v>100.037</v>
       </c>
       <c r="F5" t="n">
-        <v>98.8754</v>
+        <v>98.7235</v>
       </c>
       <c r="G5" t="n">
-        <v>98.0735</v>
+        <v>97.67440000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>94.01909999999999</v>
+        <v>93.68129999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>100.4667</v>
+        <v>100.7616</v>
       </c>
       <c r="J5" t="n">
-        <v>99.5046</v>
+        <v>99.9366</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0233</v>
+        <v>100.4851</v>
       </c>
       <c r="L5" t="n">
-        <v>98.40000000000001</v>
+        <v>97.9958</v>
       </c>
       <c r="M5" t="n">
-        <v>95.3274</v>
+        <v>93.1476</v>
       </c>
       <c r="N5" t="n">
-        <v>103.0915</v>
+        <v>98.5368</v>
       </c>
       <c r="O5" t="n">
-        <v>98.3758</v>
+        <v>99.2758</v>
       </c>
       <c r="P5" t="n">
-        <v>93.2337</v>
+        <v>92.9939</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.77079999999999</v>
+        <v>95.1143</v>
       </c>
       <c r="R5" t="n">
-        <v>100.46</v>
+        <v>100.5561</v>
       </c>
       <c r="S5" t="n">
-        <v>99.1905</v>
+        <v>98.93559999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4671</v>
+        <v>102.4774</v>
       </c>
       <c r="U5" t="n">
-        <v>98.9777</v>
+        <v>99.3674</v>
       </c>
       <c r="V5" t="n">
-        <v>100.2694</v>
+        <v>100.2578</v>
       </c>
       <c r="W5" t="n">
-        <v>90.6181</v>
+        <v>87.45910000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>105.0949</v>
+        <v>105.8456</v>
       </c>
       <c r="Y5" t="n">
-        <v>99.87439999999999</v>
+        <v>100.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>98.78879999999999</v>
+        <v>98.64100000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.126</v>
+        <v>102.193</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.68259999999999</v>
+        <v>95.8629</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.0463</v>
+        <v>98.00449999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>100.1642</v>
+        <v>99.4627</v>
       </c>
       <c r="AE5" t="n">
-        <v>100.274</v>
+        <v>100.2384</v>
       </c>
       <c r="AF5" t="n">
-        <v>97.4014</v>
+        <v>97.95699999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>99.6003</v>
+        <v>99.41630000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>98.553</v>
+        <v>99.0637</v>
       </c>
       <c r="AI5" t="n">
-        <v>100.3889</v>
+        <v>100.3581</v>
       </c>
       <c r="AJ5" t="n">
-        <v>99.79430000000001</v>
+        <v>99.6867</v>
       </c>
       <c r="AK5" t="n">
-        <v>98.4528</v>
+        <v>98.3467</v>
       </c>
       <c r="AL5" t="n">
-        <v>99.31270000000001</v>
+        <v>99.4329</v>
       </c>
       <c r="AM5" t="n">
-        <v>101.2725</v>
+        <v>100.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>100.7061</v>
+        <v>99.8514</v>
       </c>
       <c r="AO5" t="n">
-        <v>102.465</v>
+        <v>102.4796</v>
       </c>
       <c r="AP5" t="n">
-        <v>94.89709999999999</v>
+        <v>93.19629999999999</v>
       </c>
       <c r="AQ5" t="n">
-        <v>99.75320000000001</v>
+        <v>94.95350000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.125</v>
+        <v>99.7347</v>
       </c>
       <c r="C6" t="n">
-        <v>99.706</v>
+        <v>99.9811</v>
       </c>
       <c r="D6" t="n">
-        <v>101.8579</v>
+        <v>101.9304</v>
       </c>
       <c r="E6" t="n">
         <v>100.037</v>
       </c>
       <c r="F6" t="n">
-        <v>98.37009999999999</v>
+        <v>99.3768</v>
       </c>
       <c r="G6" t="n">
-        <v>97.6186</v>
+        <v>98.2169</v>
       </c>
       <c r="H6" t="n">
-        <v>93.4109</v>
+        <v>94.00149999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>100.531</v>
+        <v>100.7259</v>
       </c>
       <c r="J6" t="n">
-        <v>99.8738</v>
+        <v>100.1512</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3418</v>
+        <v>100.7685</v>
       </c>
       <c r="L6" t="n">
-        <v>97.98180000000001</v>
+        <v>98.5536</v>
       </c>
       <c r="M6" t="n">
-        <v>94.89279999999999</v>
+        <v>93.51649999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>101.5349</v>
+        <v>99.1246</v>
       </c>
       <c r="O6" t="n">
-        <v>98.4682</v>
+        <v>100.1041</v>
       </c>
       <c r="P6" t="n">
-        <v>92.2642</v>
+        <v>95.37560000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.8177</v>
+        <v>96.78270000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>100.5051</v>
+        <v>100.8919</v>
       </c>
       <c r="S6" t="n">
-        <v>98.87560000000001</v>
+        <v>98.9599</v>
       </c>
       <c r="T6" t="n">
-        <v>102.6261</v>
+        <v>102.8388</v>
       </c>
       <c r="U6" t="n">
-        <v>99.2124</v>
+        <v>99.4971</v>
       </c>
       <c r="V6" t="n">
-        <v>100.2085</v>
+        <v>100.2675</v>
       </c>
       <c r="W6" t="n">
-        <v>89.7899</v>
+        <v>88.29389999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>105.1878</v>
+        <v>105.7524</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.3441</v>
+        <v>100.1836</v>
       </c>
       <c r="Z6" t="n">
-        <v>98.646</v>
+        <v>98.8738</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.0239</v>
+        <v>102.0103</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.4491</v>
+        <v>99.00530000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>96.73399999999999</v>
+        <v>101.3052</v>
       </c>
       <c r="AD6" t="n">
-        <v>100.0607</v>
+        <v>99.61499999999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>100.3712</v>
+        <v>100.2717</v>
       </c>
       <c r="AF6" t="n">
-        <v>97.6904</v>
+        <v>98.2783</v>
       </c>
       <c r="AG6" t="n">
-        <v>99.4772</v>
+        <v>99.48860000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>98.9909</v>
+        <v>98.9641</v>
       </c>
       <c r="AI6" t="n">
-        <v>100.4527</v>
+        <v>100.3072</v>
       </c>
       <c r="AJ6" t="n">
-        <v>99.9115</v>
+        <v>99.8389</v>
       </c>
       <c r="AK6" t="n">
-        <v>98.32859999999999</v>
+        <v>98.57429999999999</v>
       </c>
       <c r="AL6" t="n">
-        <v>99.0628</v>
+        <v>99.5864</v>
       </c>
       <c r="AM6" t="n">
-        <v>101.3099</v>
+        <v>100.601</v>
       </c>
       <c r="AN6" t="n">
-        <v>100.8483</v>
+        <v>99.3107</v>
       </c>
       <c r="AO6" t="n">
-        <v>102.6399</v>
+        <v>102.4145</v>
       </c>
       <c r="AP6" t="n">
-        <v>93.0335</v>
+        <v>94.8411</v>
       </c>
       <c r="AQ6" t="n">
-        <v>97.69329999999999</v>
+        <v>94.48690000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.95480000000001</v>
+        <v>99.65900000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>99.96129999999999</v>
+        <v>100.1019</v>
       </c>
       <c r="D7" t="n">
-        <v>101.8518</v>
+        <v>101.7633</v>
       </c>
       <c r="E7" t="n">
         <v>100.037</v>
       </c>
       <c r="F7" t="n">
-        <v>98.2414</v>
+        <v>99.9307</v>
       </c>
       <c r="G7" t="n">
-        <v>97.1789</v>
+        <v>98.5968</v>
       </c>
       <c r="H7" t="n">
-        <v>92.3111</v>
+        <v>95.4392</v>
       </c>
       <c r="I7" t="n">
-        <v>100.7433</v>
+        <v>100.7182</v>
       </c>
       <c r="J7" t="n">
-        <v>99.9509</v>
+        <v>100.3071</v>
       </c>
       <c r="K7" t="n">
-        <v>100.354</v>
+        <v>100.9638</v>
       </c>
       <c r="L7" t="n">
-        <v>97.6981</v>
+        <v>98.8908</v>
       </c>
       <c r="M7" t="n">
-        <v>92.96169999999999</v>
+        <v>93.36790000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>100.1286</v>
+        <v>97.8218</v>
       </c>
       <c r="O7" t="n">
-        <v>98.98739999999999</v>
+        <v>100.3656</v>
       </c>
       <c r="P7" t="n">
-        <v>91.48050000000001</v>
+        <v>96.1422</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.56829999999999</v>
+        <v>97.6279</v>
       </c>
       <c r="R7" t="n">
-        <v>100.4641</v>
+        <v>101.2817</v>
       </c>
       <c r="S7" t="n">
-        <v>98.96259999999999</v>
+        <v>99.00060000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>102.3584</v>
+        <v>102.8729</v>
       </c>
       <c r="U7" t="n">
-        <v>99.2717</v>
+        <v>99.51609999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>100.2022</v>
+        <v>100.2473</v>
       </c>
       <c r="W7" t="n">
-        <v>88.422</v>
+        <v>89.1576</v>
       </c>
       <c r="X7" t="n">
-        <v>104.8793</v>
+        <v>105.5333</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.4591</v>
+        <v>100.1576</v>
       </c>
       <c r="Z7" t="n">
-        <v>98.411</v>
+        <v>98.8368</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.3022</v>
+        <v>101.8922</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.2144</v>
+        <v>100.104</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.0356</v>
+        <v>104.0396</v>
       </c>
       <c r="AD7" t="n">
-        <v>99.78700000000001</v>
+        <v>99.6007</v>
       </c>
       <c r="AE7" t="n">
-        <v>100.287</v>
+        <v>100.3073</v>
       </c>
       <c r="AF7" t="n">
-        <v>98.06359999999999</v>
+        <v>98.3869</v>
       </c>
       <c r="AG7" t="n">
-        <v>99.51730000000001</v>
+        <v>99.61190000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>99.0655</v>
+        <v>99.108</v>
       </c>
       <c r="AI7" t="n">
-        <v>100.3994</v>
+        <v>100.5856</v>
       </c>
       <c r="AJ7" t="n">
-        <v>99.5929</v>
+        <v>99.93680000000001</v>
       </c>
       <c r="AK7" t="n">
-        <v>98.16549999999999</v>
+        <v>98.81100000000001</v>
       </c>
       <c r="AL7" t="n">
-        <v>99.1236</v>
+        <v>99.7692</v>
       </c>
       <c r="AM7" t="n">
-        <v>100.9796</v>
+        <v>100.3057</v>
       </c>
       <c r="AN7" t="n">
-        <v>100.2802</v>
+        <v>99.3005</v>
       </c>
       <c r="AO7" t="n">
-        <v>102.4523</v>
+        <v>102.421</v>
       </c>
       <c r="AP7" t="n">
-        <v>92.2103</v>
+        <v>96.3342</v>
       </c>
       <c r="AQ7" t="n">
-        <v>95.22369999999999</v>
+        <v>93.4952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.8887</v>
+        <v>99.7323</v>
       </c>
       <c r="C8" t="n">
-        <v>99.937</v>
+        <v>100.1821</v>
       </c>
       <c r="D8" t="n">
-        <v>101.8238</v>
+        <v>102.6125</v>
       </c>
       <c r="E8" t="n">
         <v>100.037</v>
       </c>
       <c r="F8" t="n">
-        <v>98.7235</v>
+        <v>99.97190000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>97.67440000000001</v>
+        <v>99.4285</v>
       </c>
       <c r="H8" t="n">
-        <v>93.68129999999999</v>
+        <v>97.4188</v>
       </c>
       <c r="I8" t="n">
-        <v>100.7616</v>
+        <v>100.677</v>
       </c>
       <c r="J8" t="n">
-        <v>99.9366</v>
+        <v>100.1763</v>
       </c>
       <c r="K8" t="n">
-        <v>100.4851</v>
+        <v>101.0959</v>
       </c>
       <c r="L8" t="n">
-        <v>97.9958</v>
+        <v>99.13120000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>93.1476</v>
+        <v>93.94589999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>98.5368</v>
+        <v>97.58750000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>99.2758</v>
+        <v>100.8623</v>
       </c>
       <c r="P8" t="n">
-        <v>92.9939</v>
+        <v>98.81870000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.1143</v>
+        <v>100.2699</v>
       </c>
       <c r="R8" t="n">
-        <v>100.5561</v>
+        <v>101.2652</v>
       </c>
       <c r="S8" t="n">
-        <v>98.93559999999999</v>
+        <v>98.8184</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4774</v>
+        <v>102.9128</v>
       </c>
       <c r="U8" t="n">
-        <v>99.3674</v>
+        <v>99.5885</v>
       </c>
       <c r="V8" t="n">
-        <v>100.2578</v>
+        <v>100.2526</v>
       </c>
       <c r="W8" t="n">
-        <v>87.45910000000001</v>
+        <v>90.0361</v>
       </c>
       <c r="X8" t="n">
-        <v>105.8456</v>
+        <v>104.166</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.44</v>
+        <v>100.2252</v>
       </c>
       <c r="Z8" t="n">
-        <v>98.64100000000001</v>
+        <v>99.1962</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.193</v>
+        <v>101.8631</v>
       </c>
       <c r="AB8" t="n">
-        <v>95.8629</v>
+        <v>100.602</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.00449999999999</v>
+        <v>106.205</v>
       </c>
       <c r="AD8" t="n">
-        <v>99.4627</v>
+        <v>99.6613</v>
       </c>
       <c r="AE8" t="n">
-        <v>100.2384</v>
+        <v>100.2399</v>
       </c>
       <c r="AF8" t="n">
-        <v>97.95699999999999</v>
+        <v>98.4858</v>
       </c>
       <c r="AG8" t="n">
-        <v>99.41630000000001</v>
+        <v>99.7167</v>
       </c>
       <c r="AH8" t="n">
-        <v>99.0637</v>
+        <v>99.3764</v>
       </c>
       <c r="AI8" t="n">
-        <v>100.3581</v>
+        <v>100.755</v>
       </c>
       <c r="AJ8" t="n">
-        <v>99.6867</v>
+        <v>99.1412</v>
       </c>
       <c r="AK8" t="n">
-        <v>98.3467</v>
+        <v>99.0153</v>
       </c>
       <c r="AL8" t="n">
-        <v>99.4329</v>
+        <v>99.6489</v>
       </c>
       <c r="AM8" t="n">
-        <v>100.77</v>
+        <v>99.9847</v>
       </c>
       <c r="AN8" t="n">
-        <v>99.8514</v>
+        <v>99.0421</v>
       </c>
       <c r="AO8" t="n">
-        <v>102.4796</v>
+        <v>102.2001</v>
       </c>
       <c r="AP8" t="n">
-        <v>93.19629999999999</v>
+        <v>95.7998</v>
       </c>
       <c r="AQ8" t="n">
-        <v>94.95350000000001</v>
+        <v>91.8295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.7347</v>
+        <v>99.7183</v>
       </c>
       <c r="C9" t="n">
-        <v>99.9811</v>
+        <v>100.1068</v>
       </c>
       <c r="D9" t="n">
-        <v>101.9304</v>
+        <v>102.8976</v>
       </c>
       <c r="E9" t="n">
         <v>100.037</v>
       </c>
       <c r="F9" t="n">
-        <v>99.3768</v>
+        <v>99.8798</v>
       </c>
       <c r="G9" t="n">
-        <v>98.2169</v>
+        <v>99.70269999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>94.00149999999999</v>
+        <v>96.73609999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>100.7259</v>
+        <v>100.8708</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1512</v>
+        <v>99.9659</v>
       </c>
       <c r="K9" t="n">
-        <v>100.7685</v>
+        <v>101.0876</v>
       </c>
       <c r="L9" t="n">
-        <v>98.5536</v>
+        <v>98.7962</v>
       </c>
       <c r="M9" t="n">
-        <v>93.51649999999999</v>
+        <v>94.2646</v>
       </c>
       <c r="N9" t="n">
-        <v>99.1246</v>
+        <v>99.0355</v>
       </c>
       <c r="O9" t="n">
-        <v>100.1041</v>
+        <v>100.5137</v>
       </c>
       <c r="P9" t="n">
-        <v>95.37560000000001</v>
+        <v>98.66330000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.78270000000001</v>
+        <v>99.8028</v>
       </c>
       <c r="R9" t="n">
-        <v>100.8919</v>
+        <v>101.2563</v>
       </c>
       <c r="S9" t="n">
-        <v>98.9599</v>
+        <v>98.6735</v>
       </c>
       <c r="T9" t="n">
-        <v>102.8388</v>
+        <v>103.0637</v>
       </c>
       <c r="U9" t="n">
-        <v>99.4971</v>
+        <v>99.62869999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>100.2675</v>
+        <v>100.3266</v>
       </c>
       <c r="W9" t="n">
-        <v>88.29389999999999</v>
+        <v>90.38339999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>105.7524</v>
+        <v>103.4346</v>
       </c>
       <c r="Y9" t="n">
-        <v>100.1836</v>
+        <v>100.1199</v>
       </c>
       <c r="Z9" t="n">
-        <v>98.8738</v>
+        <v>99.0479</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.0103</v>
+        <v>101.5961</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.00530000000001</v>
+        <v>97.5538</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.3052</v>
+        <v>103.1298</v>
       </c>
       <c r="AD9" t="n">
-        <v>99.61499999999999</v>
+        <v>99.4109</v>
       </c>
       <c r="AE9" t="n">
-        <v>100.2717</v>
+        <v>100.2495</v>
       </c>
       <c r="AF9" t="n">
-        <v>98.2783</v>
+        <v>98.6311</v>
       </c>
       <c r="AG9" t="n">
-        <v>99.48860000000001</v>
+        <v>99.6224</v>
       </c>
       <c r="AH9" t="n">
-        <v>98.9641</v>
+        <v>99.4268</v>
       </c>
       <c r="AI9" t="n">
-        <v>100.3072</v>
+        <v>100.6686</v>
       </c>
       <c r="AJ9" t="n">
-        <v>99.8389</v>
+        <v>98.7914</v>
       </c>
       <c r="AK9" t="n">
-        <v>98.57429999999999</v>
+        <v>98.9808</v>
       </c>
       <c r="AL9" t="n">
-        <v>99.5864</v>
+        <v>99.8514</v>
       </c>
       <c r="AM9" t="n">
-        <v>100.601</v>
+        <v>99.45489999999999</v>
       </c>
       <c r="AN9" t="n">
-        <v>99.3107</v>
+        <v>99.1078</v>
       </c>
       <c r="AO9" t="n">
-        <v>102.4145</v>
+        <v>102.0912</v>
       </c>
       <c r="AP9" t="n">
-        <v>94.8411</v>
+        <v>94.3314</v>
       </c>
       <c r="AQ9" t="n">
-        <v>94.48690000000001</v>
+        <v>89.5826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.65900000000001</v>
+        <v>99.5198</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1019</v>
+        <v>100.0384</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7633</v>
+        <v>102.776</v>
       </c>
       <c r="E10" t="n">
         <v>100.037</v>
       </c>
       <c r="F10" t="n">
-        <v>99.9307</v>
+        <v>99.46469999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>98.5968</v>
+        <v>99.3597</v>
       </c>
       <c r="H10" t="n">
-        <v>95.4392</v>
+        <v>96.17440000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>100.7182</v>
+        <v>100.9013</v>
       </c>
       <c r="J10" t="n">
-        <v>100.3071</v>
+        <v>100.1337</v>
       </c>
       <c r="K10" t="n">
-        <v>100.9638</v>
+        <v>101.2253</v>
       </c>
       <c r="L10" t="n">
-        <v>98.8908</v>
+        <v>98.2004</v>
       </c>
       <c r="M10" t="n">
-        <v>93.36790000000001</v>
+        <v>93.51649999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>97.8218</v>
+        <v>99.1807</v>
       </c>
       <c r="O10" t="n">
-        <v>100.3656</v>
+        <v>100.1756</v>
       </c>
       <c r="P10" t="n">
-        <v>96.1422</v>
+        <v>98.3554</v>
       </c>
       <c r="Q10" t="n">
-        <v>97.6279</v>
+        <v>98.1784</v>
       </c>
       <c r="R10" t="n">
-        <v>101.2817</v>
+        <v>101.1982</v>
       </c>
       <c r="S10" t="n">
-        <v>99.00060000000001</v>
+        <v>98.6598</v>
       </c>
       <c r="T10" t="n">
-        <v>102.8729</v>
+        <v>103.0269</v>
       </c>
       <c r="U10" t="n">
-        <v>99.51609999999999</v>
+        <v>99.6011</v>
       </c>
       <c r="V10" t="n">
-        <v>100.2473</v>
+        <v>100.3208</v>
       </c>
       <c r="W10" t="n">
-        <v>89.1576</v>
+        <v>89.4191</v>
       </c>
       <c r="X10" t="n">
-        <v>105.5333</v>
+        <v>102.3331</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.1576</v>
+        <v>100.0288</v>
       </c>
       <c r="Z10" t="n">
-        <v>98.8368</v>
+        <v>98.9533</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.8922</v>
+        <v>101.6239</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.104</v>
+        <v>93.56189999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.0396</v>
+        <v>97.86879999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>99.6007</v>
+        <v>99.22580000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>100.3073</v>
+        <v>100.042</v>
       </c>
       <c r="AF10" t="n">
-        <v>98.3869</v>
+        <v>98.60380000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>99.61190000000001</v>
+        <v>99.50920000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>99.108</v>
+        <v>99.5232</v>
       </c>
       <c r="AI10" t="n">
-        <v>100.5856</v>
+        <v>100.5789</v>
       </c>
       <c r="AJ10" t="n">
-        <v>99.93680000000001</v>
+        <v>98.54389999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>98.81100000000001</v>
+        <v>98.7745</v>
       </c>
       <c r="AL10" t="n">
-        <v>99.7692</v>
+        <v>99.7899</v>
       </c>
       <c r="AM10" t="n">
-        <v>100.3057</v>
+        <v>99.369</v>
       </c>
       <c r="AN10" t="n">
-        <v>99.3005</v>
+        <v>98.5579</v>
       </c>
       <c r="AO10" t="n">
-        <v>102.421</v>
+        <v>101.621</v>
       </c>
       <c r="AP10" t="n">
-        <v>96.3342</v>
+        <v>92.1409</v>
       </c>
       <c r="AQ10" t="n">
-        <v>93.4952</v>
+        <v>87.36109999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.7323</v>
+        <v>99.56480000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>100.1821</v>
+        <v>100.1489</v>
       </c>
       <c r="D11" t="n">
-        <v>102.6125</v>
+        <v>102.2553</v>
       </c>
       <c r="E11" t="n">
         <v>100.037</v>
       </c>
       <c r="F11" t="n">
-        <v>99.97190000000001</v>
+        <v>98.9953</v>
       </c>
       <c r="G11" t="n">
-        <v>99.4285</v>
+        <v>98.26560000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>97.4188</v>
+        <v>95.2499</v>
       </c>
       <c r="I11" t="n">
-        <v>100.677</v>
+        <v>100.9411</v>
       </c>
       <c r="J11" t="n">
-        <v>100.1763</v>
+        <v>99.9969</v>
       </c>
       <c r="K11" t="n">
-        <v>101.0959</v>
+        <v>101.2076</v>
       </c>
       <c r="L11" t="n">
-        <v>99.13120000000001</v>
+        <v>97.7572</v>
       </c>
       <c r="M11" t="n">
-        <v>93.94589999999999</v>
+        <v>92.5453</v>
       </c>
       <c r="N11" t="n">
-        <v>97.58750000000001</v>
+        <v>99.0491</v>
       </c>
       <c r="O11" t="n">
-        <v>100.8623</v>
+        <v>100.4237</v>
       </c>
       <c r="P11" t="n">
-        <v>98.81870000000001</v>
+        <v>97.17310000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2699</v>
+        <v>97.4978</v>
       </c>
       <c r="R11" t="n">
-        <v>101.2652</v>
+        <v>101.0318</v>
       </c>
       <c r="S11" t="n">
-        <v>98.8184</v>
+        <v>98.48480000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>102.9128</v>
+        <v>102.4475</v>
       </c>
       <c r="U11" t="n">
-        <v>99.5885</v>
+        <v>99.619</v>
       </c>
       <c r="V11" t="n">
-        <v>100.2526</v>
+        <v>100.3587</v>
       </c>
       <c r="W11" t="n">
-        <v>90.0361</v>
+        <v>88.6486</v>
       </c>
       <c r="X11" t="n">
-        <v>104.166</v>
+        <v>102.0289</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.2252</v>
+        <v>99.9422</v>
       </c>
       <c r="Z11" t="n">
-        <v>99.1962</v>
+        <v>98.81829999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>101.8631</v>
+        <v>101.3189</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.602</v>
+        <v>91.88720000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.205</v>
+        <v>91.7539</v>
       </c>
       <c r="AD11" t="n">
-        <v>99.6613</v>
+        <v>98.82810000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>100.2399</v>
+        <v>99.97369999999999</v>
       </c>
       <c r="AF11" t="n">
-        <v>98.4858</v>
+        <v>98.5528</v>
       </c>
       <c r="AG11" t="n">
-        <v>99.7167</v>
+        <v>99.4669</v>
       </c>
       <c r="AH11" t="n">
-        <v>99.3764</v>
+        <v>99.61490000000001</v>
       </c>
       <c r="AI11" t="n">
-        <v>100.755</v>
+        <v>100.6255</v>
       </c>
       <c r="AJ11" t="n">
-        <v>99.1412</v>
+        <v>98.9383</v>
       </c>
       <c r="AK11" t="n">
-        <v>99.0153</v>
+        <v>98.7715</v>
       </c>
       <c r="AL11" t="n">
-        <v>99.6489</v>
+        <v>99.9021</v>
       </c>
       <c r="AM11" t="n">
-        <v>99.9847</v>
+        <v>99.2433</v>
       </c>
       <c r="AN11" t="n">
-        <v>99.0421</v>
+        <v>98.5294</v>
       </c>
       <c r="AO11" t="n">
-        <v>102.2001</v>
+        <v>101.5205</v>
       </c>
       <c r="AP11" t="n">
-        <v>95.7998</v>
+        <v>91.52970000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>91.8295</v>
+        <v>85.30719999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.7183</v>
+        <v>99.6217</v>
       </c>
       <c r="C12" t="n">
-        <v>100.1068</v>
+        <v>100.0233</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8976</v>
+        <v>102.1513</v>
       </c>
       <c r="E12" t="n">
-        <v>100.037</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>99.8798</v>
+        <v>98.76009999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>99.70269999999999</v>
+        <v>96.9931</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73609999999999</v>
+        <v>94.3792</v>
       </c>
       <c r="I12" t="n">
-        <v>100.8708</v>
+        <v>100.687</v>
       </c>
       <c r="J12" t="n">
-        <v>99.9659</v>
+        <v>99.8369</v>
       </c>
       <c r="K12" t="n">
-        <v>101.0876</v>
+        <v>101.1327</v>
       </c>
       <c r="L12" t="n">
-        <v>98.7962</v>
+        <v>97.30719999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>94.2646</v>
+        <v>91.92870000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>99.0355</v>
+        <v>98.82389999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>100.5137</v>
+        <v>100.0493</v>
       </c>
       <c r="P12" t="n">
-        <v>98.66330000000001</v>
+        <v>97.1279</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.8028</v>
+        <v>97.1833</v>
       </c>
       <c r="R12" t="n">
-        <v>101.2563</v>
+        <v>100.9242</v>
       </c>
       <c r="S12" t="n">
-        <v>98.6735</v>
+        <v>98.26649999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>103.0637</v>
+        <v>101.9795</v>
       </c>
       <c r="U12" t="n">
-        <v>99.62869999999999</v>
+        <v>99.6003</v>
       </c>
       <c r="V12" t="n">
-        <v>100.3266</v>
+        <v>100.3369</v>
       </c>
       <c r="W12" t="n">
-        <v>90.38339999999999</v>
+        <v>88.3856</v>
       </c>
       <c r="X12" t="n">
-        <v>103.4346</v>
+        <v>100.2543</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.1199</v>
+        <v>100.2678</v>
       </c>
       <c r="Z12" t="n">
-        <v>99.0479</v>
+        <v>98.7298</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.5961</v>
+        <v>101.2272</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.5538</v>
+        <v>88.7599</v>
       </c>
       <c r="AC12" t="n">
-        <v>103.1298</v>
+        <v>86.99890000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>99.4109</v>
+        <v>98.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>100.2495</v>
+        <v>100.0682</v>
       </c>
       <c r="AF12" t="n">
-        <v>98.6311</v>
+        <v>98.386</v>
       </c>
       <c r="AG12" t="n">
-        <v>99.6224</v>
+        <v>99.3382</v>
       </c>
       <c r="AH12" t="n">
-        <v>99.4268</v>
+        <v>99.5716</v>
       </c>
       <c r="AI12" t="n">
-        <v>100.6686</v>
+        <v>100.2361</v>
       </c>
       <c r="AJ12" t="n">
-        <v>98.7914</v>
+        <v>99.0378</v>
       </c>
       <c r="AK12" t="n">
-        <v>98.9808</v>
+        <v>98.7671</v>
       </c>
       <c r="AL12" t="n">
-        <v>99.8514</v>
+        <v>100.0116</v>
       </c>
       <c r="AM12" t="n">
-        <v>99.45489999999999</v>
+        <v>98.4406</v>
       </c>
       <c r="AN12" t="n">
-        <v>99.1078</v>
+        <v>98.20529999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>102.0912</v>
+        <v>100.9709</v>
       </c>
       <c r="AP12" t="n">
-        <v>94.3314</v>
+        <v>91.0924</v>
       </c>
       <c r="AQ12" t="n">
-        <v>89.5826</v>
+        <v>83.4281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.5198</v>
+        <v>99.61969999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0384</v>
+        <v>99.962</v>
       </c>
       <c r="D13" t="n">
-        <v>102.776</v>
+        <v>102.0189</v>
       </c>
       <c r="E13" t="n">
-        <v>100.037</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>99.46469999999999</v>
+        <v>98.37220000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>99.3597</v>
+        <v>95.0744</v>
       </c>
       <c r="H13" t="n">
-        <v>96.17440000000001</v>
+        <v>93.6904</v>
       </c>
       <c r="I13" t="n">
-        <v>100.9013</v>
+        <v>100.7979</v>
       </c>
       <c r="J13" t="n">
-        <v>100.1337</v>
+        <v>99.8479</v>
       </c>
       <c r="K13" t="n">
-        <v>101.2253</v>
+        <v>101.0533</v>
       </c>
       <c r="L13" t="n">
-        <v>98.2004</v>
+        <v>96.6848</v>
       </c>
       <c r="M13" t="n">
-        <v>93.51649999999999</v>
+        <v>92.11</v>
       </c>
       <c r="N13" t="n">
-        <v>99.1807</v>
+        <v>99.227</v>
       </c>
       <c r="O13" t="n">
-        <v>100.1756</v>
+        <v>100.1981</v>
       </c>
       <c r="P13" t="n">
-        <v>98.3554</v>
+        <v>96.5645</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.1784</v>
+        <v>96.8485</v>
       </c>
       <c r="R13" t="n">
-        <v>101.1982</v>
+        <v>100.8411</v>
       </c>
       <c r="S13" t="n">
-        <v>98.6598</v>
+        <v>97.4798</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0269</v>
+        <v>102.2229</v>
       </c>
       <c r="U13" t="n">
-        <v>99.6011</v>
+        <v>99.6272</v>
       </c>
       <c r="V13" t="n">
-        <v>100.3208</v>
+        <v>100.5833</v>
       </c>
       <c r="W13" t="n">
-        <v>89.4191</v>
+        <v>87.78449999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>102.3331</v>
+        <v>97.4956</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.0288</v>
+        <v>100.3695</v>
       </c>
       <c r="Z13" t="n">
-        <v>98.9533</v>
+        <v>98.7818</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.6239</v>
+        <v>101.1904</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.56189999999999</v>
+        <v>83.718</v>
       </c>
       <c r="AC13" t="n">
-        <v>97.86879999999999</v>
+        <v>80.34399999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>99.22580000000001</v>
+        <v>98.2663</v>
       </c>
       <c r="AE13" t="n">
-        <v>100.042</v>
+        <v>100.1692</v>
       </c>
       <c r="AF13" t="n">
-        <v>98.60380000000001</v>
+        <v>98.7496</v>
       </c>
       <c r="AG13" t="n">
-        <v>99.50920000000001</v>
+        <v>99.2946</v>
       </c>
       <c r="AH13" t="n">
-        <v>99.5232</v>
+        <v>99.3635</v>
       </c>
       <c r="AI13" t="n">
-        <v>100.5789</v>
+        <v>100.1777</v>
       </c>
       <c r="AJ13" t="n">
-        <v>98.54389999999999</v>
+        <v>98.94629999999999</v>
       </c>
       <c r="AK13" t="n">
-        <v>98.7745</v>
+        <v>98.6003</v>
       </c>
       <c r="AL13" t="n">
-        <v>99.7899</v>
+        <v>99.9705</v>
       </c>
       <c r="AM13" t="n">
-        <v>99.369</v>
+        <v>97.7192</v>
       </c>
       <c r="AN13" t="n">
-        <v>98.5579</v>
+        <v>98.0423</v>
       </c>
       <c r="AO13" t="n">
-        <v>101.621</v>
+        <v>100.6253</v>
       </c>
       <c r="AP13" t="n">
-        <v>92.1409</v>
+        <v>90.3441</v>
       </c>
       <c r="AQ13" t="n">
-        <v>87.36109999999999</v>
+        <v>80.9648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>99.5689</v>
       </c>
       <c r="C14" t="n">
-        <v>99.09999999999999</v>
+        <v>99.9379</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>99.6097</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>98.2</v>
+        <v>98.5265</v>
       </c>
       <c r="G14" t="n">
-        <v>91.7</v>
+        <v>93.3394</v>
       </c>
       <c r="H14" t="n">
-        <v>89.09999999999999</v>
+        <v>91.3505</v>
       </c>
       <c r="I14" t="n">
-        <v>100.1</v>
+        <v>100.8942</v>
       </c>
       <c r="J14" t="n">
-        <v>99.40000000000001</v>
+        <v>100.0478</v>
       </c>
       <c r="K14" t="n">
-        <v>100.6</v>
+        <v>100.9829</v>
       </c>
       <c r="L14" t="n">
-        <v>94.09999999999999</v>
+        <v>95.6798</v>
       </c>
       <c r="M14" t="n">
-        <v>86.8</v>
+        <v>90.681</v>
       </c>
       <c r="N14" t="n">
-        <v>96.40000000000001</v>
+        <v>98.0823</v>
       </c>
       <c r="O14" t="n">
-        <v>99.7</v>
+        <v>100.06</v>
       </c>
       <c r="P14" t="n">
-        <v>88.7</v>
+        <v>94.48390000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.2</v>
+        <v>97.0162</v>
       </c>
       <c r="R14" t="n">
-        <v>99.3</v>
+        <v>100.6742</v>
       </c>
       <c r="S14" t="n">
-        <v>96.3</v>
+        <v>96.87390000000001</v>
       </c>
       <c r="T14" t="n">
-        <v>102</v>
+        <v>102.4584</v>
       </c>
       <c r="U14" t="n">
-        <v>98.90000000000001</v>
+        <v>99.4971</v>
       </c>
       <c r="V14" t="n">
-        <v>100.4</v>
+        <v>100.51</v>
       </c>
       <c r="W14" t="n">
-        <v>84.2</v>
+        <v>87.02679999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>96</v>
+        <v>97.5466</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.3</v>
+        <v>100.2792</v>
       </c>
       <c r="Z14" t="n">
-        <v>97.59999999999999</v>
+        <v>98.3182</v>
       </c>
       <c r="AA14" t="n">
-        <v>101</v>
+        <v>101.2778</v>
       </c>
       <c r="AB14" t="n">
-        <v>77.5</v>
+        <v>77.2594</v>
       </c>
       <c r="AC14" t="n">
-        <v>60.1</v>
+        <v>67.10599999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>97.7</v>
+        <v>97.9054</v>
       </c>
       <c r="AE14" t="n">
-        <v>100.9</v>
+        <v>100.6552</v>
       </c>
       <c r="AF14" t="n">
-        <v>98.5</v>
+        <v>98.46210000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>98.7</v>
+        <v>99.1117</v>
       </c>
       <c r="AH14" t="n">
-        <v>98.90000000000001</v>
+        <v>99.1461</v>
       </c>
       <c r="AI14" t="n">
-        <v>99.5</v>
+        <v>99.73739999999999</v>
       </c>
       <c r="AJ14" t="n">
-        <v>98.40000000000001</v>
+        <v>99.0505</v>
       </c>
       <c r="AK14" t="n">
-        <v>96.40000000000001</v>
+        <v>98.4044</v>
       </c>
       <c r="AL14" t="n">
-        <v>99.7</v>
+        <v>100.141</v>
       </c>
       <c r="AM14" t="n">
-        <v>95.7</v>
+        <v>97.2179</v>
       </c>
       <c r="AN14" t="n">
-        <v>97.40000000000001</v>
+        <v>98.0052</v>
       </c>
       <c r="AO14" t="n">
-        <v>99.7</v>
+        <v>100.4328</v>
       </c>
       <c r="AP14" t="n">
-        <v>80.90000000000001</v>
+        <v>88.52800000000001</v>
       </c>
       <c r="AQ14" t="n">
-        <v>81.5</v>
+        <v>79.5337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.869</v>
+        <v>99.4271</v>
       </c>
       <c r="C15" t="n">
-        <v>99.0801</v>
+        <v>99.74979999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>98.37390000000001</v>
+        <v>99.34059999999999</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>97.9453</v>
+        <v>98.7302</v>
       </c>
       <c r="G15" t="n">
-        <v>92.13549999999999</v>
+        <v>92.7135</v>
       </c>
       <c r="H15" t="n">
-        <v>89.2865</v>
+        <v>91.0175</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2518</v>
+        <v>100.8844</v>
       </c>
       <c r="J15" t="n">
-        <v>99.3335</v>
+        <v>100.0006</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3786</v>
+        <v>100.7977</v>
       </c>
       <c r="L15" t="n">
-        <v>94.08069999999999</v>
+        <v>95.2024</v>
       </c>
       <c r="M15" t="n">
-        <v>85.09950000000001</v>
+        <v>90.657</v>
       </c>
       <c r="N15" t="n">
-        <v>95.8687</v>
+        <v>98.6386</v>
       </c>
       <c r="O15" t="n">
-        <v>100.0024</v>
+        <v>100.1663</v>
       </c>
       <c r="P15" t="n">
-        <v>86.52209999999999</v>
+        <v>93.7205</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.5758</v>
+        <v>95.7509</v>
       </c>
       <c r="R15" t="n">
-        <v>99.1806</v>
+        <v>100.5346</v>
       </c>
       <c r="S15" t="n">
-        <v>96.1455</v>
+        <v>96.767</v>
       </c>
       <c r="T15" t="n">
-        <v>101.9918</v>
+        <v>102.2266</v>
       </c>
       <c r="U15" t="n">
-        <v>98.8736</v>
+        <v>99.4562</v>
       </c>
       <c r="V15" t="n">
-        <v>100.3984</v>
+        <v>100.5089</v>
       </c>
       <c r="W15" t="n">
-        <v>83.1721</v>
+        <v>86.9247</v>
       </c>
       <c r="X15" t="n">
-        <v>96.696</v>
+        <v>98.08540000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.1956</v>
+        <v>99.7775</v>
       </c>
       <c r="Z15" t="n">
-        <v>97.37949999999999</v>
+        <v>98.0805</v>
       </c>
       <c r="AA15" t="n">
-        <v>100.8972</v>
+        <v>101.2052</v>
       </c>
       <c r="AB15" t="n">
-        <v>79.3951</v>
+        <v>76.16289999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>63.4575</v>
+        <v>57.6469</v>
       </c>
       <c r="AD15" t="n">
-        <v>97.7924</v>
+        <v>97.624</v>
       </c>
       <c r="AE15" t="n">
-        <v>100.7836</v>
+        <v>100.6438</v>
       </c>
       <c r="AF15" t="n">
-        <v>98.3918</v>
+        <v>98.4552</v>
       </c>
       <c r="AG15" t="n">
-        <v>98.6253</v>
+        <v>99.06740000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>98.7967</v>
+        <v>98.76519999999999</v>
       </c>
       <c r="AI15" t="n">
-        <v>99.6023</v>
+        <v>99.70780000000001</v>
       </c>
       <c r="AJ15" t="n">
-        <v>98.5904</v>
+        <v>99.1995</v>
       </c>
       <c r="AK15" t="n">
-        <v>95.9601</v>
+        <v>98.0874</v>
       </c>
       <c r="AL15" t="n">
-        <v>99.5441</v>
+        <v>100.2548</v>
       </c>
       <c r="AM15" t="n">
-        <v>95.6985</v>
+        <v>97.35509999999999</v>
       </c>
       <c r="AN15" t="n">
-        <v>97.4825</v>
+        <v>97.6648</v>
       </c>
       <c r="AO15" t="n">
-        <v>99.6336</v>
+        <v>100.0639</v>
       </c>
       <c r="AP15" t="n">
-        <v>80.1469</v>
+        <v>86.6816</v>
       </c>
       <c r="AQ15" t="n">
-        <v>82.03959999999999</v>
+        <v>79.00620000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.73909999999999</v>
+        <v>99.3548</v>
       </c>
       <c r="C16" t="n">
-        <v>99.1855</v>
+        <v>99.4811</v>
       </c>
       <c r="D16" t="n">
-        <v>98.4393</v>
+        <v>98.9577</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>98.37350000000001</v>
+        <v>99.0055</v>
       </c>
       <c r="G16" t="n">
-        <v>93.0608</v>
+        <v>93.5235</v>
       </c>
       <c r="H16" t="n">
-        <v>89.1554</v>
+        <v>92.00149999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>99.99639999999999</v>
+        <v>100.9363</v>
       </c>
       <c r="J16" t="n">
-        <v>99.2517</v>
+        <v>99.89109999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>100.5711</v>
+        <v>100.8086</v>
       </c>
       <c r="L16" t="n">
-        <v>94.1186</v>
+        <v>95.4397</v>
       </c>
       <c r="M16" t="n">
-        <v>83.73779999999999</v>
+        <v>91.2914</v>
       </c>
       <c r="N16" t="n">
-        <v>95.3613</v>
+        <v>97.7189</v>
       </c>
       <c r="O16" t="n">
-        <v>99.934</v>
+        <v>99.5155</v>
       </c>
       <c r="P16" t="n">
-        <v>86.1401</v>
+        <v>95.56059999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.5264</v>
+        <v>94.24460000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>99.0077</v>
+        <v>100.5742</v>
       </c>
       <c r="S16" t="n">
-        <v>96.41119999999999</v>
+        <v>96.5915</v>
       </c>
       <c r="T16" t="n">
-        <v>101.7868</v>
+        <v>102.3365</v>
       </c>
       <c r="U16" t="n">
-        <v>98.7704</v>
+        <v>99.35980000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>100.1524</v>
+        <v>100.5049</v>
       </c>
       <c r="W16" t="n">
-        <v>82.7989</v>
+        <v>86.9618</v>
       </c>
       <c r="X16" t="n">
-        <v>94.7607</v>
+        <v>98.258</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.0635</v>
+        <v>99.5814</v>
       </c>
       <c r="Z16" t="n">
-        <v>97.2178</v>
+        <v>98.4599</v>
       </c>
       <c r="AA16" t="n">
-        <v>101.0951</v>
+        <v>100.7712</v>
       </c>
       <c r="AB16" t="n">
-        <v>81.2551</v>
+        <v>78.85890000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>62.7278</v>
+        <v>60.7431</v>
       </c>
       <c r="AD16" t="n">
-        <v>97.7873</v>
+        <v>97.5294</v>
       </c>
       <c r="AE16" t="n">
-        <v>100.6128</v>
+        <v>100.8866</v>
       </c>
       <c r="AF16" t="n">
-        <v>98.1135</v>
+        <v>98.51819999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>98.60760000000001</v>
+        <v>98.985</v>
       </c>
       <c r="AH16" t="n">
-        <v>98.8772</v>
+        <v>98.5586</v>
       </c>
       <c r="AI16" t="n">
-        <v>99.48820000000001</v>
+        <v>99.86360000000001</v>
       </c>
       <c r="AJ16" t="n">
-        <v>98.3036</v>
+        <v>98.9064</v>
       </c>
       <c r="AK16" t="n">
-        <v>95.82899999999999</v>
+        <v>97.9845</v>
       </c>
       <c r="AL16" t="n">
-        <v>99.508</v>
+        <v>100.1878</v>
       </c>
       <c r="AM16" t="n">
-        <v>95.7586</v>
+        <v>97.3334</v>
       </c>
       <c r="AN16" t="n">
-        <v>97.2388</v>
+        <v>97.4584</v>
       </c>
       <c r="AO16" t="n">
-        <v>99.7246</v>
+        <v>99.9444</v>
       </c>
       <c r="AP16" t="n">
-        <v>79.1679</v>
+        <v>86.2634</v>
       </c>
       <c r="AQ16" t="n">
-        <v>82.3852</v>
+        <v>78.61539999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.5689</v>
+        <v>99.28530000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>99.9379</v>
+        <v>99.46810000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>99.6097</v>
+        <v>99.6212</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>98.5265</v>
+        <v>99.0919</v>
       </c>
       <c r="G17" t="n">
-        <v>93.3394</v>
+        <v>94.18340000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>91.3505</v>
+        <v>92.7166</v>
       </c>
       <c r="I17" t="n">
-        <v>100.8942</v>
+        <v>100.813</v>
       </c>
       <c r="J17" t="n">
-        <v>100.0478</v>
+        <v>99.9097</v>
       </c>
       <c r="K17" t="n">
-        <v>100.9829</v>
+        <v>100.655</v>
       </c>
       <c r="L17" t="n">
-        <v>95.6798</v>
+        <v>95.42749999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>90.681</v>
+        <v>90.8447</v>
       </c>
       <c r="N17" t="n">
-        <v>98.0823</v>
+        <v>98.06910000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>100.06</v>
+        <v>99.53270000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>94.48390000000001</v>
+        <v>96.4417</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.0162</v>
+        <v>95.0836</v>
       </c>
       <c r="R17" t="n">
-        <v>100.6742</v>
+        <v>100.3728</v>
       </c>
       <c r="S17" t="n">
-        <v>96.87390000000001</v>
+        <v>96.8017</v>
       </c>
       <c r="T17" t="n">
-        <v>102.4584</v>
+        <v>102.3836</v>
       </c>
       <c r="U17" t="n">
-        <v>99.4971</v>
+        <v>99.1541</v>
       </c>
       <c r="V17" t="n">
-        <v>100.51</v>
+        <v>100.4522</v>
       </c>
       <c r="W17" t="n">
-        <v>87.02679999999999</v>
+        <v>86.9726</v>
       </c>
       <c r="X17" t="n">
-        <v>97.5466</v>
+        <v>97.4289</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.2792</v>
+        <v>99.4597</v>
       </c>
       <c r="Z17" t="n">
-        <v>98.3182</v>
+        <v>98.4589</v>
       </c>
       <c r="AA17" t="n">
-        <v>101.2778</v>
+        <v>100.512</v>
       </c>
       <c r="AB17" t="n">
-        <v>77.2594</v>
+        <v>78.74299999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>67.10599999999999</v>
+        <v>61.346</v>
       </c>
       <c r="AD17" t="n">
-        <v>97.9054</v>
+        <v>97.5994</v>
       </c>
       <c r="AE17" t="n">
-        <v>100.6552</v>
+        <v>100.6467</v>
       </c>
       <c r="AF17" t="n">
-        <v>98.46210000000001</v>
+        <v>98.68089999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>99.1117</v>
+        <v>98.94750000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>99.1461</v>
+        <v>98.61150000000001</v>
       </c>
       <c r="AI17" t="n">
-        <v>99.73739999999999</v>
+        <v>100.0056</v>
       </c>
       <c r="AJ17" t="n">
-        <v>99.0505</v>
+        <v>98.87430000000001</v>
       </c>
       <c r="AK17" t="n">
-        <v>98.4044</v>
+        <v>97.78400000000001</v>
       </c>
       <c r="AL17" t="n">
-        <v>100.141</v>
+        <v>100.0992</v>
       </c>
       <c r="AM17" t="n">
-        <v>97.2179</v>
+        <v>97.0402</v>
       </c>
       <c r="AN17" t="n">
-        <v>98.0052</v>
+        <v>97.1934</v>
       </c>
       <c r="AO17" t="n">
-        <v>100.4328</v>
+        <v>99.88849999999999</v>
       </c>
       <c r="AP17" t="n">
-        <v>88.52800000000001</v>
+        <v>85.4679</v>
       </c>
       <c r="AQ17" t="n">
-        <v>79.5337</v>
+        <v>77.1311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.4271</v>
+        <v>99.3467</v>
       </c>
       <c r="C18" t="n">
-        <v>99.74979999999999</v>
+        <v>99.5077</v>
       </c>
       <c r="D18" t="n">
-        <v>99.34059999999999</v>
+        <v>99.01909999999999</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>98.7302</v>
+        <v>99.05119999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>92.7135</v>
+        <v>94.89019999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>91.0175</v>
+        <v>94.26819999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>100.8844</v>
+        <v>100.587</v>
       </c>
       <c r="J18" t="n">
-        <v>100.0006</v>
+        <v>99.91419999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>100.7977</v>
+        <v>100.5249</v>
       </c>
       <c r="L18" t="n">
-        <v>95.2024</v>
+        <v>95.393</v>
       </c>
       <c r="M18" t="n">
-        <v>90.657</v>
+        <v>90.4314</v>
       </c>
       <c r="N18" t="n">
-        <v>98.6386</v>
+        <v>97.38290000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>100.1663</v>
+        <v>99.2972</v>
       </c>
       <c r="P18" t="n">
-        <v>93.7205</v>
+        <v>96.1153</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.7509</v>
+        <v>95.3832</v>
       </c>
       <c r="R18" t="n">
-        <v>100.5346</v>
+        <v>100.0187</v>
       </c>
       <c r="S18" t="n">
-        <v>96.767</v>
+        <v>96.96469999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>102.2266</v>
+        <v>102.1426</v>
       </c>
       <c r="U18" t="n">
-        <v>99.4562</v>
+        <v>98.90349999999999</v>
       </c>
       <c r="V18" t="n">
-        <v>100.5089</v>
+        <v>100.5074</v>
       </c>
       <c r="W18" t="n">
-        <v>86.9247</v>
+        <v>85.9503</v>
       </c>
       <c r="X18" t="n">
-        <v>98.08540000000001</v>
+        <v>97.65689999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>99.7775</v>
+        <v>98.6097</v>
       </c>
       <c r="Z18" t="n">
-        <v>98.0805</v>
+        <v>98.4372</v>
       </c>
       <c r="AA18" t="n">
-        <v>101.2052</v>
+        <v>100.4435</v>
       </c>
       <c r="AB18" t="n">
-        <v>76.16289999999999</v>
+        <v>81.4391</v>
       </c>
       <c r="AC18" t="n">
-        <v>57.6469</v>
+        <v>63.9271</v>
       </c>
       <c r="AD18" t="n">
-        <v>97.624</v>
+        <v>97.7398</v>
       </c>
       <c r="AE18" t="n">
-        <v>100.6438</v>
+        <v>100.5932</v>
       </c>
       <c r="AF18" t="n">
-        <v>98.4552</v>
+        <v>98.5218</v>
       </c>
       <c r="AG18" t="n">
-        <v>99.06740000000001</v>
+        <v>98.8909</v>
       </c>
       <c r="AH18" t="n">
-        <v>98.76519999999999</v>
+        <v>98.82040000000001</v>
       </c>
       <c r="AI18" t="n">
-        <v>99.70780000000001</v>
+        <v>100.0791</v>
       </c>
       <c r="AJ18" t="n">
-        <v>99.1995</v>
+        <v>98.19710000000001</v>
       </c>
       <c r="AK18" t="n">
-        <v>98.0874</v>
+        <v>97.5722</v>
       </c>
       <c r="AL18" t="n">
-        <v>100.2548</v>
+        <v>100.0603</v>
       </c>
       <c r="AM18" t="n">
-        <v>97.35509999999999</v>
+        <v>96.6857</v>
       </c>
       <c r="AN18" t="n">
-        <v>97.6648</v>
+        <v>97.16719999999999</v>
       </c>
       <c r="AO18" t="n">
-        <v>100.0639</v>
+        <v>100.0887</v>
       </c>
       <c r="AP18" t="n">
-        <v>86.6816</v>
+        <v>84.30589999999999</v>
       </c>
       <c r="AQ18" t="n">
-        <v>79.00620000000001</v>
+        <v>77.47199999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.3548</v>
+        <v>99.2565</v>
       </c>
       <c r="C19" t="n">
-        <v>99.4811</v>
+        <v>99.4273</v>
       </c>
       <c r="D19" t="n">
-        <v>98.9577</v>
+        <v>99.3475</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>99.0055</v>
+        <v>98.7663</v>
       </c>
       <c r="G19" t="n">
-        <v>93.5235</v>
+        <v>94.9901</v>
       </c>
       <c r="H19" t="n">
-        <v>92.00149999999999</v>
+        <v>91.8486</v>
       </c>
       <c r="I19" t="n">
-        <v>100.9363</v>
+        <v>100.4964</v>
       </c>
       <c r="J19" t="n">
-        <v>99.89109999999999</v>
+        <v>99.59520000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>100.8086</v>
+        <v>100.3754</v>
       </c>
       <c r="L19" t="n">
-        <v>95.4397</v>
+        <v>95.1865</v>
       </c>
       <c r="M19" t="n">
-        <v>91.2914</v>
+        <v>91.4063</v>
       </c>
       <c r="N19" t="n">
-        <v>97.7189</v>
+        <v>96.6511</v>
       </c>
       <c r="O19" t="n">
-        <v>99.5155</v>
+        <v>99.05710000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>95.56059999999999</v>
+        <v>94.1439</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.24460000000001</v>
+        <v>95.3224</v>
       </c>
       <c r="R19" t="n">
-        <v>100.5742</v>
+        <v>99.74890000000001</v>
       </c>
       <c r="S19" t="n">
-        <v>96.5915</v>
+        <v>96.9422</v>
       </c>
       <c r="T19" t="n">
-        <v>102.3365</v>
+        <v>102.4794</v>
       </c>
       <c r="U19" t="n">
-        <v>99.35980000000001</v>
+        <v>99.08669999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>100.5049</v>
+        <v>100.5061</v>
       </c>
       <c r="W19" t="n">
-        <v>86.9618</v>
+        <v>84.5788</v>
       </c>
       <c r="X19" t="n">
-        <v>98.258</v>
+        <v>97.21729999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.5814</v>
+        <v>98.25449999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>98.4599</v>
+        <v>98.3745</v>
       </c>
       <c r="AA19" t="n">
-        <v>100.7712</v>
+        <v>100.2372</v>
       </c>
       <c r="AB19" t="n">
-        <v>78.85890000000001</v>
+        <v>81.2402</v>
       </c>
       <c r="AC19" t="n">
-        <v>60.7431</v>
+        <v>67.61879999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>97.5294</v>
+        <v>97.6726</v>
       </c>
       <c r="AE19" t="n">
-        <v>100.8866</v>
+        <v>100.6727</v>
       </c>
       <c r="AF19" t="n">
-        <v>98.51819999999999</v>
+        <v>98.6173</v>
       </c>
       <c r="AG19" t="n">
-        <v>98.985</v>
+        <v>98.8593</v>
       </c>
       <c r="AH19" t="n">
-        <v>98.5586</v>
+        <v>98.791</v>
       </c>
       <c r="AI19" t="n">
-        <v>99.86360000000001</v>
+        <v>99.809</v>
       </c>
       <c r="AJ19" t="n">
-        <v>98.9064</v>
+        <v>97.9268</v>
       </c>
       <c r="AK19" t="n">
-        <v>97.9845</v>
+        <v>97.3963</v>
       </c>
       <c r="AL19" t="n">
-        <v>100.1878</v>
+        <v>99.8188</v>
       </c>
       <c r="AM19" t="n">
-        <v>97.3334</v>
+        <v>96.4986</v>
       </c>
       <c r="AN19" t="n">
-        <v>97.4584</v>
+        <v>97.3569</v>
       </c>
       <c r="AO19" t="n">
-        <v>99.9444</v>
+        <v>100.0096</v>
       </c>
       <c r="AP19" t="n">
-        <v>86.2634</v>
+        <v>83.3488</v>
       </c>
       <c r="AQ19" t="n">
-        <v>78.61539999999999</v>
+        <v>79.883</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.28530000000001</v>
+        <v>99.1572</v>
       </c>
       <c r="C20" t="n">
-        <v>99.46810000000001</v>
+        <v>99.2353</v>
       </c>
       <c r="D20" t="n">
-        <v>99.6212</v>
+        <v>98.462</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>99.0919</v>
+        <v>98.9714</v>
       </c>
       <c r="G20" t="n">
-        <v>94.18340000000001</v>
+        <v>94.2133</v>
       </c>
       <c r="H20" t="n">
-        <v>92.7166</v>
+        <v>89.5553</v>
       </c>
       <c r="I20" t="n">
-        <v>100.813</v>
+        <v>100.4278</v>
       </c>
       <c r="J20" t="n">
-        <v>99.9097</v>
+        <v>99.6186</v>
       </c>
       <c r="K20" t="n">
-        <v>100.655</v>
+        <v>100.3583</v>
       </c>
       <c r="L20" t="n">
-        <v>95.42749999999999</v>
+        <v>94.63079999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>90.8447</v>
+        <v>88.5313</v>
       </c>
       <c r="N20" t="n">
-        <v>98.06910000000001</v>
+        <v>96.5655</v>
       </c>
       <c r="O20" t="n">
-        <v>99.53270000000001</v>
+        <v>98.62090000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>96.4417</v>
+        <v>91.52509999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.0836</v>
+        <v>92.2963</v>
       </c>
       <c r="R20" t="n">
-        <v>100.3728</v>
+        <v>99.658</v>
       </c>
       <c r="S20" t="n">
-        <v>96.8017</v>
+        <v>96.9306</v>
       </c>
       <c r="T20" t="n">
-        <v>102.3836</v>
+        <v>102.4458</v>
       </c>
       <c r="U20" t="n">
-        <v>99.1541</v>
+        <v>98.93680000000001</v>
       </c>
       <c r="V20" t="n">
-        <v>100.4522</v>
+        <v>100.495</v>
       </c>
       <c r="W20" t="n">
-        <v>86.9726</v>
+        <v>84.8518</v>
       </c>
       <c r="X20" t="n">
-        <v>97.4289</v>
+        <v>97.2518</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.4597</v>
+        <v>97.9885</v>
       </c>
       <c r="Z20" t="n">
-        <v>98.4589</v>
+        <v>97.9639</v>
       </c>
       <c r="AA20" t="n">
-        <v>100.512</v>
+        <v>100.2186</v>
       </c>
       <c r="AB20" t="n">
-        <v>78.74299999999999</v>
+        <v>78.9696</v>
       </c>
       <c r="AC20" t="n">
-        <v>61.346</v>
+        <v>65.3925</v>
       </c>
       <c r="AD20" t="n">
-        <v>97.5994</v>
+        <v>97.5424</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.6467</v>
+        <v>100.7331</v>
       </c>
       <c r="AF20" t="n">
-        <v>98.68089999999999</v>
+        <v>98.4207</v>
       </c>
       <c r="AG20" t="n">
-        <v>98.94750000000001</v>
+        <v>98.71599999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>98.61150000000001</v>
+        <v>98.67959999999999</v>
       </c>
       <c r="AI20" t="n">
-        <v>100.0056</v>
+        <v>99.7711</v>
       </c>
       <c r="AJ20" t="n">
-        <v>98.87430000000001</v>
+        <v>98.1707</v>
       </c>
       <c r="AK20" t="n">
-        <v>97.78400000000001</v>
+        <v>96.98690000000001</v>
       </c>
       <c r="AL20" t="n">
-        <v>100.0992</v>
+        <v>99.74290000000001</v>
       </c>
       <c r="AM20" t="n">
-        <v>97.0402</v>
+        <v>96.35590000000001</v>
       </c>
       <c r="AN20" t="n">
-        <v>97.1934</v>
+        <v>97.6751</v>
       </c>
       <c r="AO20" t="n">
-        <v>99.88849999999999</v>
+        <v>99.9598</v>
       </c>
       <c r="AP20" t="n">
-        <v>85.4679</v>
+        <v>81.6662</v>
       </c>
       <c r="AQ20" t="n">
-        <v>77.1311</v>
+        <v>79.911</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.3467</v>
+        <v>99.0227</v>
       </c>
       <c r="C21" t="n">
-        <v>99.5077</v>
+        <v>99.10120000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>99.01909999999999</v>
+        <v>98.1053</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>99.05119999999999</v>
+        <v>98.76990000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>94.89019999999999</v>
+        <v>92.55970000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>94.26819999999999</v>
+        <v>88.26479999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>100.587</v>
+        <v>100.4161</v>
       </c>
       <c r="J21" t="n">
-        <v>99.91419999999999</v>
+        <v>99.4734</v>
       </c>
       <c r="K21" t="n">
-        <v>100.5249</v>
+        <v>100.3701</v>
       </c>
       <c r="L21" t="n">
-        <v>95.393</v>
+        <v>94.07729999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>90.4314</v>
+        <v>88.0047</v>
       </c>
       <c r="N21" t="n">
-        <v>97.38290000000001</v>
+        <v>96.1891</v>
       </c>
       <c r="O21" t="n">
-        <v>99.2972</v>
+        <v>98.6414</v>
       </c>
       <c r="P21" t="n">
-        <v>96.1153</v>
+        <v>89.0459</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.3832</v>
+        <v>89.7235</v>
       </c>
       <c r="R21" t="n">
-        <v>100.0187</v>
+        <v>99.4406</v>
       </c>
       <c r="S21" t="n">
-        <v>96.96469999999999</v>
+        <v>96.6974</v>
       </c>
       <c r="T21" t="n">
-        <v>102.1426</v>
+        <v>102.2687</v>
       </c>
       <c r="U21" t="n">
-        <v>98.90349999999999</v>
+        <v>98.8344</v>
       </c>
       <c r="V21" t="n">
-        <v>100.5074</v>
+        <v>100.4528</v>
       </c>
       <c r="W21" t="n">
-        <v>85.9503</v>
+        <v>84.4087</v>
       </c>
       <c r="X21" t="n">
-        <v>97.65689999999999</v>
+        <v>97.21469999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>98.6097</v>
+        <v>97.9597</v>
       </c>
       <c r="Z21" t="n">
-        <v>98.4372</v>
+        <v>97.6621</v>
       </c>
       <c r="AA21" t="n">
-        <v>100.4435</v>
+        <v>100.4987</v>
       </c>
       <c r="AB21" t="n">
-        <v>81.4391</v>
+        <v>75.65779999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>63.9271</v>
+        <v>62.0796</v>
       </c>
       <c r="AD21" t="n">
-        <v>97.7398</v>
+        <v>97.46129999999999</v>
       </c>
       <c r="AE21" t="n">
-        <v>100.5932</v>
+        <v>100.7283</v>
       </c>
       <c r="AF21" t="n">
-        <v>98.5218</v>
+        <v>98.08029999999999</v>
       </c>
       <c r="AG21" t="n">
-        <v>98.8909</v>
+        <v>98.6621</v>
       </c>
       <c r="AH21" t="n">
-        <v>98.82040000000001</v>
+        <v>98.6305</v>
       </c>
       <c r="AI21" t="n">
-        <v>100.0791</v>
+        <v>99.7011</v>
       </c>
       <c r="AJ21" t="n">
-        <v>98.19710000000001</v>
+        <v>97.83969999999999</v>
       </c>
       <c r="AK21" t="n">
-        <v>97.5722</v>
+        <v>96.7043</v>
       </c>
       <c r="AL21" t="n">
-        <v>100.0603</v>
+        <v>99.6108</v>
       </c>
       <c r="AM21" t="n">
-        <v>96.6857</v>
+        <v>96.2372</v>
       </c>
       <c r="AN21" t="n">
-        <v>97.16719999999999</v>
+        <v>97.2144</v>
       </c>
       <c r="AO21" t="n">
-        <v>100.0887</v>
+        <v>100.0623</v>
       </c>
       <c r="AP21" t="n">
-        <v>84.30589999999999</v>
+        <v>81.2367</v>
       </c>
       <c r="AQ21" t="n">
-        <v>77.47199999999999</v>
+        <v>79.6216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.2565</v>
+        <v>99.0951</v>
       </c>
       <c r="C22" t="n">
-        <v>99.4273</v>
+        <v>99.1858</v>
       </c>
       <c r="D22" t="n">
-        <v>99.3475</v>
+        <v>97.96550000000001</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>98.7663</v>
+        <v>98.51479999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>94.9901</v>
+        <v>91.65309999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>91.8486</v>
+        <v>88.5558</v>
       </c>
       <c r="I22" t="n">
-        <v>100.4964</v>
+        <v>100.2771</v>
       </c>
       <c r="J22" t="n">
-        <v>99.59520000000001</v>
+        <v>99.27889999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>100.3754</v>
+        <v>100.6659</v>
       </c>
       <c r="L22" t="n">
-        <v>95.1865</v>
+        <v>94.05500000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>91.4063</v>
+        <v>87.69799999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>96.6511</v>
+        <v>96.1183</v>
       </c>
       <c r="O22" t="n">
-        <v>99.05710000000001</v>
+        <v>99.542</v>
       </c>
       <c r="P22" t="n">
-        <v>94.1439</v>
+        <v>88.4971</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.3224</v>
+        <v>89.96729999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>99.74890000000001</v>
+        <v>99.46510000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>96.9422</v>
+        <v>96.5166</v>
       </c>
       <c r="T22" t="n">
-        <v>102.4794</v>
+        <v>102.0605</v>
       </c>
       <c r="U22" t="n">
-        <v>99.08669999999999</v>
+        <v>98.9717</v>
       </c>
       <c r="V22" t="n">
-        <v>100.5061</v>
+        <v>100.4579</v>
       </c>
       <c r="W22" t="n">
-        <v>84.5788</v>
+        <v>84.60080000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21729999999999</v>
+        <v>96.3322</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.25449999999999</v>
+        <v>98.00879999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>98.3745</v>
+        <v>97.67</v>
       </c>
       <c r="AA22" t="n">
-        <v>100.2372</v>
+        <v>101.0644</v>
       </c>
       <c r="AB22" t="n">
-        <v>81.2402</v>
+        <v>75.4743</v>
       </c>
       <c r="AC22" t="n">
-        <v>67.61879999999999</v>
+        <v>59.3744</v>
       </c>
       <c r="AD22" t="n">
-        <v>97.6726</v>
+        <v>97.53100000000001</v>
       </c>
       <c r="AE22" t="n">
-        <v>100.6727</v>
+        <v>100.8534</v>
       </c>
       <c r="AF22" t="n">
-        <v>98.6173</v>
+        <v>98.61490000000001</v>
       </c>
       <c r="AG22" t="n">
-        <v>98.8593</v>
+        <v>98.78570000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>98.791</v>
+        <v>98.8479</v>
       </c>
       <c r="AI22" t="n">
-        <v>99.809</v>
+        <v>99.6914</v>
       </c>
       <c r="AJ22" t="n">
-        <v>97.9268</v>
+        <v>98.3091</v>
       </c>
       <c r="AK22" t="n">
-        <v>97.3963</v>
+        <v>96.617</v>
       </c>
       <c r="AL22" t="n">
-        <v>99.8188</v>
+        <v>99.6426</v>
       </c>
       <c r="AM22" t="n">
-        <v>96.4986</v>
+        <v>95.9996</v>
       </c>
       <c r="AN22" t="n">
-        <v>97.3569</v>
+        <v>97.6371</v>
       </c>
       <c r="AO22" t="n">
-        <v>100.0096</v>
+        <v>99.8403</v>
       </c>
       <c r="AP22" t="n">
-        <v>83.3488</v>
+        <v>81.2814</v>
       </c>
       <c r="AQ22" t="n">
-        <v>79.883</v>
+        <v>80.101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.1572</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>99.2353</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>98.462</v>
+        <v>98.5</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>98.9714</v>
+        <v>98.2</v>
       </c>
       <c r="G23" t="n">
-        <v>94.2133</v>
+        <v>91.7</v>
       </c>
       <c r="H23" t="n">
-        <v>89.5553</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>100.4278</v>
+        <v>100.1</v>
       </c>
       <c r="J23" t="n">
-        <v>99.6186</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>100.3583</v>
+        <v>100.6</v>
       </c>
       <c r="L23" t="n">
-        <v>94.63079999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>88.5313</v>
+        <v>86.8</v>
       </c>
       <c r="N23" t="n">
-        <v>96.5655</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>98.62090000000001</v>
+        <v>99.7</v>
       </c>
       <c r="P23" t="n">
-        <v>91.52509999999999</v>
+        <v>88.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.2963</v>
+        <v>90.2</v>
       </c>
       <c r="R23" t="n">
-        <v>99.658</v>
+        <v>99.3</v>
       </c>
       <c r="S23" t="n">
-        <v>96.9306</v>
+        <v>96.3</v>
       </c>
       <c r="T23" t="n">
-        <v>102.4458</v>
+        <v>102</v>
       </c>
       <c r="U23" t="n">
-        <v>98.93680000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>100.495</v>
+        <v>100.4</v>
       </c>
       <c r="W23" t="n">
-        <v>84.8518</v>
+        <v>84.2</v>
       </c>
       <c r="X23" t="n">
-        <v>97.2518</v>
+        <v>96</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.9885</v>
+        <v>98.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>97.9639</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AA23" t="n">
-        <v>100.2186</v>
+        <v>101</v>
       </c>
       <c r="AB23" t="n">
-        <v>78.9696</v>
+        <v>77.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>65.3925</v>
+        <v>60.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>97.5424</v>
+        <v>97.7</v>
       </c>
       <c r="AE23" t="n">
-        <v>100.7331</v>
+        <v>100.9</v>
       </c>
       <c r="AF23" t="n">
-        <v>98.4207</v>
+        <v>98.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>98.71599999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AH23" t="n">
-        <v>98.67959999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AI23" t="n">
-        <v>99.7711</v>
+        <v>99.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>98.1707</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AK23" t="n">
-        <v>96.98690000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AL23" t="n">
-        <v>99.74290000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AM23" t="n">
-        <v>96.35590000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AN23" t="n">
-        <v>97.6751</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>99.9598</v>
+        <v>99.7</v>
       </c>
       <c r="AP23" t="n">
-        <v>81.6662</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="AQ23" t="n">
-        <v>79.911</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.0227</v>
+        <v>98.869</v>
       </c>
       <c r="C24" t="n">
-        <v>99.10120000000001</v>
+        <v>99.0801</v>
       </c>
       <c r="D24" t="n">
-        <v>98.1053</v>
+        <v>98.37390000000001</v>
       </c>
       <c r="E24" t="n">
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>98.76990000000001</v>
+        <v>97.9453</v>
       </c>
       <c r="G24" t="n">
-        <v>92.55970000000001</v>
+        <v>92.13549999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>88.26479999999999</v>
+        <v>89.2865</v>
       </c>
       <c r="I24" t="n">
-        <v>100.4161</v>
+        <v>100.2518</v>
       </c>
       <c r="J24" t="n">
-        <v>99.4734</v>
+        <v>99.3335</v>
       </c>
       <c r="K24" t="n">
-        <v>100.3701</v>
+        <v>100.3786</v>
       </c>
       <c r="L24" t="n">
-        <v>94.07729999999999</v>
+        <v>94.08069999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>88.0047</v>
+        <v>85.09950000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>96.1891</v>
+        <v>95.8687</v>
       </c>
       <c r="O24" t="n">
-        <v>98.6414</v>
+        <v>100.0024</v>
       </c>
       <c r="P24" t="n">
-        <v>89.0459</v>
+        <v>86.52209999999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.7235</v>
+        <v>89.5758</v>
       </c>
       <c r="R24" t="n">
-        <v>99.4406</v>
+        <v>99.1806</v>
       </c>
       <c r="S24" t="n">
-        <v>96.6974</v>
+        <v>96.1455</v>
       </c>
       <c r="T24" t="n">
-        <v>102.2687</v>
+        <v>101.9918</v>
       </c>
       <c r="U24" t="n">
-        <v>98.8344</v>
+        <v>98.8736</v>
       </c>
       <c r="V24" t="n">
-        <v>100.4528</v>
+        <v>100.3984</v>
       </c>
       <c r="W24" t="n">
-        <v>84.4087</v>
+        <v>83.1721</v>
       </c>
       <c r="X24" t="n">
-        <v>97.21469999999999</v>
+        <v>96.696</v>
       </c>
       <c r="Y24" t="n">
-        <v>97.9597</v>
+        <v>98.1956</v>
       </c>
       <c r="Z24" t="n">
-        <v>97.6621</v>
+        <v>97.37949999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>100.4987</v>
+        <v>100.8972</v>
       </c>
       <c r="AB24" t="n">
-        <v>75.65779999999999</v>
+        <v>79.3951</v>
       </c>
       <c r="AC24" t="n">
-        <v>62.0796</v>
+        <v>63.4575</v>
       </c>
       <c r="AD24" t="n">
-        <v>97.46129999999999</v>
+        <v>97.7924</v>
       </c>
       <c r="AE24" t="n">
-        <v>100.7283</v>
+        <v>100.7836</v>
       </c>
       <c r="AF24" t="n">
-        <v>98.08029999999999</v>
+        <v>98.3918</v>
       </c>
       <c r="AG24" t="n">
-        <v>98.6621</v>
+        <v>98.6253</v>
       </c>
       <c r="AH24" t="n">
-        <v>98.6305</v>
+        <v>98.7967</v>
       </c>
       <c r="AI24" t="n">
-        <v>99.7011</v>
+        <v>99.6023</v>
       </c>
       <c r="AJ24" t="n">
-        <v>97.83969999999999</v>
+        <v>98.5904</v>
       </c>
       <c r="AK24" t="n">
-        <v>96.7043</v>
+        <v>95.9601</v>
       </c>
       <c r="AL24" t="n">
-        <v>99.6108</v>
+        <v>99.5441</v>
       </c>
       <c r="AM24" t="n">
-        <v>96.2372</v>
+        <v>95.6985</v>
       </c>
       <c r="AN24" t="n">
-        <v>97.2144</v>
+        <v>97.4825</v>
       </c>
       <c r="AO24" t="n">
-        <v>100.0623</v>
+        <v>99.6336</v>
       </c>
       <c r="AP24" t="n">
-        <v>81.2367</v>
+        <v>80.1469</v>
       </c>
       <c r="AQ24" t="n">
-        <v>79.6216</v>
+        <v>82.03959999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.0951</v>
+        <v>98.73909999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1858</v>
+        <v>99.1855</v>
       </c>
       <c r="D25" t="n">
-        <v>97.96550000000001</v>
+        <v>98.4393</v>
       </c>
       <c r="E25" t="n">
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>98.51479999999999</v>
+        <v>98.37350000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>91.65309999999999</v>
+        <v>93.0608</v>
       </c>
       <c r="H25" t="n">
-        <v>88.5558</v>
+        <v>89.1554</v>
       </c>
       <c r="I25" t="n">
-        <v>100.2771</v>
+        <v>99.99639999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>99.27889999999999</v>
+        <v>99.2517</v>
       </c>
       <c r="K25" t="n">
-        <v>100.6659</v>
+        <v>100.5711</v>
       </c>
       <c r="L25" t="n">
-        <v>94.05500000000001</v>
+        <v>94.1186</v>
       </c>
       <c r="M25" t="n">
-        <v>87.69799999999999</v>
+        <v>83.73779999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>96.1183</v>
+        <v>95.3613</v>
       </c>
       <c r="O25" t="n">
-        <v>99.542</v>
+        <v>99.934</v>
       </c>
       <c r="P25" t="n">
-        <v>88.4971</v>
+        <v>86.1401</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.96729999999999</v>
+        <v>89.5264</v>
       </c>
       <c r="R25" t="n">
-        <v>99.46510000000001</v>
+        <v>99.0077</v>
       </c>
       <c r="S25" t="n">
-        <v>96.5166</v>
+        <v>96.41119999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>102.0605</v>
+        <v>101.7868</v>
       </c>
       <c r="U25" t="n">
-        <v>98.9717</v>
+        <v>98.7704</v>
       </c>
       <c r="V25" t="n">
-        <v>100.4579</v>
+        <v>100.1524</v>
       </c>
       <c r="W25" t="n">
-        <v>84.60080000000001</v>
+        <v>82.7989</v>
       </c>
       <c r="X25" t="n">
-        <v>96.3322</v>
+        <v>94.7607</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.00879999999999</v>
+        <v>98.0635</v>
       </c>
       <c r="Z25" t="n">
-        <v>97.67</v>
+        <v>97.2178</v>
       </c>
       <c r="AA25" t="n">
-        <v>101.0644</v>
+        <v>101.0951</v>
       </c>
       <c r="AB25" t="n">
-        <v>75.4743</v>
+        <v>81.2551</v>
       </c>
       <c r="AC25" t="n">
-        <v>59.3744</v>
+        <v>62.7278</v>
       </c>
       <c r="AD25" t="n">
-        <v>97.53100000000001</v>
+        <v>97.7873</v>
       </c>
       <c r="AE25" t="n">
-        <v>100.8534</v>
+        <v>100.6128</v>
       </c>
       <c r="AF25" t="n">
-        <v>98.61490000000001</v>
+        <v>98.1135</v>
       </c>
       <c r="AG25" t="n">
-        <v>98.78570000000001</v>
+        <v>98.60760000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>98.8479</v>
+        <v>98.8772</v>
       </c>
       <c r="AI25" t="n">
-        <v>99.6914</v>
+        <v>99.48820000000001</v>
       </c>
       <c r="AJ25" t="n">
-        <v>98.3091</v>
+        <v>98.3036</v>
       </c>
       <c r="AK25" t="n">
-        <v>96.617</v>
+        <v>95.82899999999999</v>
       </c>
       <c r="AL25" t="n">
-        <v>99.6426</v>
+        <v>99.508</v>
       </c>
       <c r="AM25" t="n">
-        <v>95.9996</v>
+        <v>95.7586</v>
       </c>
       <c r="AN25" t="n">
-        <v>97.6371</v>
+        <v>97.2388</v>
       </c>
       <c r="AO25" t="n">
-        <v>99.8403</v>
+        <v>99.7246</v>
       </c>
       <c r="AP25" t="n">
-        <v>81.2814</v>
+        <v>79.1679</v>
       </c>
       <c r="AQ25" t="n">
-        <v>80.101</v>
+        <v>82.3852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7527</v>
       </c>
       <c r="C26" t="n">
-        <v>100.1</v>
+        <v>99.52290000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>100.7</v>
+        <v>100.8348</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>100.799999999999</v>
+        <v>99.0219</v>
       </c>
       <c r="G26" t="n">
-        <v>100.299999999999</v>
+        <v>93.7283</v>
       </c>
       <c r="H26" t="n">
-        <v>98.5</v>
+        <v>90.2585</v>
       </c>
       <c r="I26" t="n">
-        <v>100.6</v>
+        <v>100.2899</v>
       </c>
       <c r="J26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.148</v>
       </c>
       <c r="K26" t="n">
-        <v>101.2</v>
+        <v>100.757</v>
       </c>
       <c r="L26" t="n">
-        <v>101.2</v>
+        <v>94.72029999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>104.1</v>
+        <v>87.9867</v>
       </c>
       <c r="N26" t="n">
-        <v>100.299999999999</v>
+        <v>98.42700000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>103.5</v>
+        <v>99.4439</v>
       </c>
       <c r="P26" t="n">
-        <v>103.7</v>
+        <v>87.9243</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.2</v>
+        <v>89.88590000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>100</v>
+        <v>99.29040000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>98.5</v>
+        <v>97.0355</v>
       </c>
       <c r="T26" t="n">
-        <v>102</v>
+        <v>101.5497</v>
       </c>
       <c r="U26" t="n">
-        <v>99</v>
+        <v>98.8732</v>
       </c>
       <c r="V26" t="n">
-        <v>100</v>
+        <v>100.1215</v>
       </c>
       <c r="W26" t="n">
-        <v>115.4</v>
+        <v>82.2246</v>
       </c>
       <c r="X26" t="n">
-        <v>90</v>
+        <v>91.7097</v>
       </c>
       <c r="Y26" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8657</v>
       </c>
       <c r="Z26" t="n">
-        <v>98.59999999999999</v>
+        <v>97.27800000000001</v>
       </c>
       <c r="AA26" t="n">
-        <v>100.5</v>
+        <v>101.1242</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.6</v>
+        <v>86.50149999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>102</v>
+        <v>61.7392</v>
       </c>
       <c r="AD26" t="n">
-        <v>100.299999999999</v>
+        <v>97.06229999999999</v>
       </c>
       <c r="AE26" t="n">
-        <v>100.299999999999</v>
+        <v>100.487</v>
       </c>
       <c r="AF26" t="n">
-        <v>98.7999999999999</v>
+        <v>98.3092</v>
       </c>
       <c r="AG26" t="n">
-        <v>99.2999999999999</v>
+        <v>98.42400000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.04049999999999</v>
       </c>
       <c r="AI26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5295</v>
       </c>
       <c r="AJ26" t="n">
-        <v>103.6</v>
+        <v>100.8834</v>
       </c>
       <c r="AK26" t="n">
-        <v>100.2</v>
+        <v>95.7298</v>
       </c>
       <c r="AL26" t="n">
-        <v>100.1</v>
+        <v>98.9901</v>
       </c>
       <c r="AM26" t="n">
-        <v>101.1</v>
+        <v>95.75539999999999</v>
       </c>
       <c r="AN26" t="n">
-        <v>99.7999999999999</v>
+        <v>98.33969999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>100.1</v>
+        <v>99.77500000000001</v>
       </c>
       <c r="AP26" t="n">
-        <v>113.1</v>
+        <v>81.00749999999999</v>
       </c>
       <c r="AQ26" t="n">
-        <v>104.799999999999</v>
+        <v>81.1327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99</v>
+        <v>98.6431</v>
       </c>
       <c r="C27" t="n">
-        <v>100.2</v>
+        <v>99.5821</v>
       </c>
       <c r="D27" t="n">
-        <v>101.1</v>
+        <v>100.8106</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>101.6</v>
+        <v>99.2754</v>
       </c>
       <c r="G27" t="n">
-        <v>103.1</v>
+        <v>94.107</v>
       </c>
       <c r="H27" t="n">
-        <v>100.3</v>
+        <v>90.6841</v>
       </c>
       <c r="I27" t="n">
-        <v>100.6</v>
+        <v>100.3744</v>
       </c>
       <c r="J27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.1352</v>
       </c>
       <c r="K27" t="n">
-        <v>101.3</v>
+        <v>100.8539</v>
       </c>
       <c r="L27" t="n">
-        <v>103.3</v>
+        <v>95.09739999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>110.2</v>
+        <v>87.78789999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3</v>
+        <v>97.4701</v>
       </c>
       <c r="O27" t="n">
-        <v>104.2</v>
+        <v>100.0012</v>
       </c>
       <c r="P27" t="n">
-        <v>112.6</v>
+        <v>89.2765</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7</v>
+        <v>91.947</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1</v>
+        <v>99.2235</v>
       </c>
       <c r="S27" t="n">
-        <v>99.3</v>
+        <v>96.8964</v>
       </c>
       <c r="T27" t="n">
-        <v>102</v>
+        <v>101.7487</v>
       </c>
       <c r="U27" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7616</v>
       </c>
       <c r="V27" t="n">
-        <v>100</v>
+        <v>100.1298</v>
       </c>
       <c r="W27" t="n">
-        <v>128.6</v>
+        <v>82.3652</v>
       </c>
       <c r="X27" t="n">
-        <v>90.7</v>
+        <v>90.24979999999999</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.8</v>
+        <v>96.2817</v>
       </c>
       <c r="Z27" t="n">
-        <v>99.59999999999999</v>
+        <v>97.5573</v>
       </c>
       <c r="AA27" t="n">
-        <v>100.7</v>
+        <v>101.1417</v>
       </c>
       <c r="AB27" t="n">
-        <v>109</v>
+        <v>85.7011</v>
       </c>
       <c r="AC27" t="n">
-        <v>106.2</v>
+        <v>63.935</v>
       </c>
       <c r="AD27" t="n">
-        <v>101</v>
+        <v>97.3134</v>
       </c>
       <c r="AE27" t="n">
-        <v>100.5</v>
+        <v>100.311</v>
       </c>
       <c r="AF27" t="n">
-        <v>99.2</v>
+        <v>98.3169</v>
       </c>
       <c r="AG27" t="n">
-        <v>99.59999999999999</v>
+        <v>98.34869999999999</v>
       </c>
       <c r="AH27" t="n">
-        <v>100.8</v>
+        <v>99.2389</v>
       </c>
       <c r="AI27" t="n">
-        <v>99</v>
+        <v>99.48820000000001</v>
       </c>
       <c r="AJ27" t="n">
-        <v>103.6</v>
+        <v>101.0747</v>
       </c>
       <c r="AK27" t="n">
-        <v>101.7</v>
+        <v>95.7298</v>
       </c>
       <c r="AL27" t="n">
-        <v>100.3</v>
+        <v>98.94750000000001</v>
       </c>
       <c r="AM27" t="n">
-        <v>102.7</v>
+        <v>95.5582</v>
       </c>
       <c r="AN27" t="n">
-        <v>100.5</v>
+        <v>97.9466</v>
       </c>
       <c r="AO27" t="n">
-        <v>100.2</v>
+        <v>99.6519</v>
       </c>
       <c r="AP27" t="n">
-        <v>122.2</v>
+        <v>83.81870000000001</v>
       </c>
       <c r="AQ27" t="n">
-        <v>110.2</v>
+        <v>81.5732</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.3</v>
+        <v>98.6476</v>
       </c>
       <c r="C28" t="n">
-        <v>100.3</v>
+        <v>99.72929999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>101.8</v>
+        <v>100.6995</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>102.4</v>
+        <v>99.6972</v>
       </c>
       <c r="G28" t="n">
-        <v>106.6</v>
+        <v>94.5103</v>
       </c>
       <c r="H28" t="n">
-        <v>104.6</v>
+        <v>92.6707</v>
       </c>
       <c r="I28" t="n">
-        <v>100.8</v>
+        <v>100.2512</v>
       </c>
       <c r="J28" t="n">
-        <v>100.5</v>
+        <v>99.155</v>
       </c>
       <c r="K28" t="n">
-        <v>101.5</v>
+        <v>100.8496</v>
       </c>
       <c r="L28" t="n">
-        <v>105.5</v>
+        <v>95.6793</v>
       </c>
       <c r="M28" t="n">
-        <v>114.8</v>
+        <v>89.842</v>
       </c>
       <c r="N28" t="n">
-        <v>102.8</v>
+        <v>97.7159</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9</v>
+        <v>101.7675</v>
       </c>
       <c r="P28" t="n">
-        <v>117.1</v>
+        <v>91.6982</v>
       </c>
       <c r="Q28" t="n">
-        <v>116.9</v>
+        <v>95.6516</v>
       </c>
       <c r="R28" t="n">
-        <v>100.4</v>
+        <v>99.1563</v>
       </c>
       <c r="S28" t="n">
-        <v>100.3</v>
+        <v>97.2264</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1</v>
+        <v>101.6034</v>
       </c>
       <c r="U28" t="n">
-        <v>99.2</v>
+        <v>98.7728</v>
       </c>
       <c r="V28" t="n">
-        <v>100</v>
+        <v>100.1536</v>
       </c>
       <c r="W28" t="n">
-        <v>134</v>
+        <v>83.4273</v>
       </c>
       <c r="X28" t="n">
-        <v>95.3</v>
+        <v>89.75700000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.8</v>
+        <v>96.215</v>
       </c>
       <c r="Z28" t="n">
-        <v>100.7</v>
+        <v>97.7577</v>
       </c>
       <c r="AA28" t="n">
-        <v>100.7</v>
+        <v>101.1985</v>
       </c>
       <c r="AB28" t="n">
-        <v>116.6</v>
+        <v>82.0204</v>
       </c>
       <c r="AC28" t="n">
-        <v>119.7</v>
+        <v>66.2011</v>
       </c>
       <c r="AD28" t="n">
-        <v>101.8</v>
+        <v>97.5034</v>
       </c>
       <c r="AE28" t="n">
-        <v>101</v>
+        <v>100.3375</v>
       </c>
       <c r="AF28" t="n">
-        <v>99.8</v>
+        <v>98.2209</v>
       </c>
       <c r="AG28" t="n">
-        <v>99.90000000000001</v>
+        <v>98.563</v>
       </c>
       <c r="AH28" t="n">
-        <v>103.7</v>
+        <v>99.34990000000001</v>
       </c>
       <c r="AI28" t="n">
-        <v>99.3</v>
+        <v>99.37560000000001</v>
       </c>
       <c r="AJ28" t="n">
-        <v>104.7</v>
+        <v>100.9922</v>
       </c>
       <c r="AK28" t="n">
-        <v>103.4</v>
+        <v>96.44070000000001</v>
       </c>
       <c r="AL28" t="n">
-        <v>100.5</v>
+        <v>99.29130000000001</v>
       </c>
       <c r="AM28" t="n">
-        <v>103.7</v>
+        <v>95.67749999999999</v>
       </c>
       <c r="AN28" t="n">
-        <v>101.1</v>
+        <v>97.9349</v>
       </c>
       <c r="AO28" t="n">
-        <v>100.6</v>
+        <v>99.7761</v>
       </c>
       <c r="AP28" t="n">
-        <v>135</v>
+        <v>89.0741</v>
       </c>
       <c r="AQ28" t="n">
-        <v>118.2</v>
+        <v>86.8634</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.7527</v>
+        <v>98.80459999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>99.52290000000001</v>
+        <v>99.6921</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8348</v>
+        <v>99.9269</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>99.0219</v>
+        <v>99.6551</v>
       </c>
       <c r="G29" t="n">
-        <v>93.7283</v>
+        <v>94.91330000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>90.2585</v>
+        <v>93.0378</v>
       </c>
       <c r="I29" t="n">
-        <v>100.2899</v>
+        <v>100.3263</v>
       </c>
       <c r="J29" t="n">
-        <v>99.148</v>
+        <v>99.09139999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>100.757</v>
+        <v>100.8192</v>
       </c>
       <c r="L29" t="n">
-        <v>94.72029999999999</v>
+        <v>96.6187</v>
       </c>
       <c r="M29" t="n">
-        <v>87.9867</v>
+        <v>91.6246</v>
       </c>
       <c r="N29" t="n">
-        <v>98.42700000000001</v>
+        <v>97.8409</v>
       </c>
       <c r="O29" t="n">
-        <v>99.4439</v>
+        <v>101.3937</v>
       </c>
       <c r="P29" t="n">
-        <v>87.9243</v>
+        <v>92.31699999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>89.88590000000001</v>
+        <v>96.50369999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>99.29040000000001</v>
+        <v>99.24209999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>97.0355</v>
+        <v>97.0508</v>
       </c>
       <c r="T29" t="n">
-        <v>101.5497</v>
+        <v>102.0219</v>
       </c>
       <c r="U29" t="n">
-        <v>98.8732</v>
+        <v>98.75839999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>100.1215</v>
+        <v>100.1717</v>
       </c>
       <c r="W29" t="n">
-        <v>82.2246</v>
+        <v>85.47629999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>91.7097</v>
+        <v>89.8389</v>
       </c>
       <c r="Y29" t="n">
-        <v>96.8657</v>
+        <v>96.0479</v>
       </c>
       <c r="Z29" t="n">
-        <v>97.27800000000001</v>
+        <v>97.8673</v>
       </c>
       <c r="AA29" t="n">
-        <v>101.1242</v>
+        <v>100.9427</v>
       </c>
       <c r="AB29" t="n">
-        <v>86.50149999999999</v>
+        <v>83.9415</v>
       </c>
       <c r="AC29" t="n">
-        <v>61.7392</v>
+        <v>73.3454</v>
       </c>
       <c r="AD29" t="n">
-        <v>97.06229999999999</v>
+        <v>97.49079999999999</v>
       </c>
       <c r="AE29" t="n">
-        <v>100.487</v>
+        <v>100.4701</v>
       </c>
       <c r="AF29" t="n">
-        <v>98.3092</v>
+        <v>98.09059999999999</v>
       </c>
       <c r="AG29" t="n">
-        <v>98.42400000000001</v>
+        <v>98.68640000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>99.04049999999999</v>
+        <v>99.2439</v>
       </c>
       <c r="AI29" t="n">
-        <v>99.5295</v>
+        <v>99.2734</v>
       </c>
       <c r="AJ29" t="n">
-        <v>100.8834</v>
+        <v>101.021</v>
       </c>
       <c r="AK29" t="n">
-        <v>95.7298</v>
+        <v>97.4344</v>
       </c>
       <c r="AL29" t="n">
-        <v>98.9901</v>
+        <v>99.3612</v>
       </c>
       <c r="AM29" t="n">
-        <v>95.75539999999999</v>
+        <v>96.3571</v>
       </c>
       <c r="AN29" t="n">
-        <v>98.33969999999999</v>
+        <v>98.2938</v>
       </c>
       <c r="AO29" t="n">
-        <v>99.77500000000001</v>
+        <v>99.6416</v>
       </c>
       <c r="AP29" t="n">
-        <v>81.00749999999999</v>
+        <v>97.6123</v>
       </c>
       <c r="AQ29" t="n">
-        <v>81.1327</v>
+        <v>92.5175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.6431</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>99.5821</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8106</v>
+        <v>100.4</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>99.2754</v>
+        <v>99.7</v>
       </c>
       <c r="G30" t="n">
-        <v>94.107</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>90.6841</v>
+        <v>91.7</v>
       </c>
       <c r="I30" t="n">
-        <v>100.3744</v>
+        <v>100.3</v>
       </c>
       <c r="J30" t="n">
-        <v>99.1352</v>
+        <v>99</v>
       </c>
       <c r="K30" t="n">
-        <v>100.8539</v>
+        <v>101</v>
       </c>
       <c r="L30" t="n">
-        <v>95.09739999999999</v>
+        <v>97.2</v>
       </c>
       <c r="M30" t="n">
-        <v>87.78789999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>97.4701</v>
+        <v>98.8</v>
       </c>
       <c r="O30" t="n">
-        <v>100.0012</v>
+        <v>101.9</v>
       </c>
       <c r="P30" t="n">
-        <v>89.2765</v>
+        <v>92.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.947</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>99.2235</v>
+        <v>99.5</v>
       </c>
       <c r="S30" t="n">
-        <v>96.8964</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="T30" t="n">
-        <v>101.7487</v>
+        <v>102.2</v>
       </c>
       <c r="U30" t="n">
-        <v>98.7616</v>
+        <v>98.8</v>
       </c>
       <c r="V30" t="n">
-        <v>100.1298</v>
+        <v>100.2</v>
       </c>
       <c r="W30" t="n">
-        <v>82.3652</v>
+        <v>89.8</v>
       </c>
       <c r="X30" t="n">
-        <v>90.24979999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>96.2817</v>
+        <v>97</v>
       </c>
       <c r="Z30" t="n">
-        <v>97.5573</v>
+        <v>97.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>101.1417</v>
+        <v>100.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>85.7011</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>63.935</v>
+        <v>78.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>97.3134</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AE30" t="n">
-        <v>100.311</v>
+        <v>100.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>98.3169</v>
+        <v>98.2</v>
       </c>
       <c r="AG30" t="n">
-        <v>98.34869999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AH30" t="n">
-        <v>99.2389</v>
+        <v>99.2</v>
       </c>
       <c r="AI30" t="n">
-        <v>99.48820000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>101.0747</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="n">
-        <v>95.7298</v>
+        <v>98</v>
       </c>
       <c r="AL30" t="n">
-        <v>98.94750000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AM30" t="n">
-        <v>95.5582</v>
+        <v>97.2</v>
       </c>
       <c r="AN30" t="n">
-        <v>97.9466</v>
+        <v>98.7</v>
       </c>
       <c r="AO30" t="n">
-        <v>99.6519</v>
+        <v>99.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>83.81870000000001</v>
+        <v>101.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>81.5732</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.6476</v>
+        <v>98.7</v>
       </c>
       <c r="C31" t="n">
-        <v>99.72929999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>100.6995</v>
+        <v>100.6</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>99.6972</v>
+        <v>100.2</v>
       </c>
       <c r="G31" t="n">
-        <v>94.5103</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>92.6707</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>100.2512</v>
+        <v>100.4</v>
       </c>
       <c r="J31" t="n">
-        <v>99.155</v>
+        <v>99.3</v>
       </c>
       <c r="K31" t="n">
-        <v>100.8496</v>
+        <v>101.1</v>
       </c>
       <c r="L31" t="n">
-        <v>95.6793</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>89.842</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>97.7159</v>
+        <v>99.7</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7675</v>
+        <v>102.5</v>
       </c>
       <c r="P31" t="n">
-        <v>91.6982</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.6516</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>99.1563</v>
+        <v>99.7</v>
       </c>
       <c r="S31" t="n">
-        <v>97.2264</v>
+        <v>96.8</v>
       </c>
       <c r="T31" t="n">
-        <v>101.6034</v>
+        <v>102.1</v>
       </c>
       <c r="U31" t="n">
-        <v>98.7728</v>
+        <v>98.7</v>
       </c>
       <c r="V31" t="n">
-        <v>100.1536</v>
+        <v>100.1</v>
       </c>
       <c r="W31" t="n">
-        <v>83.4273</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>89.75700000000001</v>
+        <v>89.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.215</v>
+        <v>97.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>97.7577</v>
+        <v>98</v>
       </c>
       <c r="AA31" t="n">
-        <v>101.1985</v>
+        <v>101.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>82.0204</v>
+        <v>88.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>66.2011</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>97.5034</v>
+        <v>97.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>100.3375</v>
+        <v>100.6</v>
       </c>
       <c r="AF31" t="n">
-        <v>98.2209</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AG31" t="n">
-        <v>98.563</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>99.34990000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AI31" t="n">
-        <v>99.37560000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AJ31" t="n">
-        <v>100.9922</v>
+        <v>101.8</v>
       </c>
       <c r="AK31" t="n">
-        <v>96.44070000000001</v>
+        <v>98</v>
       </c>
       <c r="AL31" t="n">
-        <v>99.29130000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AM31" t="n">
-        <v>95.67749999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AN31" t="n">
-        <v>97.9349</v>
+        <v>98.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>99.7761</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AP31" t="n">
-        <v>89.0741</v>
+        <v>98.7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>86.8634</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.80459999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C32" t="n">
-        <v>99.6921</v>
+        <v>99.8</v>
       </c>
       <c r="D32" t="n">
-        <v>99.9269</v>
+        <v>101</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>99.6551</v>
+        <v>100.1</v>
       </c>
       <c r="G32" t="n">
-        <v>94.91330000000001</v>
+        <v>95.3</v>
       </c>
       <c r="H32" t="n">
-        <v>93.0378</v>
+        <v>93.7</v>
       </c>
       <c r="I32" t="n">
-        <v>100.3263</v>
+        <v>100.2</v>
       </c>
       <c r="J32" t="n">
-        <v>99.09139999999999</v>
+        <v>99.2</v>
       </c>
       <c r="K32" t="n">
-        <v>100.8192</v>
+        <v>101.2</v>
       </c>
       <c r="L32" t="n">
-        <v>96.6187</v>
+        <v>98.3</v>
       </c>
       <c r="M32" t="n">
-        <v>91.6246</v>
+        <v>97.2</v>
       </c>
       <c r="N32" t="n">
-        <v>97.8409</v>
+        <v>99.7</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3937</v>
+        <v>104.9</v>
       </c>
       <c r="P32" t="n">
-        <v>92.31699999999999</v>
+        <v>98</v>
       </c>
       <c r="Q32" t="n">
-        <v>96.50369999999999</v>
+        <v>104.4</v>
       </c>
       <c r="R32" t="n">
-        <v>99.24209999999999</v>
+        <v>100.4</v>
       </c>
       <c r="S32" t="n">
-        <v>97.0508</v>
+        <v>97</v>
       </c>
       <c r="T32" t="n">
-        <v>102.0219</v>
+        <v>102</v>
       </c>
       <c r="U32" t="n">
-        <v>98.75839999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V32" t="n">
-        <v>100.1717</v>
+        <v>100.1</v>
       </c>
       <c r="W32" t="n">
-        <v>85.47629999999999</v>
+        <v>94.7</v>
       </c>
       <c r="X32" t="n">
-        <v>89.8389</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.0479</v>
+        <v>97.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>97.8673</v>
+        <v>98.3</v>
       </c>
       <c r="AA32" t="n">
-        <v>100.9427</v>
+        <v>101.2</v>
       </c>
       <c r="AB32" t="n">
-        <v>83.9415</v>
+        <v>90.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>73.3454</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>97.49079999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AE32" t="n">
-        <v>100.4701</v>
+        <v>100.7</v>
       </c>
       <c r="AF32" t="n">
-        <v>98.09059999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AG32" t="n">
-        <v>98.68640000000001</v>
+        <v>99</v>
       </c>
       <c r="AH32" t="n">
-        <v>99.2439</v>
+        <v>99.2</v>
       </c>
       <c r="AI32" t="n">
-        <v>99.2734</v>
+        <v>98.8</v>
       </c>
       <c r="AJ32" t="n">
-        <v>101.021</v>
+        <v>102.2</v>
       </c>
       <c r="AK32" t="n">
-        <v>97.4344</v>
+        <v>98.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>99.3612</v>
+        <v>100</v>
       </c>
       <c r="AM32" t="n">
-        <v>96.3571</v>
+        <v>98.2</v>
       </c>
       <c r="AN32" t="n">
-        <v>98.2938</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>99.6416</v>
+        <v>99.7</v>
       </c>
       <c r="AP32" t="n">
-        <v>97.6123</v>
+        <v>102</v>
       </c>
       <c r="AQ32" t="n">
-        <v>92.5175</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C33" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D33" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>94.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>91.7</v>
+        <v>96.2</v>
       </c>
       <c r="I33" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="J33" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="N33" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="U33" t="n">
         <v>99</v>
       </c>
-      <c r="K33" t="n">
+      <c r="V33" t="n">
+        <v>100</v>
+      </c>
+      <c r="W33" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="AA33" t="n">
         <v>101</v>
       </c>
-      <c r="L33" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="M33" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="P33" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="R33" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="T33" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="U33" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="V33" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="W33" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="X33" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>100.9</v>
-      </c>
       <c r="AB33" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="AC33" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="AC33" t="n">
-        <v>78.5</v>
-      </c>
       <c r="AD33" t="n">
-        <v>97.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AE33" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AF33" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AH33" t="n">
         <v>99.2</v>
       </c>
       <c r="AI33" t="n">
-        <v>99.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AJ33" t="n">
-        <v>101</v>
+        <v>103.6</v>
       </c>
       <c r="AK33" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AL33" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AM33" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="AN33" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="AO33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>99.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>95.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.7</v>
+        <v>98.7999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="G34" t="n">
-        <v>94.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H34" t="n">
-        <v>92.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>100.4</v>
       </c>
       <c r="J34" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="K34" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="L34" t="n">
-        <v>97.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="M34" t="n">
-        <v>94.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="N34" t="n">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="O34" t="n">
-        <v>102.5</v>
+        <v>104.4</v>
       </c>
       <c r="P34" t="n">
-        <v>93.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="Q34" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>99.7999999999999</v>
+      </c>
+      <c r="S34" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="U34" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="R34" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="S34" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="T34" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
+        <v>100</v>
+      </c>
+      <c r="W34" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>89.7999999999999</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>97.2999999999999</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>95.7999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>100.299999999999</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AI34" t="n">
         <v>98.7</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AJ34" t="n">
+        <v>104</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>100.1</v>
       </c>
-      <c r="W34" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="X34" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>98</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>98</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>99.8</v>
-      </c>
       <c r="AM34" t="n">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AN34" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AO34" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AP34" t="n">
-        <v>98.7</v>
+        <v>110.1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>94.2</v>
+        <v>103.299999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="D35" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>100.1</v>
+        <v>100.799999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>95.3</v>
+        <v>100.299999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>93.7</v>
+        <v>98.5</v>
       </c>
       <c r="I35" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="J35" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K35" t="n">
         <v>101.2</v>
       </c>
       <c r="L35" t="n">
-        <v>98.3</v>
+        <v>101.2</v>
       </c>
       <c r="M35" t="n">
-        <v>97.2</v>
+        <v>104.1</v>
       </c>
       <c r="N35" t="n">
-        <v>99.7</v>
+        <v>100.299999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>104.9</v>
+        <v>103.5</v>
       </c>
       <c r="P35" t="n">
-        <v>98</v>
+        <v>103.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.4</v>
+        <v>109.2</v>
       </c>
       <c r="R35" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="S35" t="n">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="T35" t="n">
         <v>102</v>
       </c>
       <c r="U35" t="n">
+        <v>99</v>
+      </c>
+      <c r="V35" t="n">
+        <v>100</v>
+      </c>
+      <c r="W35" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>102</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>100.299999999999</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>100.299999999999</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>98.7999999999999</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>99.2999999999999</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AI35" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AJ35" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AL35" t="n">
         <v>100.1</v>
       </c>
-      <c r="W35" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="X35" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>99</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>100</v>
-      </c>
       <c r="AM35" t="n">
-        <v>98.2</v>
+        <v>101.1</v>
       </c>
       <c r="AN35" t="n">
-        <v>98.90000000000001</v>
+        <v>99.7999999999999</v>
       </c>
       <c r="AO35" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AP35" t="n">
-        <v>102</v>
+        <v>113.1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>96.3</v>
+        <v>104.799999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="C36" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="D36" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>101.6</v>
       </c>
       <c r="G36" t="n">
-        <v>96.90000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="H36" t="n">
-        <v>96.2</v>
+        <v>100.3</v>
       </c>
       <c r="I36" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="R36" t="n">
         <v>100.1</v>
       </c>
-      <c r="J36" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="P36" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="R36" t="n">
-        <v>99.8</v>
-      </c>
       <c r="S36" t="n">
-        <v>97.5</v>
+        <v>99.3</v>
       </c>
       <c r="T36" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="U36" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V36" t="n">
         <v>100</v>
       </c>
       <c r="W36" t="n">
-        <v>97.7</v>
+        <v>128.6</v>
       </c>
       <c r="X36" t="n">
-        <v>89.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="Y36" t="n">
-        <v>97.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>98.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AA36" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="AD36" t="n">
         <v>101</v>
       </c>
-      <c r="AB36" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AF36" t="n">
         <v>99.2</v>
       </c>
-      <c r="AE36" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>98.90000000000001</v>
-      </c>
       <c r="AG36" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AH36" t="n">
-        <v>99.2</v>
+        <v>100.8</v>
       </c>
       <c r="AI36" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="n">
         <v>103.6</v>
       </c>
       <c r="AK36" t="n">
-        <v>99.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="AL36" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="AM36" t="n">
-        <v>99</v>
+        <v>102.7</v>
       </c>
       <c r="AN36" t="n">
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="AP36" t="n">
-        <v>106.5</v>
+        <v>122.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>99.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.7999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C37" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D37" t="n">
-        <v>100.5</v>
+        <v>101.8</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="P37" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="R37" t="n">
         <v>100.4</v>
       </c>
-      <c r="G37" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>101</v>
-      </c>
-      <c r="L37" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>99.7999999999999</v>
-      </c>
       <c r="S37" t="n">
-        <v>97.7</v>
+        <v>100.3</v>
       </c>
       <c r="T37" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="U37" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="V37" t="n">
         <v>100</v>
       </c>
       <c r="W37" t="n">
-        <v>104.1</v>
+        <v>134</v>
       </c>
       <c r="X37" t="n">
-        <v>89.7999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.2999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>98.40000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="AA37" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="AB37" t="n">
-        <v>100</v>
+        <v>116.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>95.7999999999999</v>
+        <v>119.7</v>
       </c>
       <c r="AD37" t="n">
-        <v>99.59999999999999</v>
+        <v>101.8</v>
       </c>
       <c r="AE37" t="n">
-        <v>100.299999999999</v>
+        <v>101</v>
       </c>
       <c r="AF37" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
       <c r="AG37" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AH37" t="n">
-        <v>99.40000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="AI37" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="AJ37" t="n">
-        <v>104</v>
+        <v>104.7</v>
       </c>
       <c r="AK37" t="n">
-        <v>99.5</v>
+        <v>103.4</v>
       </c>
       <c r="AL37" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>99.90000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="AN37" t="n">
-        <v>99.09999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="AO37" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="AP37" t="n">
-        <v>110.1</v>
+        <v>135</v>
       </c>
       <c r="AQ37" t="n">
-        <v>103.299999999999</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="D38" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>100.3</v>
+        <v>102.6</v>
       </c>
       <c r="G38" t="n">
-        <v>110.7</v>
+        <v>109.2</v>
       </c>
       <c r="H38" t="n">
-        <v>111.6</v>
+        <v>109.3</v>
       </c>
       <c r="I38" t="n">
-        <v>101.8</v>
+        <v>100.7</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2</v>
+        <v>100.6</v>
       </c>
       <c r="K38" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="L38" t="n">
         <v>106.9</v>
       </c>
       <c r="M38" t="n">
-        <v>115.7</v>
+        <v>117.4</v>
       </c>
       <c r="N38" t="n">
-        <v>95.8</v>
+        <v>101.1</v>
       </c>
       <c r="O38" t="n">
-        <v>100</v>
+        <v>103.8</v>
       </c>
       <c r="P38" t="n">
-        <v>120</v>
+        <v>117.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.5</v>
+        <v>117.7</v>
       </c>
       <c r="R38" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="S38" t="n">
-        <v>103.4</v>
+        <v>101</v>
       </c>
       <c r="T38" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="U38" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V38" t="n">
         <v>100</v>
       </c>
       <c r="W38" t="n">
-        <v>119.7</v>
+        <v>138.4</v>
       </c>
       <c r="X38" t="n">
-        <v>103.1</v>
+        <v>100</v>
       </c>
       <c r="Y38" t="n">
-        <v>99.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="Z38" t="n">
-        <v>103.4</v>
+        <v>101.1</v>
       </c>
       <c r="AA38" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="AB38" t="n">
-        <v>115.5</v>
+        <v>124.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>116.5</v>
+        <v>158.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AE38" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AG38" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="AH38" t="n">
-        <v>116.6</v>
+        <v>105.7</v>
       </c>
       <c r="AI38" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="AL38" t="n">
         <v>100.9</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AM38" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="AN38" t="n">
         <v>101.6</v>
       </c>
-      <c r="AK38" t="n">
-        <v>107</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>110.3</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>107.1</v>
-      </c>
       <c r="AO38" t="n">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="AP38" t="n">
-        <v>130.8</v>
+        <v>137.7</v>
       </c>
       <c r="AQ38" t="n">
-        <v>111.4</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
       <c r="C39" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="D39" t="n">
         <v>102.4</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>99.90000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="G39" t="n">
-        <v>110.1</v>
+        <v>111.9</v>
       </c>
       <c r="H39" t="n">
-        <v>111.2</v>
+        <v>111.9</v>
       </c>
       <c r="I39" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="S39" t="n">
         <v>102.1</v>
       </c>
-      <c r="J39" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="M39" t="n">
-        <v>114</v>
-      </c>
-      <c r="N39" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="P39" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>101</v>
-      </c>
-      <c r="S39" t="n">
-        <v>103.2</v>
-      </c>
       <c r="T39" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="U39" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V39" t="n">
         <v>100</v>
       </c>
       <c r="W39" t="n">
-        <v>108.6</v>
+        <v>139.6</v>
       </c>
       <c r="X39" t="n">
-        <v>103.5</v>
+        <v>101.7</v>
       </c>
       <c r="Y39" t="n">
-        <v>99.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Z39" t="n">
-        <v>102.8</v>
+        <v>101.4</v>
       </c>
       <c r="AA39" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="AB39" t="n">
-        <v>113.8</v>
+        <v>130.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>120.3</v>
+        <v>185.3</v>
       </c>
       <c r="AD39" t="n">
-        <v>102.4</v>
+        <v>103.2</v>
       </c>
       <c r="AE39" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AF39" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="AG39" t="n">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>114.9</v>
+        <v>106.7</v>
       </c>
       <c r="AI39" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="AL39" t="n">
         <v>101</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>101.2</v>
-      </c>
       <c r="AM39" t="n">
-        <v>109.9</v>
+        <v>105</v>
       </c>
       <c r="AN39" t="n">
-        <v>107.4</v>
+        <v>103</v>
       </c>
       <c r="AO39" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AP39" t="n">
-        <v>123.9</v>
+        <v>140.1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>107.5</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>102</v>
+        <v>103.1</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>99.40000000000001</v>
+        <v>101.5</v>
       </c>
       <c r="G40" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="H40" t="n">
-        <v>107.9</v>
+        <v>110.8</v>
       </c>
       <c r="I40" t="n">
-        <v>102.6</v>
+        <v>101</v>
       </c>
       <c r="J40" t="n">
-        <v>101.7</v>
+        <v>100.9</v>
       </c>
       <c r="K40" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="L40" t="n">
-        <v>104.9</v>
+        <v>107.6</v>
       </c>
       <c r="M40" t="n">
-        <v>114.6</v>
+        <v>119.5</v>
       </c>
       <c r="N40" t="n">
-        <v>93.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O40" t="n">
-        <v>100</v>
+        <v>102.1</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1</v>
+        <v>117.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>111.9</v>
+        <v>115.5</v>
       </c>
       <c r="R40" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="S40" t="n">
         <v>102.5</v>
       </c>
       <c r="T40" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="U40" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="V40" t="n">
         <v>100</v>
       </c>
       <c r="W40" t="n">
-        <v>104.7</v>
+        <v>139.6</v>
       </c>
       <c r="X40" t="n">
-        <v>106.4</v>
+        <v>101.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AB40" t="n">
-        <v>112.3</v>
+        <v>129.9</v>
       </c>
       <c r="AC40" t="n">
-        <v>120.1</v>
+        <v>168.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>102.4</v>
+        <v>103.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AG40" t="n">
         <v>100.5</v>
       </c>
-      <c r="AF40" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="AG40" t="n">
+      <c r="AH40" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="AL40" t="n">
         <v>101.3</v>
       </c>
-      <c r="AH40" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AK40" t="n">
+      <c r="AM40" t="n">
         <v>105.8</v>
       </c>
-      <c r="AL40" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>112.4</v>
-      </c>
       <c r="AN40" t="n">
-        <v>108</v>
+        <v>103.3</v>
       </c>
       <c r="AO40" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AP40" t="n">
-        <v>118.5</v>
+        <v>136.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>104.9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D41" t="n">
-        <v>102.3</v>
+        <v>103.6</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>102.6</v>
+        <v>101</v>
       </c>
       <c r="G41" t="n">
         <v>109.2</v>
       </c>
       <c r="H41" t="n">
-        <v>109.3</v>
+        <v>108.8</v>
       </c>
       <c r="I41" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="J41" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="K41" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="L41" t="n">
-        <v>106.9</v>
+        <v>106.4</v>
       </c>
       <c r="M41" t="n">
-        <v>117.4</v>
+        <v>118.6</v>
       </c>
       <c r="N41" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>103.8</v>
+        <v>102.7</v>
       </c>
       <c r="P41" t="n">
-        <v>117.3</v>
+        <v>115.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>117.7</v>
+        <v>114.9</v>
       </c>
       <c r="R41" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="S41" t="n">
-        <v>101</v>
+        <v>102.7</v>
       </c>
       <c r="T41" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="U41" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V41" t="n">
         <v>100</v>
       </c>
       <c r="W41" t="n">
-        <v>138.4</v>
+        <v>140.4</v>
       </c>
       <c r="X41" t="n">
-        <v>100</v>
+        <v>102.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>124.4</v>
+        <v>127.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>158.5</v>
+        <v>143</v>
       </c>
       <c r="AD41" t="n">
-        <v>102.6</v>
+        <v>103.8</v>
       </c>
       <c r="AE41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AG41" t="n">
         <v>100.6</v>
       </c>
-      <c r="AF41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>100.3</v>
-      </c>
       <c r="AH41" t="n">
-        <v>105.7</v>
+        <v>106.1</v>
       </c>
       <c r="AI41" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="AJ41" t="n">
-        <v>103.9</v>
+        <v>104.2</v>
       </c>
       <c r="AK41" t="n">
-        <v>104.3</v>
+        <v>105</v>
       </c>
       <c r="AL41" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="AM41" t="n">
-        <v>104.6</v>
+        <v>106.5</v>
       </c>
       <c r="AN41" t="n">
-        <v>101.6</v>
+        <v>103.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="AP41" t="n">
-        <v>137.7</v>
+        <v>122.3</v>
       </c>
       <c r="AQ41" t="n">
-        <v>123.7</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>102.4</v>
+        <v>103.5</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>102.1</v>
+        <v>100.4</v>
       </c>
       <c r="G42" t="n">
-        <v>111.9</v>
+        <v>107.7</v>
       </c>
       <c r="H42" t="n">
-        <v>111.9</v>
+        <v>107.4</v>
       </c>
       <c r="I42" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="J42" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="K42" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="L42" t="n">
-        <v>107.8</v>
+        <v>105.5</v>
       </c>
       <c r="M42" t="n">
-        <v>118.8</v>
+        <v>113.6</v>
       </c>
       <c r="N42" t="n">
-        <v>101.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>103.1</v>
+        <v>101.8</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5</v>
+        <v>113.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.7</v>
+        <v>113.5</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="S42" t="n">
-        <v>102.1</v>
+        <v>102.7</v>
       </c>
       <c r="T42" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="U42" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="V42" t="n">
         <v>100</v>
       </c>
       <c r="W42" t="n">
-        <v>139.6</v>
+        <v>137.2</v>
       </c>
       <c r="X42" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="Z42" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="AA42" t="n">
         <v>101.4</v>
       </c>
-      <c r="AA42" t="n">
-        <v>100.7</v>
-      </c>
       <c r="AB42" t="n">
-        <v>130.5</v>
+        <v>122</v>
       </c>
       <c r="AC42" t="n">
-        <v>185.3</v>
+        <v>127</v>
       </c>
       <c r="AD42" t="n">
-        <v>103.2</v>
+        <v>103.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AF42" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="AG42" t="n">
         <v>100.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="AJ42" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="n">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="AL42" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AM42" t="n">
-        <v>105</v>
+        <v>107.2</v>
       </c>
       <c r="AN42" t="n">
-        <v>103</v>
+        <v>103.9</v>
       </c>
       <c r="AO42" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AP42" t="n">
-        <v>140.1</v>
+        <v>117.7</v>
       </c>
       <c r="AQ42" t="n">
-        <v>127.6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C43" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C43" t="n">
-        <v>100</v>
-      </c>
       <c r="D43" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="N43" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="O43" t="n">
         <v>101.5</v>
       </c>
-      <c r="G43" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>101</v>
-      </c>
-      <c r="J43" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="L43" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="M43" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="N43" t="n">
-        <v>100</v>
-      </c>
-      <c r="O43" t="n">
-        <v>102.1</v>
-      </c>
       <c r="P43" t="n">
-        <v>117.3</v>
+        <v>113.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.5</v>
+        <v>113.2</v>
       </c>
       <c r="R43" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="T43" t="n">
-        <v>102.3</v>
+        <v>101.7</v>
       </c>
       <c r="U43" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V43" t="n">
         <v>100</v>
       </c>
       <c r="W43" t="n">
-        <v>139.6</v>
+        <v>133.2</v>
       </c>
       <c r="X43" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="Z43" t="n">
         <v>101.6</v>
       </c>
-      <c r="Y43" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>101.5</v>
-      </c>
       <c r="AA43" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="AB43" t="n">
-        <v>129.9</v>
+        <v>114.9</v>
       </c>
       <c r="AC43" t="n">
-        <v>168.5</v>
+        <v>113.8</v>
       </c>
       <c r="AD43" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AE43" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AF43" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="AI43" t="n">
         <v>100.1</v>
       </c>
-      <c r="AG43" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="AK43" t="n">
-        <v>105.5</v>
+        <v>104.9</v>
       </c>
       <c r="AL43" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="AO43" t="n">
         <v>101.3</v>
       </c>
-      <c r="AM43" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>101.1</v>
-      </c>
       <c r="AP43" t="n">
-        <v>136.8</v>
+        <v>124.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>129</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C44" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C44" t="n">
-        <v>100.3</v>
-      </c>
       <c r="D44" t="n">
-        <v>103.6</v>
+        <v>102.5</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>109.2</v>
+        <v>107.6</v>
       </c>
       <c r="H44" t="n">
-        <v>108.8</v>
+        <v>109.5</v>
       </c>
       <c r="I44" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="K44" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="L44" t="n">
-        <v>106.4</v>
+        <v>105.5</v>
       </c>
       <c r="M44" t="n">
-        <v>118.6</v>
+        <v>114</v>
       </c>
       <c r="N44" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="O44" t="n">
-        <v>102.7</v>
+        <v>99.2</v>
       </c>
       <c r="P44" t="n">
-        <v>115.8</v>
+        <v>112.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.9</v>
+        <v>110.7</v>
       </c>
       <c r="R44" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="S44" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="T44" t="n">
         <v>101.8</v>
       </c>
       <c r="U44" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="V44" t="n">
         <v>100</v>
       </c>
       <c r="W44" t="n">
-        <v>140.4</v>
+        <v>132.3</v>
       </c>
       <c r="X44" t="n">
-        <v>102.1</v>
+        <v>100.6</v>
       </c>
       <c r="Y44" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="AA44" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AL44" t="n">
         <v>101.2</v>
       </c>
-      <c r="AB44" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>143</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>105</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>101.4</v>
-      </c>
       <c r="AM44" t="n">
-        <v>106.5</v>
+        <v>108.5</v>
       </c>
       <c r="AN44" t="n">
-        <v>103.6</v>
+        <v>105.2</v>
       </c>
       <c r="AO44" t="n">
         <v>101.3</v>
       </c>
       <c r="AP44" t="n">
-        <v>122.3</v>
+        <v>127.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>121.8</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D45" t="n">
-        <v>103.5</v>
+        <v>102.4</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="G45" t="n">
-        <v>107.7</v>
+        <v>108.4</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4</v>
+        <v>109.5</v>
       </c>
       <c r="I45" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="J45" t="n">
         <v>101.3</v>
       </c>
-      <c r="J45" t="n">
-        <v>101</v>
-      </c>
       <c r="K45" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>103</v>
+      </c>
+      <c r="T45" t="n">
         <v>102</v>
       </c>
-      <c r="L45" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O45" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="P45" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="T45" t="n">
-        <v>101.7</v>
-      </c>
       <c r="U45" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V45" t="n">
         <v>100</v>
       </c>
       <c r="W45" t="n">
-        <v>137.2</v>
+        <v>132.1</v>
       </c>
       <c r="X45" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AA45" t="n">
         <v>101.2</v>
       </c>
-      <c r="Y45" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>101.4</v>
-      </c>
       <c r="AB45" t="n">
-        <v>122</v>
+        <v>116.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>127</v>
+        <v>115.7</v>
       </c>
       <c r="AD45" t="n">
-        <v>103.8</v>
+        <v>102.9</v>
       </c>
       <c r="AE45" t="n">
         <v>101</v>
       </c>
       <c r="AF45" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="AH45" t="n">
-        <v>106.5</v>
+        <v>110.2</v>
       </c>
       <c r="AI45" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="AJ45" t="n">
-        <v>104</v>
+        <v>101.1</v>
       </c>
       <c r="AK45" t="n">
-        <v>104.8</v>
+        <v>105.9</v>
       </c>
       <c r="AL45" t="n">
         <v>101.3</v>
       </c>
       <c r="AM45" t="n">
-        <v>107.2</v>
+        <v>109</v>
       </c>
       <c r="AN45" t="n">
-        <v>103.9</v>
+        <v>105.7</v>
       </c>
       <c r="AO45" t="n">
         <v>101.4</v>
       </c>
       <c r="AP45" t="n">
-        <v>117.7</v>
+        <v>129.1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
         <v>99.90000000000001</v>
@@ -6474,511 +6474,511 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="G46" t="n">
-        <v>107.6</v>
+        <v>110</v>
       </c>
       <c r="H46" t="n">
-        <v>108.2</v>
+        <v>110.9</v>
       </c>
       <c r="I46" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2</v>
+        <v>101.9</v>
       </c>
       <c r="K46" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="L46" t="n">
-        <v>105.5</v>
+        <v>106.9</v>
       </c>
       <c r="M46" t="n">
-        <v>113.7</v>
+        <v>115.4</v>
       </c>
       <c r="N46" t="n">
-        <v>99.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5</v>
+        <v>99.7</v>
       </c>
       <c r="P46" t="n">
-        <v>113.9</v>
+        <v>120.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.2</v>
+        <v>114.1</v>
       </c>
       <c r="R46" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="S46" t="n">
-        <v>102.6</v>
+        <v>103.4</v>
       </c>
       <c r="T46" t="n">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="U46" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="V46" t="n">
         <v>100</v>
       </c>
       <c r="W46" t="n">
-        <v>133.2</v>
+        <v>128.6</v>
       </c>
       <c r="X46" t="n">
-        <v>100.3</v>
+        <v>102.5</v>
       </c>
       <c r="Y46" t="n">
         <v>99.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>101.6</v>
+        <v>103</v>
       </c>
       <c r="AA46" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>103</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="AG46" t="n">
         <v>101</v>
       </c>
-      <c r="AB46" t="n">
-        <v>114.9</v>
-      </c>
-      <c r="AC46" t="n">
+      <c r="AH46" t="n">
         <v>113.8</v>
       </c>
-      <c r="AD46" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AI46" t="n">
         <v>100.9</v>
       </c>
-      <c r="AF46" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>100.1</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>103.4</v>
+        <v>100.8</v>
       </c>
       <c r="AK46" t="n">
-        <v>104.9</v>
+        <v>106.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AM46" t="n">
-        <v>107.7</v>
+        <v>109.8</v>
       </c>
       <c r="AN46" t="n">
-        <v>104.7</v>
+        <v>106.3</v>
       </c>
       <c r="AO46" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AP46" t="n">
-        <v>124.5</v>
+        <v>131.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>111.9</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="C47" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D47" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="G47" t="n">
-        <v>107.6</v>
+        <v>110.7</v>
       </c>
       <c r="H47" t="n">
-        <v>109.5</v>
+        <v>111.6</v>
       </c>
       <c r="I47" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="J47" t="n">
-        <v>101.3</v>
+        <v>102.2</v>
       </c>
       <c r="K47" t="n">
         <v>101.7</v>
       </c>
       <c r="L47" t="n">
-        <v>105.5</v>
+        <v>106.9</v>
       </c>
       <c r="M47" t="n">
-        <v>114</v>
+        <v>115.7</v>
       </c>
       <c r="N47" t="n">
-        <v>98.2</v>
+        <v>95.8</v>
       </c>
       <c r="O47" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>112.7</v>
+        <v>120</v>
       </c>
       <c r="Q47" t="n">
-        <v>110.7</v>
+        <v>115.5</v>
       </c>
       <c r="R47" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="S47" t="n">
-        <v>102.6</v>
+        <v>103.4</v>
       </c>
       <c r="T47" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="U47" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="V47" t="n">
         <v>100</v>
       </c>
       <c r="W47" t="n">
-        <v>132.3</v>
+        <v>119.7</v>
       </c>
       <c r="X47" t="n">
-        <v>100.6</v>
+        <v>103.1</v>
       </c>
       <c r="Y47" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z47" t="n">
-        <v>101.9</v>
+        <v>103.4</v>
       </c>
       <c r="AA47" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AB47" t="n">
-        <v>110.9</v>
+        <v>115.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>105.8</v>
+        <v>116.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="AE47" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AF47" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="AH47" t="n">
-        <v>108.4</v>
+        <v>116.6</v>
       </c>
       <c r="AI47" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="AJ47" t="n">
-        <v>102.8</v>
+        <v>101.6</v>
       </c>
       <c r="AK47" t="n">
-        <v>105.3</v>
+        <v>107</v>
       </c>
       <c r="AL47" t="n">
         <v>101.2</v>
       </c>
       <c r="AM47" t="n">
-        <v>108.5</v>
+        <v>110.3</v>
       </c>
       <c r="AN47" t="n">
-        <v>105.2</v>
+        <v>107.1</v>
       </c>
       <c r="AO47" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AP47" t="n">
-        <v>127.5</v>
+        <v>130.8</v>
       </c>
       <c r="AQ47" t="n">
-        <v>112.4</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="C48" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D48" t="n">
         <v>102.4</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>108.4</v>
+        <v>110.1</v>
       </c>
       <c r="H48" t="n">
-        <v>109.5</v>
+        <v>111.2</v>
       </c>
       <c r="I48" t="n">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="J48" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="K48" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="L48" t="n">
-        <v>106.3</v>
+        <v>105.8</v>
       </c>
       <c r="M48" t="n">
+        <v>114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="P48" t="n">
         <v>114.4</v>
       </c>
-      <c r="N48" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="O48" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>116.3</v>
-      </c>
       <c r="Q48" t="n">
-        <v>111.2</v>
+        <v>113.5</v>
       </c>
       <c r="R48" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="S48" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="T48" t="n">
-        <v>102</v>
+        <v>102.2</v>
       </c>
       <c r="U48" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="V48" t="n">
         <v>100</v>
       </c>
       <c r="W48" t="n">
-        <v>132.1</v>
+        <v>108.6</v>
       </c>
       <c r="X48" t="n">
-        <v>102</v>
+        <v>103.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="Z48" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="AD48" t="n">
         <v>102.4</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AE48" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>99</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AL48" t="n">
         <v>101.2</v>
       </c>
-      <c r="AB48" t="n">
-        <v>116.8</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>115.7</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>101.3</v>
-      </c>
       <c r="AM48" t="n">
-        <v>109</v>
+        <v>109.9</v>
       </c>
       <c r="AN48" t="n">
-        <v>105.7</v>
+        <v>107.4</v>
       </c>
       <c r="AO48" t="n">
         <v>101.4</v>
       </c>
       <c r="AP48" t="n">
-        <v>129.1</v>
+        <v>123.9</v>
       </c>
       <c r="AQ48" t="n">
-        <v>114.1</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="C49" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D49" t="n">
-        <v>102.7</v>
+        <v>102</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" t="n">
-        <v>110.9</v>
+        <v>107.9</v>
       </c>
       <c r="I49" t="n">
-        <v>101.8</v>
+        <v>102.6</v>
       </c>
       <c r="J49" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="K49" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="M49" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="N49" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="O49" t="n">
+        <v>100</v>
+      </c>
+      <c r="P49" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="R49" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="T49" t="n">
         <v>101.9</v>
       </c>
-      <c r="K49" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="L49" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="M49" t="n">
-        <v>115.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>97</v>
-      </c>
-      <c r="O49" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="P49" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>114.1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="S49" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="T49" t="n">
-        <v>102.2</v>
-      </c>
       <c r="U49" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="V49" t="n">
         <v>100</v>
       </c>
       <c r="W49" t="n">
-        <v>128.6</v>
+        <v>104.7</v>
       </c>
       <c r="X49" t="n">
-        <v>102.5</v>
+        <v>106.4</v>
       </c>
       <c r="Y49" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="Z49" t="n">
-        <v>103</v>
+        <v>101.9</v>
       </c>
       <c r="AA49" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AG49" t="n">
         <v>101.3</v>
       </c>
-      <c r="AB49" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>103</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AG49" t="n">
+      <c r="AH49" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="AI49" t="n">
         <v>101</v>
       </c>
-      <c r="AH49" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>100.9</v>
-      </c>
       <c r="AJ49" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="AK49" t="n">
-        <v>106.5</v>
+        <v>105.8</v>
       </c>
       <c r="AL49" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
       <c r="AM49" t="n">
-        <v>109.8</v>
+        <v>112.4</v>
       </c>
       <c r="AN49" t="n">
-        <v>106.3</v>
+        <v>108</v>
       </c>
       <c r="AO49" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>131.5</v>
+        <v>118.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>113.7</v>
+        <v>104.9</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上年同月=100)(2014-2017).xlsx
+++ b/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上年同月=100)(2014-2017).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -648,5823 +648,5823 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.1534</v>
+        <v>99.56480000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>99.6709</v>
+        <v>100.1489</v>
       </c>
       <c r="D2" t="n">
-        <v>101.5905</v>
+        <v>102.2553</v>
       </c>
       <c r="E2" t="n">
         <v>100.037</v>
       </c>
       <c r="F2" t="n">
-        <v>98.8754</v>
+        <v>98.9953</v>
       </c>
       <c r="G2" t="n">
-        <v>98.0735</v>
+        <v>98.26560000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>94.01909999999999</v>
+        <v>95.2499</v>
       </c>
       <c r="I2" t="n">
-        <v>100.4667</v>
+        <v>100.9411</v>
       </c>
       <c r="J2" t="n">
-        <v>99.5046</v>
+        <v>99.9969</v>
       </c>
       <c r="K2" t="n">
-        <v>100.0233</v>
+        <v>101.2076</v>
       </c>
       <c r="L2" t="n">
-        <v>98.40000000000001</v>
+        <v>97.7572</v>
       </c>
       <c r="M2" t="n">
-        <v>95.3274</v>
+        <v>92.5453</v>
       </c>
       <c r="N2" t="n">
-        <v>103.0915</v>
+        <v>99.0491</v>
       </c>
       <c r="O2" t="n">
-        <v>98.3758</v>
+        <v>100.4237</v>
       </c>
       <c r="P2" t="n">
-        <v>93.2337</v>
+        <v>97.17310000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.77079999999999</v>
+        <v>97.4978</v>
       </c>
       <c r="R2" t="n">
-        <v>100.46</v>
+        <v>101.0318</v>
       </c>
       <c r="S2" t="n">
-        <v>99.1905</v>
+        <v>98.48480000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>102.4671</v>
+        <v>102.4475</v>
       </c>
       <c r="U2" t="n">
-        <v>98.9777</v>
+        <v>99.619</v>
       </c>
       <c r="V2" t="n">
-        <v>100.2694</v>
+        <v>100.3587</v>
       </c>
       <c r="W2" t="n">
-        <v>90.6181</v>
+        <v>88.6486</v>
       </c>
       <c r="X2" t="n">
-        <v>105.0949</v>
+        <v>102.0289</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.87439999999999</v>
+        <v>99.9422</v>
       </c>
       <c r="Z2" t="n">
-        <v>98.78879999999999</v>
+        <v>98.81829999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.126</v>
+        <v>101.3189</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.68259999999999</v>
+        <v>91.88720000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.0463</v>
+        <v>91.7539</v>
       </c>
       <c r="AD2" t="n">
-        <v>100.1642</v>
+        <v>98.82810000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>100.274</v>
+        <v>99.97369999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>97.4014</v>
+        <v>98.5528</v>
       </c>
       <c r="AG2" t="n">
-        <v>99.6003</v>
+        <v>99.4669</v>
       </c>
       <c r="AH2" t="n">
-        <v>98.553</v>
+        <v>99.61490000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>100.3889</v>
+        <v>100.6255</v>
       </c>
       <c r="AJ2" t="n">
-        <v>99.79430000000001</v>
+        <v>98.9383</v>
       </c>
       <c r="AK2" t="n">
-        <v>98.4528</v>
+        <v>98.7715</v>
       </c>
       <c r="AL2" t="n">
-        <v>99.31270000000001</v>
+        <v>99.9021</v>
       </c>
       <c r="AM2" t="n">
-        <v>101.2725</v>
+        <v>99.2433</v>
       </c>
       <c r="AN2" t="n">
-        <v>100.7061</v>
+        <v>98.5294</v>
       </c>
       <c r="AO2" t="n">
-        <v>102.465</v>
+        <v>101.5205</v>
       </c>
       <c r="AP2" t="n">
-        <v>94.89709999999999</v>
+        <v>91.52970000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>99.75320000000001</v>
+        <v>85.30719999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.125</v>
+        <v>99.6217</v>
       </c>
       <c r="C3" t="n">
-        <v>99.706</v>
+        <v>100.0233</v>
       </c>
       <c r="D3" t="n">
-        <v>101.8579</v>
+        <v>102.1513</v>
       </c>
       <c r="E3" t="n">
-        <v>100.037</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>98.37009999999999</v>
+        <v>98.76009999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>97.6186</v>
+        <v>96.9931</v>
       </c>
       <c r="H3" t="n">
-        <v>93.4109</v>
+        <v>94.3792</v>
       </c>
       <c r="I3" t="n">
-        <v>100.531</v>
+        <v>100.687</v>
       </c>
       <c r="J3" t="n">
-        <v>99.8738</v>
+        <v>99.8369</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3418</v>
+        <v>101.1327</v>
       </c>
       <c r="L3" t="n">
-        <v>97.98180000000001</v>
+        <v>97.30719999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>94.89279999999999</v>
+        <v>91.92870000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>101.5349</v>
+        <v>98.82389999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>98.4682</v>
+        <v>100.0493</v>
       </c>
       <c r="P3" t="n">
-        <v>92.2642</v>
+        <v>97.1279</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.8177</v>
+        <v>97.1833</v>
       </c>
       <c r="R3" t="n">
-        <v>100.5051</v>
+        <v>100.9242</v>
       </c>
       <c r="S3" t="n">
-        <v>98.87560000000001</v>
+        <v>98.26649999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>102.6261</v>
+        <v>101.9795</v>
       </c>
       <c r="U3" t="n">
-        <v>99.2124</v>
+        <v>99.6003</v>
       </c>
       <c r="V3" t="n">
-        <v>100.2085</v>
+        <v>100.3369</v>
       </c>
       <c r="W3" t="n">
-        <v>89.7899</v>
+        <v>88.3856</v>
       </c>
       <c r="X3" t="n">
-        <v>105.1878</v>
+        <v>100.2543</v>
       </c>
       <c r="Y3" t="n">
-        <v>100.3441</v>
+        <v>100.2678</v>
       </c>
       <c r="Z3" t="n">
-        <v>98.646</v>
+        <v>98.7298</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0239</v>
+        <v>101.2272</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.4491</v>
+        <v>88.7599</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.73399999999999</v>
+        <v>86.99890000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>100.0607</v>
+        <v>98.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>100.3712</v>
+        <v>100.0682</v>
       </c>
       <c r="AF3" t="n">
-        <v>97.6904</v>
+        <v>98.386</v>
       </c>
       <c r="AG3" t="n">
-        <v>99.4772</v>
+        <v>99.3382</v>
       </c>
       <c r="AH3" t="n">
-        <v>98.9909</v>
+        <v>99.5716</v>
       </c>
       <c r="AI3" t="n">
-        <v>100.4527</v>
+        <v>100.2361</v>
       </c>
       <c r="AJ3" t="n">
-        <v>99.9115</v>
+        <v>99.0378</v>
       </c>
       <c r="AK3" t="n">
-        <v>98.32859999999999</v>
+        <v>98.7671</v>
       </c>
       <c r="AL3" t="n">
-        <v>99.0628</v>
+        <v>100.0116</v>
       </c>
       <c r="AM3" t="n">
-        <v>101.3099</v>
+        <v>98.4406</v>
       </c>
       <c r="AN3" t="n">
-        <v>100.8483</v>
+        <v>98.20529999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>102.6399</v>
+        <v>100.9709</v>
       </c>
       <c r="AP3" t="n">
-        <v>93.0335</v>
+        <v>91.0924</v>
       </c>
       <c r="AQ3" t="n">
-        <v>97.69329999999999</v>
+        <v>83.4281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.95480000000001</v>
+        <v>99.61969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>99.96129999999999</v>
+        <v>99.962</v>
       </c>
       <c r="D4" t="n">
-        <v>101.8518</v>
+        <v>102.0189</v>
       </c>
       <c r="E4" t="n">
-        <v>100.037</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>98.2414</v>
+        <v>98.37220000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>97.1789</v>
+        <v>95.0744</v>
       </c>
       <c r="H4" t="n">
-        <v>92.3111</v>
+        <v>93.6904</v>
       </c>
       <c r="I4" t="n">
-        <v>100.7433</v>
+        <v>100.7979</v>
       </c>
       <c r="J4" t="n">
-        <v>99.9509</v>
+        <v>99.8479</v>
       </c>
       <c r="K4" t="n">
-        <v>100.354</v>
+        <v>101.0533</v>
       </c>
       <c r="L4" t="n">
-        <v>97.6981</v>
+        <v>96.6848</v>
       </c>
       <c r="M4" t="n">
-        <v>92.96169999999999</v>
+        <v>92.11</v>
       </c>
       <c r="N4" t="n">
-        <v>100.1286</v>
+        <v>99.227</v>
       </c>
       <c r="O4" t="n">
-        <v>98.98739999999999</v>
+        <v>100.1981</v>
       </c>
       <c r="P4" t="n">
-        <v>91.48050000000001</v>
+        <v>96.5645</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.56829999999999</v>
+        <v>96.8485</v>
       </c>
       <c r="R4" t="n">
-        <v>100.4641</v>
+        <v>100.8411</v>
       </c>
       <c r="S4" t="n">
-        <v>98.96259999999999</v>
+        <v>97.4798</v>
       </c>
       <c r="T4" t="n">
-        <v>102.3584</v>
+        <v>102.2229</v>
       </c>
       <c r="U4" t="n">
-        <v>99.2717</v>
+        <v>99.6272</v>
       </c>
       <c r="V4" t="n">
-        <v>100.2022</v>
+        <v>100.5833</v>
       </c>
       <c r="W4" t="n">
-        <v>88.422</v>
+        <v>87.78449999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>104.8793</v>
+        <v>97.4956</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.4591</v>
+        <v>100.3695</v>
       </c>
       <c r="Z4" t="n">
-        <v>98.411</v>
+        <v>98.7818</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.3022</v>
+        <v>101.1904</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.2144</v>
+        <v>83.718</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.0356</v>
+        <v>80.34399999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>99.78700000000001</v>
+        <v>98.2663</v>
       </c>
       <c r="AE4" t="n">
-        <v>100.287</v>
+        <v>100.1692</v>
       </c>
       <c r="AF4" t="n">
-        <v>98.06359999999999</v>
+        <v>98.7496</v>
       </c>
       <c r="AG4" t="n">
-        <v>99.51730000000001</v>
+        <v>99.2946</v>
       </c>
       <c r="AH4" t="n">
-        <v>99.0655</v>
+        <v>99.3635</v>
       </c>
       <c r="AI4" t="n">
-        <v>100.3994</v>
+        <v>100.1777</v>
       </c>
       <c r="AJ4" t="n">
-        <v>99.5929</v>
+        <v>98.94629999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>98.16549999999999</v>
+        <v>98.6003</v>
       </c>
       <c r="AL4" t="n">
-        <v>99.1236</v>
+        <v>99.9705</v>
       </c>
       <c r="AM4" t="n">
-        <v>100.9796</v>
+        <v>97.7192</v>
       </c>
       <c r="AN4" t="n">
-        <v>100.2802</v>
+        <v>98.0423</v>
       </c>
       <c r="AO4" t="n">
-        <v>102.4523</v>
+        <v>100.6253</v>
       </c>
       <c r="AP4" t="n">
-        <v>92.2103</v>
+        <v>90.3441</v>
       </c>
       <c r="AQ4" t="n">
-        <v>95.22369999999999</v>
+        <v>80.9648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.8887</v>
+        <v>100.1534</v>
       </c>
       <c r="C5" t="n">
-        <v>99.937</v>
+        <v>99.6709</v>
       </c>
       <c r="D5" t="n">
-        <v>101.8238</v>
+        <v>101.5905</v>
       </c>
       <c r="E5" t="n">
         <v>100.037</v>
       </c>
       <c r="F5" t="n">
-        <v>98.7235</v>
+        <v>98.8754</v>
       </c>
       <c r="G5" t="n">
-        <v>97.67440000000001</v>
+        <v>98.0735</v>
       </c>
       <c r="H5" t="n">
-        <v>93.68129999999999</v>
+        <v>94.01909999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>100.7616</v>
+        <v>100.4667</v>
       </c>
       <c r="J5" t="n">
-        <v>99.9366</v>
+        <v>99.5046</v>
       </c>
       <c r="K5" t="n">
-        <v>100.4851</v>
+        <v>100.0233</v>
       </c>
       <c r="L5" t="n">
-        <v>97.9958</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>93.1476</v>
+        <v>95.3274</v>
       </c>
       <c r="N5" t="n">
-        <v>98.5368</v>
+        <v>103.0915</v>
       </c>
       <c r="O5" t="n">
-        <v>99.2758</v>
+        <v>98.3758</v>
       </c>
       <c r="P5" t="n">
-        <v>92.9939</v>
+        <v>93.2337</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.1143</v>
+        <v>92.77079999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>100.5561</v>
+        <v>100.46</v>
       </c>
       <c r="S5" t="n">
-        <v>98.93559999999999</v>
+        <v>99.1905</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4774</v>
+        <v>102.4671</v>
       </c>
       <c r="U5" t="n">
-        <v>99.3674</v>
+        <v>98.9777</v>
       </c>
       <c r="V5" t="n">
-        <v>100.2578</v>
+        <v>100.2694</v>
       </c>
       <c r="W5" t="n">
-        <v>87.45910000000001</v>
+        <v>90.6181</v>
       </c>
       <c r="X5" t="n">
-        <v>105.8456</v>
+        <v>105.0949</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.44</v>
+        <v>99.87439999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>98.64100000000001</v>
+        <v>98.78879999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.193</v>
+        <v>102.126</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.8629</v>
+        <v>97.68259999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.00449999999999</v>
+        <v>99.0463</v>
       </c>
       <c r="AD5" t="n">
-        <v>99.4627</v>
+        <v>100.1642</v>
       </c>
       <c r="AE5" t="n">
-        <v>100.2384</v>
+        <v>100.274</v>
       </c>
       <c r="AF5" t="n">
-        <v>97.95699999999999</v>
+        <v>97.4014</v>
       </c>
       <c r="AG5" t="n">
-        <v>99.41630000000001</v>
+        <v>99.6003</v>
       </c>
       <c r="AH5" t="n">
-        <v>99.0637</v>
+        <v>98.553</v>
       </c>
       <c r="AI5" t="n">
-        <v>100.3581</v>
+        <v>100.3889</v>
       </c>
       <c r="AJ5" t="n">
-        <v>99.6867</v>
+        <v>99.79430000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>98.3467</v>
+        <v>98.4528</v>
       </c>
       <c r="AL5" t="n">
-        <v>99.4329</v>
+        <v>99.31270000000001</v>
       </c>
       <c r="AM5" t="n">
-        <v>100.77</v>
+        <v>101.2725</v>
       </c>
       <c r="AN5" t="n">
-        <v>99.8514</v>
+        <v>100.7061</v>
       </c>
       <c r="AO5" t="n">
-        <v>102.4796</v>
+        <v>102.465</v>
       </c>
       <c r="AP5" t="n">
-        <v>93.19629999999999</v>
+        <v>94.89709999999999</v>
       </c>
       <c r="AQ5" t="n">
-        <v>94.95350000000001</v>
+        <v>99.75320000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.7347</v>
+        <v>100.125</v>
       </c>
       <c r="C6" t="n">
-        <v>99.9811</v>
+        <v>99.706</v>
       </c>
       <c r="D6" t="n">
-        <v>101.9304</v>
+        <v>101.8579</v>
       </c>
       <c r="E6" t="n">
         <v>100.037</v>
       </c>
       <c r="F6" t="n">
-        <v>99.3768</v>
+        <v>98.37009999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>98.2169</v>
+        <v>97.6186</v>
       </c>
       <c r="H6" t="n">
-        <v>94.00149999999999</v>
+        <v>93.4109</v>
       </c>
       <c r="I6" t="n">
-        <v>100.7259</v>
+        <v>100.531</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1512</v>
+        <v>99.8738</v>
       </c>
       <c r="K6" t="n">
-        <v>100.7685</v>
+        <v>100.3418</v>
       </c>
       <c r="L6" t="n">
-        <v>98.5536</v>
+        <v>97.98180000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>93.51649999999999</v>
+        <v>94.89279999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>99.1246</v>
+        <v>101.5349</v>
       </c>
       <c r="O6" t="n">
-        <v>100.1041</v>
+        <v>98.4682</v>
       </c>
       <c r="P6" t="n">
-        <v>95.37560000000001</v>
+        <v>92.2642</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.78270000000001</v>
+        <v>92.8177</v>
       </c>
       <c r="R6" t="n">
-        <v>100.8919</v>
+        <v>100.5051</v>
       </c>
       <c r="S6" t="n">
-        <v>98.9599</v>
+        <v>98.87560000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>102.8388</v>
+        <v>102.6261</v>
       </c>
       <c r="U6" t="n">
-        <v>99.4971</v>
+        <v>99.2124</v>
       </c>
       <c r="V6" t="n">
-        <v>100.2675</v>
+        <v>100.2085</v>
       </c>
       <c r="W6" t="n">
-        <v>88.29389999999999</v>
+        <v>89.7899</v>
       </c>
       <c r="X6" t="n">
-        <v>105.7524</v>
+        <v>105.1878</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.1836</v>
+        <v>100.3441</v>
       </c>
       <c r="Z6" t="n">
-        <v>98.8738</v>
+        <v>98.646</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.0103</v>
+        <v>102.0239</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.00530000000001</v>
+        <v>95.4491</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.3052</v>
+        <v>96.73399999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>99.61499999999999</v>
+        <v>100.0607</v>
       </c>
       <c r="AE6" t="n">
-        <v>100.2717</v>
+        <v>100.3712</v>
       </c>
       <c r="AF6" t="n">
-        <v>98.2783</v>
+        <v>97.6904</v>
       </c>
       <c r="AG6" t="n">
-        <v>99.48860000000001</v>
+        <v>99.4772</v>
       </c>
       <c r="AH6" t="n">
-        <v>98.9641</v>
+        <v>98.9909</v>
       </c>
       <c r="AI6" t="n">
-        <v>100.3072</v>
+        <v>100.4527</v>
       </c>
       <c r="AJ6" t="n">
-        <v>99.8389</v>
+        <v>99.9115</v>
       </c>
       <c r="AK6" t="n">
-        <v>98.57429999999999</v>
+        <v>98.32859999999999</v>
       </c>
       <c r="AL6" t="n">
-        <v>99.5864</v>
+        <v>99.0628</v>
       </c>
       <c r="AM6" t="n">
-        <v>100.601</v>
+        <v>101.3099</v>
       </c>
       <c r="AN6" t="n">
-        <v>99.3107</v>
+        <v>100.8483</v>
       </c>
       <c r="AO6" t="n">
-        <v>102.4145</v>
+        <v>102.6399</v>
       </c>
       <c r="AP6" t="n">
-        <v>94.8411</v>
+        <v>93.0335</v>
       </c>
       <c r="AQ6" t="n">
-        <v>94.48690000000001</v>
+        <v>97.69329999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.65900000000001</v>
+        <v>99.95480000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>100.1019</v>
+        <v>99.96129999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>101.7633</v>
+        <v>101.8518</v>
       </c>
       <c r="E7" t="n">
         <v>100.037</v>
       </c>
       <c r="F7" t="n">
-        <v>99.9307</v>
+        <v>98.2414</v>
       </c>
       <c r="G7" t="n">
-        <v>98.5968</v>
+        <v>97.1789</v>
       </c>
       <c r="H7" t="n">
-        <v>95.4392</v>
+        <v>92.3111</v>
       </c>
       <c r="I7" t="n">
-        <v>100.7182</v>
+        <v>100.7433</v>
       </c>
       <c r="J7" t="n">
-        <v>100.3071</v>
+        <v>99.9509</v>
       </c>
       <c r="K7" t="n">
-        <v>100.9638</v>
+        <v>100.354</v>
       </c>
       <c r="L7" t="n">
-        <v>98.8908</v>
+        <v>97.6981</v>
       </c>
       <c r="M7" t="n">
-        <v>93.36790000000001</v>
+        <v>92.96169999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>97.8218</v>
+        <v>100.1286</v>
       </c>
       <c r="O7" t="n">
-        <v>100.3656</v>
+        <v>98.98739999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>96.1422</v>
+        <v>91.48050000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.6279</v>
+        <v>93.56829999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>101.2817</v>
+        <v>100.4641</v>
       </c>
       <c r="S7" t="n">
-        <v>99.00060000000001</v>
+        <v>98.96259999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>102.8729</v>
+        <v>102.3584</v>
       </c>
       <c r="U7" t="n">
-        <v>99.51609999999999</v>
+        <v>99.2717</v>
       </c>
       <c r="V7" t="n">
-        <v>100.2473</v>
+        <v>100.2022</v>
       </c>
       <c r="W7" t="n">
-        <v>89.1576</v>
+        <v>88.422</v>
       </c>
       <c r="X7" t="n">
-        <v>105.5333</v>
+        <v>104.8793</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.1576</v>
+        <v>100.4591</v>
       </c>
       <c r="Z7" t="n">
-        <v>98.8368</v>
+        <v>98.411</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.8922</v>
+        <v>102.3022</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.104</v>
+        <v>94.2144</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.0396</v>
+        <v>95.0356</v>
       </c>
       <c r="AD7" t="n">
-        <v>99.6007</v>
+        <v>99.78700000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>100.3073</v>
+        <v>100.287</v>
       </c>
       <c r="AF7" t="n">
-        <v>98.3869</v>
+        <v>98.06359999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>99.61190000000001</v>
+        <v>99.51730000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>99.108</v>
+        <v>99.0655</v>
       </c>
       <c r="AI7" t="n">
-        <v>100.5856</v>
+        <v>100.3994</v>
       </c>
       <c r="AJ7" t="n">
-        <v>99.93680000000001</v>
+        <v>99.5929</v>
       </c>
       <c r="AK7" t="n">
-        <v>98.81100000000001</v>
+        <v>98.16549999999999</v>
       </c>
       <c r="AL7" t="n">
-        <v>99.7692</v>
+        <v>99.1236</v>
       </c>
       <c r="AM7" t="n">
-        <v>100.3057</v>
+        <v>100.9796</v>
       </c>
       <c r="AN7" t="n">
-        <v>99.3005</v>
+        <v>100.2802</v>
       </c>
       <c r="AO7" t="n">
-        <v>102.421</v>
+        <v>102.4523</v>
       </c>
       <c r="AP7" t="n">
-        <v>96.3342</v>
+        <v>92.2103</v>
       </c>
       <c r="AQ7" t="n">
-        <v>93.4952</v>
+        <v>95.22369999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.7323</v>
+        <v>99.8887</v>
       </c>
       <c r="C8" t="n">
-        <v>100.1821</v>
+        <v>99.937</v>
       </c>
       <c r="D8" t="n">
-        <v>102.6125</v>
+        <v>101.8238</v>
       </c>
       <c r="E8" t="n">
         <v>100.037</v>
       </c>
       <c r="F8" t="n">
-        <v>99.97190000000001</v>
+        <v>98.7235</v>
       </c>
       <c r="G8" t="n">
-        <v>99.4285</v>
+        <v>97.67440000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>97.4188</v>
+        <v>93.68129999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>100.677</v>
+        <v>100.7616</v>
       </c>
       <c r="J8" t="n">
-        <v>100.1763</v>
+        <v>99.9366</v>
       </c>
       <c r="K8" t="n">
-        <v>101.0959</v>
+        <v>100.4851</v>
       </c>
       <c r="L8" t="n">
-        <v>99.13120000000001</v>
+        <v>97.9958</v>
       </c>
       <c r="M8" t="n">
-        <v>93.94589999999999</v>
+        <v>93.1476</v>
       </c>
       <c r="N8" t="n">
-        <v>97.58750000000001</v>
+        <v>98.5368</v>
       </c>
       <c r="O8" t="n">
-        <v>100.8623</v>
+        <v>99.2758</v>
       </c>
       <c r="P8" t="n">
-        <v>98.81870000000001</v>
+        <v>92.9939</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2699</v>
+        <v>95.1143</v>
       </c>
       <c r="R8" t="n">
-        <v>101.2652</v>
+        <v>100.5561</v>
       </c>
       <c r="S8" t="n">
-        <v>98.8184</v>
+        <v>98.93559999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>102.9128</v>
+        <v>102.4774</v>
       </c>
       <c r="U8" t="n">
-        <v>99.5885</v>
+        <v>99.3674</v>
       </c>
       <c r="V8" t="n">
-        <v>100.2526</v>
+        <v>100.2578</v>
       </c>
       <c r="W8" t="n">
-        <v>90.0361</v>
+        <v>87.45910000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>104.166</v>
+        <v>105.8456</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.2252</v>
+        <v>100.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>99.1962</v>
+        <v>98.64100000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.8631</v>
+        <v>102.193</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.602</v>
+        <v>95.8629</v>
       </c>
       <c r="AC8" t="n">
-        <v>106.205</v>
+        <v>98.00449999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>99.6613</v>
+        <v>99.4627</v>
       </c>
       <c r="AE8" t="n">
-        <v>100.2399</v>
+        <v>100.2384</v>
       </c>
       <c r="AF8" t="n">
-        <v>98.4858</v>
+        <v>97.95699999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>99.7167</v>
+        <v>99.41630000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>99.3764</v>
+        <v>99.0637</v>
       </c>
       <c r="AI8" t="n">
-        <v>100.755</v>
+        <v>100.3581</v>
       </c>
       <c r="AJ8" t="n">
-        <v>99.1412</v>
+        <v>99.6867</v>
       </c>
       <c r="AK8" t="n">
-        <v>99.0153</v>
+        <v>98.3467</v>
       </c>
       <c r="AL8" t="n">
-        <v>99.6489</v>
+        <v>99.4329</v>
       </c>
       <c r="AM8" t="n">
-        <v>99.9847</v>
+        <v>100.77</v>
       </c>
       <c r="AN8" t="n">
-        <v>99.0421</v>
+        <v>99.8514</v>
       </c>
       <c r="AO8" t="n">
-        <v>102.2001</v>
+        <v>102.4796</v>
       </c>
       <c r="AP8" t="n">
-        <v>95.7998</v>
+        <v>93.19629999999999</v>
       </c>
       <c r="AQ8" t="n">
-        <v>91.8295</v>
+        <v>94.95350000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.7183</v>
+        <v>99.7347</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1068</v>
+        <v>99.9811</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8976</v>
+        <v>101.9304</v>
       </c>
       <c r="E9" t="n">
         <v>100.037</v>
       </c>
       <c r="F9" t="n">
-        <v>99.8798</v>
+        <v>99.3768</v>
       </c>
       <c r="G9" t="n">
-        <v>99.70269999999999</v>
+        <v>98.2169</v>
       </c>
       <c r="H9" t="n">
-        <v>96.73609999999999</v>
+        <v>94.00149999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>100.8708</v>
+        <v>100.7259</v>
       </c>
       <c r="J9" t="n">
-        <v>99.9659</v>
+        <v>100.1512</v>
       </c>
       <c r="K9" t="n">
-        <v>101.0876</v>
+        <v>100.7685</v>
       </c>
       <c r="L9" t="n">
-        <v>98.7962</v>
+        <v>98.5536</v>
       </c>
       <c r="M9" t="n">
-        <v>94.2646</v>
+        <v>93.51649999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>99.0355</v>
+        <v>99.1246</v>
       </c>
       <c r="O9" t="n">
-        <v>100.5137</v>
+        <v>100.1041</v>
       </c>
       <c r="P9" t="n">
-        <v>98.66330000000001</v>
+        <v>95.37560000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.8028</v>
+        <v>96.78270000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>101.2563</v>
+        <v>100.8919</v>
       </c>
       <c r="S9" t="n">
-        <v>98.6735</v>
+        <v>98.9599</v>
       </c>
       <c r="T9" t="n">
-        <v>103.0637</v>
+        <v>102.8388</v>
       </c>
       <c r="U9" t="n">
-        <v>99.62869999999999</v>
+        <v>99.4971</v>
       </c>
       <c r="V9" t="n">
-        <v>100.3266</v>
+        <v>100.2675</v>
       </c>
       <c r="W9" t="n">
-        <v>90.38339999999999</v>
+        <v>88.29389999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>103.4346</v>
+        <v>105.7524</v>
       </c>
       <c r="Y9" t="n">
-        <v>100.1199</v>
+        <v>100.1836</v>
       </c>
       <c r="Z9" t="n">
-        <v>99.0479</v>
+        <v>98.8738</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.5961</v>
+        <v>102.0103</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5538</v>
+        <v>99.00530000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>103.1298</v>
+        <v>101.3052</v>
       </c>
       <c r="AD9" t="n">
-        <v>99.4109</v>
+        <v>99.61499999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>100.2495</v>
+        <v>100.2717</v>
       </c>
       <c r="AF9" t="n">
-        <v>98.6311</v>
+        <v>98.2783</v>
       </c>
       <c r="AG9" t="n">
-        <v>99.6224</v>
+        <v>99.48860000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>99.4268</v>
+        <v>98.9641</v>
       </c>
       <c r="AI9" t="n">
-        <v>100.6686</v>
+        <v>100.3072</v>
       </c>
       <c r="AJ9" t="n">
-        <v>98.7914</v>
+        <v>99.8389</v>
       </c>
       <c r="AK9" t="n">
-        <v>98.9808</v>
+        <v>98.57429999999999</v>
       </c>
       <c r="AL9" t="n">
-        <v>99.8514</v>
+        <v>99.5864</v>
       </c>
       <c r="AM9" t="n">
-        <v>99.45489999999999</v>
+        <v>100.601</v>
       </c>
       <c r="AN9" t="n">
-        <v>99.1078</v>
+        <v>99.3107</v>
       </c>
       <c r="AO9" t="n">
-        <v>102.0912</v>
+        <v>102.4145</v>
       </c>
       <c r="AP9" t="n">
-        <v>94.3314</v>
+        <v>94.8411</v>
       </c>
       <c r="AQ9" t="n">
-        <v>89.5826</v>
+        <v>94.48690000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5198</v>
+        <v>99.65900000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0384</v>
+        <v>100.1019</v>
       </c>
       <c r="D10" t="n">
-        <v>102.776</v>
+        <v>101.7633</v>
       </c>
       <c r="E10" t="n">
         <v>100.037</v>
       </c>
       <c r="F10" t="n">
-        <v>99.46469999999999</v>
+        <v>99.9307</v>
       </c>
       <c r="G10" t="n">
-        <v>99.3597</v>
+        <v>98.5968</v>
       </c>
       <c r="H10" t="n">
-        <v>96.17440000000001</v>
+        <v>95.4392</v>
       </c>
       <c r="I10" t="n">
-        <v>100.9013</v>
+        <v>100.7182</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1337</v>
+        <v>100.3071</v>
       </c>
       <c r="K10" t="n">
-        <v>101.2253</v>
+        <v>100.9638</v>
       </c>
       <c r="L10" t="n">
-        <v>98.2004</v>
+        <v>98.8908</v>
       </c>
       <c r="M10" t="n">
-        <v>93.51649999999999</v>
+        <v>93.36790000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>99.1807</v>
+        <v>97.8218</v>
       </c>
       <c r="O10" t="n">
-        <v>100.1756</v>
+        <v>100.3656</v>
       </c>
       <c r="P10" t="n">
-        <v>98.3554</v>
+        <v>96.1422</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.1784</v>
+        <v>97.6279</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1982</v>
+        <v>101.2817</v>
       </c>
       <c r="S10" t="n">
-        <v>98.6598</v>
+        <v>99.00060000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>103.0269</v>
+        <v>102.8729</v>
       </c>
       <c r="U10" t="n">
-        <v>99.6011</v>
+        <v>99.51609999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>100.3208</v>
+        <v>100.2473</v>
       </c>
       <c r="W10" t="n">
-        <v>89.4191</v>
+        <v>89.1576</v>
       </c>
       <c r="X10" t="n">
-        <v>102.3331</v>
+        <v>105.5333</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.0288</v>
+        <v>100.1576</v>
       </c>
       <c r="Z10" t="n">
-        <v>98.9533</v>
+        <v>98.8368</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.6239</v>
+        <v>101.8922</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.56189999999999</v>
+        <v>100.104</v>
       </c>
       <c r="AC10" t="n">
-        <v>97.86879999999999</v>
+        <v>104.0396</v>
       </c>
       <c r="AD10" t="n">
-        <v>99.22580000000001</v>
+        <v>99.6007</v>
       </c>
       <c r="AE10" t="n">
-        <v>100.042</v>
+        <v>100.3073</v>
       </c>
       <c r="AF10" t="n">
-        <v>98.60380000000001</v>
+        <v>98.3869</v>
       </c>
       <c r="AG10" t="n">
-        <v>99.50920000000001</v>
+        <v>99.61190000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>99.5232</v>
+        <v>99.108</v>
       </c>
       <c r="AI10" t="n">
-        <v>100.5789</v>
+        <v>100.5856</v>
       </c>
       <c r="AJ10" t="n">
-        <v>98.54389999999999</v>
+        <v>99.93680000000001</v>
       </c>
       <c r="AK10" t="n">
-        <v>98.7745</v>
+        <v>98.81100000000001</v>
       </c>
       <c r="AL10" t="n">
-        <v>99.7899</v>
+        <v>99.7692</v>
       </c>
       <c r="AM10" t="n">
-        <v>99.369</v>
+        <v>100.3057</v>
       </c>
       <c r="AN10" t="n">
-        <v>98.5579</v>
+        <v>99.3005</v>
       </c>
       <c r="AO10" t="n">
-        <v>101.621</v>
+        <v>102.421</v>
       </c>
       <c r="AP10" t="n">
-        <v>92.1409</v>
+        <v>96.3342</v>
       </c>
       <c r="AQ10" t="n">
-        <v>87.36109999999999</v>
+        <v>93.4952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.56480000000001</v>
+        <v>99.7323</v>
       </c>
       <c r="C11" t="n">
-        <v>100.1489</v>
+        <v>100.1821</v>
       </c>
       <c r="D11" t="n">
-        <v>102.2553</v>
+        <v>102.6125</v>
       </c>
       <c r="E11" t="n">
         <v>100.037</v>
       </c>
       <c r="F11" t="n">
-        <v>98.9953</v>
+        <v>99.97190000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>98.26560000000001</v>
+        <v>99.4285</v>
       </c>
       <c r="H11" t="n">
-        <v>95.2499</v>
+        <v>97.4188</v>
       </c>
       <c r="I11" t="n">
-        <v>100.9411</v>
+        <v>100.677</v>
       </c>
       <c r="J11" t="n">
-        <v>99.9969</v>
+        <v>100.1763</v>
       </c>
       <c r="K11" t="n">
-        <v>101.2076</v>
+        <v>101.0959</v>
       </c>
       <c r="L11" t="n">
-        <v>97.7572</v>
+        <v>99.13120000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>92.5453</v>
+        <v>93.94589999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>99.0491</v>
+        <v>97.58750000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>100.4237</v>
+        <v>100.8623</v>
       </c>
       <c r="P11" t="n">
-        <v>97.17310000000001</v>
+        <v>98.81870000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.4978</v>
+        <v>100.2699</v>
       </c>
       <c r="R11" t="n">
-        <v>101.0318</v>
+        <v>101.2652</v>
       </c>
       <c r="S11" t="n">
-        <v>98.48480000000001</v>
+        <v>98.8184</v>
       </c>
       <c r="T11" t="n">
-        <v>102.4475</v>
+        <v>102.9128</v>
       </c>
       <c r="U11" t="n">
-        <v>99.619</v>
+        <v>99.5885</v>
       </c>
       <c r="V11" t="n">
-        <v>100.3587</v>
+        <v>100.2526</v>
       </c>
       <c r="W11" t="n">
-        <v>88.6486</v>
+        <v>90.0361</v>
       </c>
       <c r="X11" t="n">
-        <v>102.0289</v>
+        <v>104.166</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.9422</v>
+        <v>100.2252</v>
       </c>
       <c r="Z11" t="n">
-        <v>98.81829999999999</v>
+        <v>99.1962</v>
       </c>
       <c r="AA11" t="n">
-        <v>101.3189</v>
+        <v>101.8631</v>
       </c>
       <c r="AB11" t="n">
-        <v>91.88720000000001</v>
+        <v>100.602</v>
       </c>
       <c r="AC11" t="n">
-        <v>91.7539</v>
+        <v>106.205</v>
       </c>
       <c r="AD11" t="n">
-        <v>98.82810000000001</v>
+        <v>99.6613</v>
       </c>
       <c r="AE11" t="n">
-        <v>99.97369999999999</v>
+        <v>100.2399</v>
       </c>
       <c r="AF11" t="n">
-        <v>98.5528</v>
+        <v>98.4858</v>
       </c>
       <c r="AG11" t="n">
-        <v>99.4669</v>
+        <v>99.7167</v>
       </c>
       <c r="AH11" t="n">
-        <v>99.61490000000001</v>
+        <v>99.3764</v>
       </c>
       <c r="AI11" t="n">
-        <v>100.6255</v>
+        <v>100.755</v>
       </c>
       <c r="AJ11" t="n">
-        <v>98.9383</v>
+        <v>99.1412</v>
       </c>
       <c r="AK11" t="n">
-        <v>98.7715</v>
+        <v>99.0153</v>
       </c>
       <c r="AL11" t="n">
-        <v>99.9021</v>
+        <v>99.6489</v>
       </c>
       <c r="AM11" t="n">
-        <v>99.2433</v>
+        <v>99.9847</v>
       </c>
       <c r="AN11" t="n">
-        <v>98.5294</v>
+        <v>99.0421</v>
       </c>
       <c r="AO11" t="n">
-        <v>101.5205</v>
+        <v>102.2001</v>
       </c>
       <c r="AP11" t="n">
-        <v>91.52970000000001</v>
+        <v>95.7998</v>
       </c>
       <c r="AQ11" t="n">
-        <v>85.30719999999999</v>
+        <v>91.8295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.6217</v>
+        <v>99.7183</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0233</v>
+        <v>100.1068</v>
       </c>
       <c r="D12" t="n">
-        <v>102.1513</v>
+        <v>102.8976</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>100.037</v>
       </c>
       <c r="F12" t="n">
-        <v>98.76009999999999</v>
+        <v>99.8798</v>
       </c>
       <c r="G12" t="n">
-        <v>96.9931</v>
+        <v>99.70269999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>94.3792</v>
+        <v>96.73609999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>100.687</v>
+        <v>100.8708</v>
       </c>
       <c r="J12" t="n">
-        <v>99.8369</v>
+        <v>99.9659</v>
       </c>
       <c r="K12" t="n">
-        <v>101.1327</v>
+        <v>101.0876</v>
       </c>
       <c r="L12" t="n">
-        <v>97.30719999999999</v>
+        <v>98.7962</v>
       </c>
       <c r="M12" t="n">
-        <v>91.92870000000001</v>
+        <v>94.2646</v>
       </c>
       <c r="N12" t="n">
-        <v>98.82389999999999</v>
+        <v>99.0355</v>
       </c>
       <c r="O12" t="n">
-        <v>100.0493</v>
+        <v>100.5137</v>
       </c>
       <c r="P12" t="n">
-        <v>97.1279</v>
+        <v>98.66330000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.1833</v>
+        <v>99.8028</v>
       </c>
       <c r="R12" t="n">
-        <v>100.9242</v>
+        <v>101.2563</v>
       </c>
       <c r="S12" t="n">
-        <v>98.26649999999999</v>
+        <v>98.6735</v>
       </c>
       <c r="T12" t="n">
-        <v>101.9795</v>
+        <v>103.0637</v>
       </c>
       <c r="U12" t="n">
-        <v>99.6003</v>
+        <v>99.62869999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>100.3369</v>
+        <v>100.3266</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3856</v>
+        <v>90.38339999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>100.2543</v>
+        <v>103.4346</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.2678</v>
+        <v>100.1199</v>
       </c>
       <c r="Z12" t="n">
-        <v>98.7298</v>
+        <v>99.0479</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.2272</v>
+        <v>101.5961</v>
       </c>
       <c r="AB12" t="n">
-        <v>88.7599</v>
+        <v>97.5538</v>
       </c>
       <c r="AC12" t="n">
-        <v>86.99890000000001</v>
+        <v>103.1298</v>
       </c>
       <c r="AD12" t="n">
-        <v>98.5</v>
+        <v>99.4109</v>
       </c>
       <c r="AE12" t="n">
-        <v>100.0682</v>
+        <v>100.2495</v>
       </c>
       <c r="AF12" t="n">
-        <v>98.386</v>
+        <v>98.6311</v>
       </c>
       <c r="AG12" t="n">
-        <v>99.3382</v>
+        <v>99.6224</v>
       </c>
       <c r="AH12" t="n">
-        <v>99.5716</v>
+        <v>99.4268</v>
       </c>
       <c r="AI12" t="n">
-        <v>100.2361</v>
+        <v>100.6686</v>
       </c>
       <c r="AJ12" t="n">
-        <v>99.0378</v>
+        <v>98.7914</v>
       </c>
       <c r="AK12" t="n">
-        <v>98.7671</v>
+        <v>98.9808</v>
       </c>
       <c r="AL12" t="n">
-        <v>100.0116</v>
+        <v>99.8514</v>
       </c>
       <c r="AM12" t="n">
-        <v>98.4406</v>
+        <v>99.45489999999999</v>
       </c>
       <c r="AN12" t="n">
-        <v>98.20529999999999</v>
+        <v>99.1078</v>
       </c>
       <c r="AO12" t="n">
-        <v>100.9709</v>
+        <v>102.0912</v>
       </c>
       <c r="AP12" t="n">
-        <v>91.0924</v>
+        <v>94.3314</v>
       </c>
       <c r="AQ12" t="n">
-        <v>83.4281</v>
+        <v>89.5826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.61969999999999</v>
+        <v>99.5198</v>
       </c>
       <c r="C13" t="n">
-        <v>99.962</v>
+        <v>100.0384</v>
       </c>
       <c r="D13" t="n">
-        <v>102.0189</v>
+        <v>102.776</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>100.037</v>
       </c>
       <c r="F13" t="n">
-        <v>98.37220000000001</v>
+        <v>99.46469999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>95.0744</v>
+        <v>99.3597</v>
       </c>
       <c r="H13" t="n">
-        <v>93.6904</v>
+        <v>96.17440000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>100.7979</v>
+        <v>100.9013</v>
       </c>
       <c r="J13" t="n">
-        <v>99.8479</v>
+        <v>100.1337</v>
       </c>
       <c r="K13" t="n">
-        <v>101.0533</v>
+        <v>101.2253</v>
       </c>
       <c r="L13" t="n">
-        <v>96.6848</v>
+        <v>98.2004</v>
       </c>
       <c r="M13" t="n">
-        <v>92.11</v>
+        <v>93.51649999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>99.227</v>
+        <v>99.1807</v>
       </c>
       <c r="O13" t="n">
-        <v>100.1981</v>
+        <v>100.1756</v>
       </c>
       <c r="P13" t="n">
-        <v>96.5645</v>
+        <v>98.3554</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8485</v>
+        <v>98.1784</v>
       </c>
       <c r="R13" t="n">
-        <v>100.8411</v>
+        <v>101.1982</v>
       </c>
       <c r="S13" t="n">
-        <v>97.4798</v>
+        <v>98.6598</v>
       </c>
       <c r="T13" t="n">
-        <v>102.2229</v>
+        <v>103.0269</v>
       </c>
       <c r="U13" t="n">
-        <v>99.6272</v>
+        <v>99.6011</v>
       </c>
       <c r="V13" t="n">
-        <v>100.5833</v>
+        <v>100.3208</v>
       </c>
       <c r="W13" t="n">
-        <v>87.78449999999999</v>
+        <v>89.4191</v>
       </c>
       <c r="X13" t="n">
-        <v>97.4956</v>
+        <v>102.3331</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.3695</v>
+        <v>100.0288</v>
       </c>
       <c r="Z13" t="n">
-        <v>98.7818</v>
+        <v>98.9533</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.1904</v>
+        <v>101.6239</v>
       </c>
       <c r="AB13" t="n">
-        <v>83.718</v>
+        <v>93.56189999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>80.34399999999999</v>
+        <v>97.86879999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>98.2663</v>
+        <v>99.22580000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>100.1692</v>
+        <v>100.042</v>
       </c>
       <c r="AF13" t="n">
-        <v>98.7496</v>
+        <v>98.60380000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>99.2946</v>
+        <v>99.50920000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>99.3635</v>
+        <v>99.5232</v>
       </c>
       <c r="AI13" t="n">
-        <v>100.1777</v>
+        <v>100.5789</v>
       </c>
       <c r="AJ13" t="n">
-        <v>98.94629999999999</v>
+        <v>98.54389999999999</v>
       </c>
       <c r="AK13" t="n">
-        <v>98.6003</v>
+        <v>98.7745</v>
       </c>
       <c r="AL13" t="n">
-        <v>99.9705</v>
+        <v>99.7899</v>
       </c>
       <c r="AM13" t="n">
-        <v>97.7192</v>
+        <v>99.369</v>
       </c>
       <c r="AN13" t="n">
-        <v>98.0423</v>
+        <v>98.5579</v>
       </c>
       <c r="AO13" t="n">
-        <v>100.6253</v>
+        <v>101.621</v>
       </c>
       <c r="AP13" t="n">
-        <v>90.3441</v>
+        <v>92.1409</v>
       </c>
       <c r="AQ13" t="n">
-        <v>80.9648</v>
+        <v>87.36109999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.5689</v>
+        <v>99</v>
       </c>
       <c r="C14" t="n">
-        <v>99.9379</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>99.6097</v>
+        <v>98.5</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>98.5265</v>
+        <v>98.2</v>
       </c>
       <c r="G14" t="n">
-        <v>93.3394</v>
+        <v>91.7</v>
       </c>
       <c r="H14" t="n">
-        <v>91.3505</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>100.8942</v>
+        <v>100.1</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0478</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>100.9829</v>
+        <v>100.6</v>
       </c>
       <c r="L14" t="n">
-        <v>95.6798</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>90.681</v>
+        <v>86.8</v>
       </c>
       <c r="N14" t="n">
-        <v>98.0823</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>100.06</v>
+        <v>99.7</v>
       </c>
       <c r="P14" t="n">
-        <v>94.48390000000001</v>
+        <v>88.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.0162</v>
+        <v>90.2</v>
       </c>
       <c r="R14" t="n">
-        <v>100.6742</v>
+        <v>99.3</v>
       </c>
       <c r="S14" t="n">
-        <v>96.87390000000001</v>
+        <v>96.3</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4584</v>
+        <v>102</v>
       </c>
       <c r="U14" t="n">
-        <v>99.4971</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>100.51</v>
+        <v>100.4</v>
       </c>
       <c r="W14" t="n">
-        <v>87.02679999999999</v>
+        <v>84.2</v>
       </c>
       <c r="X14" t="n">
-        <v>97.5466</v>
+        <v>96</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.2792</v>
+        <v>98.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>98.3182</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.2778</v>
+        <v>101</v>
       </c>
       <c r="AB14" t="n">
-        <v>77.2594</v>
+        <v>77.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>67.10599999999999</v>
+        <v>60.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>97.9054</v>
+        <v>97.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>100.6552</v>
+        <v>100.9</v>
       </c>
       <c r="AF14" t="n">
-        <v>98.46210000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>99.1117</v>
+        <v>98.7</v>
       </c>
       <c r="AH14" t="n">
-        <v>99.1461</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AI14" t="n">
-        <v>99.73739999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>99.0505</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AK14" t="n">
-        <v>98.4044</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AL14" t="n">
-        <v>100.141</v>
+        <v>99.7</v>
       </c>
       <c r="AM14" t="n">
-        <v>97.2179</v>
+        <v>95.7</v>
       </c>
       <c r="AN14" t="n">
-        <v>98.0052</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>100.4328</v>
+        <v>99.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>88.52800000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="AQ14" t="n">
-        <v>79.5337</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.4271</v>
+        <v>98.869</v>
       </c>
       <c r="C15" t="n">
-        <v>99.74979999999999</v>
+        <v>99.0801</v>
       </c>
       <c r="D15" t="n">
-        <v>99.34059999999999</v>
+        <v>98.37390000000001</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>98.7302</v>
+        <v>97.9453</v>
       </c>
       <c r="G15" t="n">
-        <v>92.7135</v>
+        <v>92.13549999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>91.0175</v>
+        <v>89.2865</v>
       </c>
       <c r="I15" t="n">
-        <v>100.8844</v>
+        <v>100.2518</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0006</v>
+        <v>99.3335</v>
       </c>
       <c r="K15" t="n">
-        <v>100.7977</v>
+        <v>100.3786</v>
       </c>
       <c r="L15" t="n">
-        <v>95.2024</v>
+        <v>94.08069999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>90.657</v>
+        <v>85.09950000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>98.6386</v>
+        <v>95.8687</v>
       </c>
       <c r="O15" t="n">
-        <v>100.1663</v>
+        <v>100.0024</v>
       </c>
       <c r="P15" t="n">
-        <v>93.7205</v>
+        <v>86.52209999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.7509</v>
+        <v>89.5758</v>
       </c>
       <c r="R15" t="n">
-        <v>100.5346</v>
+        <v>99.1806</v>
       </c>
       <c r="S15" t="n">
-        <v>96.767</v>
+        <v>96.1455</v>
       </c>
       <c r="T15" t="n">
-        <v>102.2266</v>
+        <v>101.9918</v>
       </c>
       <c r="U15" t="n">
-        <v>99.4562</v>
+        <v>98.8736</v>
       </c>
       <c r="V15" t="n">
-        <v>100.5089</v>
+        <v>100.3984</v>
       </c>
       <c r="W15" t="n">
-        <v>86.9247</v>
+        <v>83.1721</v>
       </c>
       <c r="X15" t="n">
-        <v>98.08540000000001</v>
+        <v>96.696</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.7775</v>
+        <v>98.1956</v>
       </c>
       <c r="Z15" t="n">
-        <v>98.0805</v>
+        <v>97.37949999999999</v>
       </c>
       <c r="AA15" t="n">
-        <v>101.2052</v>
+        <v>100.8972</v>
       </c>
       <c r="AB15" t="n">
-        <v>76.16289999999999</v>
+        <v>79.3951</v>
       </c>
       <c r="AC15" t="n">
-        <v>57.6469</v>
+        <v>63.4575</v>
       </c>
       <c r="AD15" t="n">
-        <v>97.624</v>
+        <v>97.7924</v>
       </c>
       <c r="AE15" t="n">
-        <v>100.6438</v>
+        <v>100.7836</v>
       </c>
       <c r="AF15" t="n">
-        <v>98.4552</v>
+        <v>98.3918</v>
       </c>
       <c r="AG15" t="n">
-        <v>99.06740000000001</v>
+        <v>98.6253</v>
       </c>
       <c r="AH15" t="n">
-        <v>98.76519999999999</v>
+        <v>98.7967</v>
       </c>
       <c r="AI15" t="n">
-        <v>99.70780000000001</v>
+        <v>99.6023</v>
       </c>
       <c r="AJ15" t="n">
-        <v>99.1995</v>
+        <v>98.5904</v>
       </c>
       <c r="AK15" t="n">
-        <v>98.0874</v>
+        <v>95.9601</v>
       </c>
       <c r="AL15" t="n">
-        <v>100.2548</v>
+        <v>99.5441</v>
       </c>
       <c r="AM15" t="n">
-        <v>97.35509999999999</v>
+        <v>95.6985</v>
       </c>
       <c r="AN15" t="n">
-        <v>97.6648</v>
+        <v>97.4825</v>
       </c>
       <c r="AO15" t="n">
-        <v>100.0639</v>
+        <v>99.6336</v>
       </c>
       <c r="AP15" t="n">
-        <v>86.6816</v>
+        <v>80.1469</v>
       </c>
       <c r="AQ15" t="n">
-        <v>79.00620000000001</v>
+        <v>82.03959999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.3548</v>
+        <v>98.73909999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>99.4811</v>
+        <v>99.1855</v>
       </c>
       <c r="D16" t="n">
-        <v>98.9577</v>
+        <v>98.4393</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>99.0055</v>
+        <v>98.37350000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>93.5235</v>
+        <v>93.0608</v>
       </c>
       <c r="H16" t="n">
-        <v>92.00149999999999</v>
+        <v>89.1554</v>
       </c>
       <c r="I16" t="n">
-        <v>100.9363</v>
+        <v>99.99639999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>99.89109999999999</v>
+        <v>99.2517</v>
       </c>
       <c r="K16" t="n">
-        <v>100.8086</v>
+        <v>100.5711</v>
       </c>
       <c r="L16" t="n">
-        <v>95.4397</v>
+        <v>94.1186</v>
       </c>
       <c r="M16" t="n">
-        <v>91.2914</v>
+        <v>83.73779999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>97.7189</v>
+        <v>95.3613</v>
       </c>
       <c r="O16" t="n">
-        <v>99.5155</v>
+        <v>99.934</v>
       </c>
       <c r="P16" t="n">
-        <v>95.56059999999999</v>
+        <v>86.1401</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.24460000000001</v>
+        <v>89.5264</v>
       </c>
       <c r="R16" t="n">
-        <v>100.5742</v>
+        <v>99.0077</v>
       </c>
       <c r="S16" t="n">
-        <v>96.5915</v>
+        <v>96.41119999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>102.3365</v>
+        <v>101.7868</v>
       </c>
       <c r="U16" t="n">
-        <v>99.35980000000001</v>
+        <v>98.7704</v>
       </c>
       <c r="V16" t="n">
-        <v>100.5049</v>
+        <v>100.1524</v>
       </c>
       <c r="W16" t="n">
-        <v>86.9618</v>
+        <v>82.7989</v>
       </c>
       <c r="X16" t="n">
-        <v>98.258</v>
+        <v>94.7607</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.5814</v>
+        <v>98.0635</v>
       </c>
       <c r="Z16" t="n">
-        <v>98.4599</v>
+        <v>97.2178</v>
       </c>
       <c r="AA16" t="n">
-        <v>100.7712</v>
+        <v>101.0951</v>
       </c>
       <c r="AB16" t="n">
-        <v>78.85890000000001</v>
+        <v>81.2551</v>
       </c>
       <c r="AC16" t="n">
-        <v>60.7431</v>
+        <v>62.7278</v>
       </c>
       <c r="AD16" t="n">
-        <v>97.5294</v>
+        <v>97.7873</v>
       </c>
       <c r="AE16" t="n">
-        <v>100.8866</v>
+        <v>100.6128</v>
       </c>
       <c r="AF16" t="n">
-        <v>98.51819999999999</v>
+        <v>98.1135</v>
       </c>
       <c r="AG16" t="n">
-        <v>98.985</v>
+        <v>98.60760000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>98.5586</v>
+        <v>98.8772</v>
       </c>
       <c r="AI16" t="n">
-        <v>99.86360000000001</v>
+        <v>99.48820000000001</v>
       </c>
       <c r="AJ16" t="n">
-        <v>98.9064</v>
+        <v>98.3036</v>
       </c>
       <c r="AK16" t="n">
-        <v>97.9845</v>
+        <v>95.82899999999999</v>
       </c>
       <c r="AL16" t="n">
-        <v>100.1878</v>
+        <v>99.508</v>
       </c>
       <c r="AM16" t="n">
-        <v>97.3334</v>
+        <v>95.7586</v>
       </c>
       <c r="AN16" t="n">
-        <v>97.4584</v>
+        <v>97.2388</v>
       </c>
       <c r="AO16" t="n">
-        <v>99.9444</v>
+        <v>99.7246</v>
       </c>
       <c r="AP16" t="n">
-        <v>86.2634</v>
+        <v>79.1679</v>
       </c>
       <c r="AQ16" t="n">
-        <v>78.61539999999999</v>
+        <v>82.3852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.28530000000001</v>
+        <v>99.5689</v>
       </c>
       <c r="C17" t="n">
-        <v>99.46810000000001</v>
+        <v>99.9379</v>
       </c>
       <c r="D17" t="n">
-        <v>99.6212</v>
+        <v>99.6097</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>99.0919</v>
+        <v>98.5265</v>
       </c>
       <c r="G17" t="n">
-        <v>94.18340000000001</v>
+        <v>93.3394</v>
       </c>
       <c r="H17" t="n">
-        <v>92.7166</v>
+        <v>91.3505</v>
       </c>
       <c r="I17" t="n">
-        <v>100.813</v>
+        <v>100.8942</v>
       </c>
       <c r="J17" t="n">
-        <v>99.9097</v>
+        <v>100.0478</v>
       </c>
       <c r="K17" t="n">
-        <v>100.655</v>
+        <v>100.9829</v>
       </c>
       <c r="L17" t="n">
-        <v>95.42749999999999</v>
+        <v>95.6798</v>
       </c>
       <c r="M17" t="n">
-        <v>90.8447</v>
+        <v>90.681</v>
       </c>
       <c r="N17" t="n">
-        <v>98.06910000000001</v>
+        <v>98.0823</v>
       </c>
       <c r="O17" t="n">
-        <v>99.53270000000001</v>
+        <v>100.06</v>
       </c>
       <c r="P17" t="n">
-        <v>96.4417</v>
+        <v>94.48390000000001</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.0836</v>
+        <v>97.0162</v>
       </c>
       <c r="R17" t="n">
-        <v>100.3728</v>
+        <v>100.6742</v>
       </c>
       <c r="S17" t="n">
-        <v>96.8017</v>
+        <v>96.87390000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>102.3836</v>
+        <v>102.4584</v>
       </c>
       <c r="U17" t="n">
-        <v>99.1541</v>
+        <v>99.4971</v>
       </c>
       <c r="V17" t="n">
-        <v>100.4522</v>
+        <v>100.51</v>
       </c>
       <c r="W17" t="n">
-        <v>86.9726</v>
+        <v>87.02679999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>97.4289</v>
+        <v>97.5466</v>
       </c>
       <c r="Y17" t="n">
-        <v>99.4597</v>
+        <v>100.2792</v>
       </c>
       <c r="Z17" t="n">
-        <v>98.4589</v>
+        <v>98.3182</v>
       </c>
       <c r="AA17" t="n">
-        <v>100.512</v>
+        <v>101.2778</v>
       </c>
       <c r="AB17" t="n">
-        <v>78.74299999999999</v>
+        <v>77.2594</v>
       </c>
       <c r="AC17" t="n">
-        <v>61.346</v>
+        <v>67.10599999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>97.5994</v>
+        <v>97.9054</v>
       </c>
       <c r="AE17" t="n">
-        <v>100.6467</v>
+        <v>100.6552</v>
       </c>
       <c r="AF17" t="n">
-        <v>98.68089999999999</v>
+        <v>98.46210000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>98.94750000000001</v>
+        <v>99.1117</v>
       </c>
       <c r="AH17" t="n">
-        <v>98.61150000000001</v>
+        <v>99.1461</v>
       </c>
       <c r="AI17" t="n">
-        <v>100.0056</v>
+        <v>99.73739999999999</v>
       </c>
       <c r="AJ17" t="n">
-        <v>98.87430000000001</v>
+        <v>99.0505</v>
       </c>
       <c r="AK17" t="n">
-        <v>97.78400000000001</v>
+        <v>98.4044</v>
       </c>
       <c r="AL17" t="n">
-        <v>100.0992</v>
+        <v>100.141</v>
       </c>
       <c r="AM17" t="n">
-        <v>97.0402</v>
+        <v>97.2179</v>
       </c>
       <c r="AN17" t="n">
-        <v>97.1934</v>
+        <v>98.0052</v>
       </c>
       <c r="AO17" t="n">
-        <v>99.88849999999999</v>
+        <v>100.4328</v>
       </c>
       <c r="AP17" t="n">
-        <v>85.4679</v>
+        <v>88.52800000000001</v>
       </c>
       <c r="AQ17" t="n">
-        <v>77.1311</v>
+        <v>79.5337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.3467</v>
+        <v>99.4271</v>
       </c>
       <c r="C18" t="n">
-        <v>99.5077</v>
+        <v>99.74979999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>99.01909999999999</v>
+        <v>99.34059999999999</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>99.05119999999999</v>
+        <v>98.7302</v>
       </c>
       <c r="G18" t="n">
-        <v>94.89019999999999</v>
+        <v>92.7135</v>
       </c>
       <c r="H18" t="n">
-        <v>94.26819999999999</v>
+        <v>91.0175</v>
       </c>
       <c r="I18" t="n">
-        <v>100.587</v>
+        <v>100.8844</v>
       </c>
       <c r="J18" t="n">
-        <v>99.91419999999999</v>
+        <v>100.0006</v>
       </c>
       <c r="K18" t="n">
-        <v>100.5249</v>
+        <v>100.7977</v>
       </c>
       <c r="L18" t="n">
-        <v>95.393</v>
+        <v>95.2024</v>
       </c>
       <c r="M18" t="n">
-        <v>90.4314</v>
+        <v>90.657</v>
       </c>
       <c r="N18" t="n">
-        <v>97.38290000000001</v>
+        <v>98.6386</v>
       </c>
       <c r="O18" t="n">
-        <v>99.2972</v>
+        <v>100.1663</v>
       </c>
       <c r="P18" t="n">
-        <v>96.1153</v>
+        <v>93.7205</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.3832</v>
+        <v>95.7509</v>
       </c>
       <c r="R18" t="n">
-        <v>100.0187</v>
+        <v>100.5346</v>
       </c>
       <c r="S18" t="n">
-        <v>96.96469999999999</v>
+        <v>96.767</v>
       </c>
       <c r="T18" t="n">
-        <v>102.1426</v>
+        <v>102.2266</v>
       </c>
       <c r="U18" t="n">
-        <v>98.90349999999999</v>
+        <v>99.4562</v>
       </c>
       <c r="V18" t="n">
-        <v>100.5074</v>
+        <v>100.5089</v>
       </c>
       <c r="W18" t="n">
-        <v>85.9503</v>
+        <v>86.9247</v>
       </c>
       <c r="X18" t="n">
-        <v>97.65689999999999</v>
+        <v>98.08540000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>98.6097</v>
+        <v>99.7775</v>
       </c>
       <c r="Z18" t="n">
-        <v>98.4372</v>
+        <v>98.0805</v>
       </c>
       <c r="AA18" t="n">
-        <v>100.4435</v>
+        <v>101.2052</v>
       </c>
       <c r="AB18" t="n">
-        <v>81.4391</v>
+        <v>76.16289999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>63.9271</v>
+        <v>57.6469</v>
       </c>
       <c r="AD18" t="n">
-        <v>97.7398</v>
+        <v>97.624</v>
       </c>
       <c r="AE18" t="n">
-        <v>100.5932</v>
+        <v>100.6438</v>
       </c>
       <c r="AF18" t="n">
-        <v>98.5218</v>
+        <v>98.4552</v>
       </c>
       <c r="AG18" t="n">
-        <v>98.8909</v>
+        <v>99.06740000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>98.82040000000001</v>
+        <v>98.76519999999999</v>
       </c>
       <c r="AI18" t="n">
-        <v>100.0791</v>
+        <v>99.70780000000001</v>
       </c>
       <c r="AJ18" t="n">
-        <v>98.19710000000001</v>
+        <v>99.1995</v>
       </c>
       <c r="AK18" t="n">
-        <v>97.5722</v>
+        <v>98.0874</v>
       </c>
       <c r="AL18" t="n">
-        <v>100.0603</v>
+        <v>100.2548</v>
       </c>
       <c r="AM18" t="n">
-        <v>96.6857</v>
+        <v>97.35509999999999</v>
       </c>
       <c r="AN18" t="n">
-        <v>97.16719999999999</v>
+        <v>97.6648</v>
       </c>
       <c r="AO18" t="n">
-        <v>100.0887</v>
+        <v>100.0639</v>
       </c>
       <c r="AP18" t="n">
-        <v>84.30589999999999</v>
+        <v>86.6816</v>
       </c>
       <c r="AQ18" t="n">
-        <v>77.47199999999999</v>
+        <v>79.00620000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.2565</v>
+        <v>99.3548</v>
       </c>
       <c r="C19" t="n">
-        <v>99.4273</v>
+        <v>99.4811</v>
       </c>
       <c r="D19" t="n">
-        <v>99.3475</v>
+        <v>98.9577</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>98.7663</v>
+        <v>99.0055</v>
       </c>
       <c r="G19" t="n">
-        <v>94.9901</v>
+        <v>93.5235</v>
       </c>
       <c r="H19" t="n">
-        <v>91.8486</v>
+        <v>92.00149999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>100.4964</v>
+        <v>100.9363</v>
       </c>
       <c r="J19" t="n">
-        <v>99.59520000000001</v>
+        <v>99.89109999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>100.3754</v>
+        <v>100.8086</v>
       </c>
       <c r="L19" t="n">
-        <v>95.1865</v>
+        <v>95.4397</v>
       </c>
       <c r="M19" t="n">
-        <v>91.4063</v>
+        <v>91.2914</v>
       </c>
       <c r="N19" t="n">
-        <v>96.6511</v>
+        <v>97.7189</v>
       </c>
       <c r="O19" t="n">
-        <v>99.05710000000001</v>
+        <v>99.5155</v>
       </c>
       <c r="P19" t="n">
-        <v>94.1439</v>
+        <v>95.56059999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.3224</v>
+        <v>94.24460000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>99.74890000000001</v>
+        <v>100.5742</v>
       </c>
       <c r="S19" t="n">
-        <v>96.9422</v>
+        <v>96.5915</v>
       </c>
       <c r="T19" t="n">
-        <v>102.4794</v>
+        <v>102.3365</v>
       </c>
       <c r="U19" t="n">
-        <v>99.08669999999999</v>
+        <v>99.35980000000001</v>
       </c>
       <c r="V19" t="n">
-        <v>100.5061</v>
+        <v>100.5049</v>
       </c>
       <c r="W19" t="n">
-        <v>84.5788</v>
+        <v>86.9618</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21729999999999</v>
+        <v>98.258</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.25449999999999</v>
+        <v>99.5814</v>
       </c>
       <c r="Z19" t="n">
-        <v>98.3745</v>
+        <v>98.4599</v>
       </c>
       <c r="AA19" t="n">
-        <v>100.2372</v>
+        <v>100.7712</v>
       </c>
       <c r="AB19" t="n">
-        <v>81.2402</v>
+        <v>78.85890000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>67.61879999999999</v>
+        <v>60.7431</v>
       </c>
       <c r="AD19" t="n">
-        <v>97.6726</v>
+        <v>97.5294</v>
       </c>
       <c r="AE19" t="n">
-        <v>100.6727</v>
+        <v>100.8866</v>
       </c>
       <c r="AF19" t="n">
-        <v>98.6173</v>
+        <v>98.51819999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>98.8593</v>
+        <v>98.985</v>
       </c>
       <c r="AH19" t="n">
-        <v>98.791</v>
+        <v>98.5586</v>
       </c>
       <c r="AI19" t="n">
-        <v>99.809</v>
+        <v>99.86360000000001</v>
       </c>
       <c r="AJ19" t="n">
-        <v>97.9268</v>
+        <v>98.9064</v>
       </c>
       <c r="AK19" t="n">
-        <v>97.3963</v>
+        <v>97.9845</v>
       </c>
       <c r="AL19" t="n">
-        <v>99.8188</v>
+        <v>100.1878</v>
       </c>
       <c r="AM19" t="n">
-        <v>96.4986</v>
+        <v>97.3334</v>
       </c>
       <c r="AN19" t="n">
-        <v>97.3569</v>
+        <v>97.4584</v>
       </c>
       <c r="AO19" t="n">
-        <v>100.0096</v>
+        <v>99.9444</v>
       </c>
       <c r="AP19" t="n">
-        <v>83.3488</v>
+        <v>86.2634</v>
       </c>
       <c r="AQ19" t="n">
-        <v>79.883</v>
+        <v>78.61539999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.1572</v>
+        <v>99.28530000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>99.2353</v>
+        <v>99.46810000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>98.462</v>
+        <v>99.6212</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>98.9714</v>
+        <v>99.0919</v>
       </c>
       <c r="G20" t="n">
-        <v>94.2133</v>
+        <v>94.18340000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>89.5553</v>
+        <v>92.7166</v>
       </c>
       <c r="I20" t="n">
-        <v>100.4278</v>
+        <v>100.813</v>
       </c>
       <c r="J20" t="n">
-        <v>99.6186</v>
+        <v>99.9097</v>
       </c>
       <c r="K20" t="n">
-        <v>100.3583</v>
+        <v>100.655</v>
       </c>
       <c r="L20" t="n">
-        <v>94.63079999999999</v>
+        <v>95.42749999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>88.5313</v>
+        <v>90.8447</v>
       </c>
       <c r="N20" t="n">
-        <v>96.5655</v>
+        <v>98.06910000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>98.62090000000001</v>
+        <v>99.53270000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>91.52509999999999</v>
+        <v>96.4417</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.2963</v>
+        <v>95.0836</v>
       </c>
       <c r="R20" t="n">
-        <v>99.658</v>
+        <v>100.3728</v>
       </c>
       <c r="S20" t="n">
-        <v>96.9306</v>
+        <v>96.8017</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4458</v>
+        <v>102.3836</v>
       </c>
       <c r="U20" t="n">
-        <v>98.93680000000001</v>
+        <v>99.1541</v>
       </c>
       <c r="V20" t="n">
-        <v>100.495</v>
+        <v>100.4522</v>
       </c>
       <c r="W20" t="n">
-        <v>84.8518</v>
+        <v>86.9726</v>
       </c>
       <c r="X20" t="n">
-        <v>97.2518</v>
+        <v>97.4289</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.9885</v>
+        <v>99.4597</v>
       </c>
       <c r="Z20" t="n">
-        <v>97.9639</v>
+        <v>98.4589</v>
       </c>
       <c r="AA20" t="n">
-        <v>100.2186</v>
+        <v>100.512</v>
       </c>
       <c r="AB20" t="n">
-        <v>78.9696</v>
+        <v>78.74299999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>65.3925</v>
+        <v>61.346</v>
       </c>
       <c r="AD20" t="n">
-        <v>97.5424</v>
+        <v>97.5994</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.7331</v>
+        <v>100.6467</v>
       </c>
       <c r="AF20" t="n">
-        <v>98.4207</v>
+        <v>98.68089999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>98.71599999999999</v>
+        <v>98.94750000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>98.67959999999999</v>
+        <v>98.61150000000001</v>
       </c>
       <c r="AI20" t="n">
-        <v>99.7711</v>
+        <v>100.0056</v>
       </c>
       <c r="AJ20" t="n">
-        <v>98.1707</v>
+        <v>98.87430000000001</v>
       </c>
       <c r="AK20" t="n">
-        <v>96.98690000000001</v>
+        <v>97.78400000000001</v>
       </c>
       <c r="AL20" t="n">
-        <v>99.74290000000001</v>
+        <v>100.0992</v>
       </c>
       <c r="AM20" t="n">
-        <v>96.35590000000001</v>
+        <v>97.0402</v>
       </c>
       <c r="AN20" t="n">
-        <v>97.6751</v>
+        <v>97.1934</v>
       </c>
       <c r="AO20" t="n">
-        <v>99.9598</v>
+        <v>99.88849999999999</v>
       </c>
       <c r="AP20" t="n">
-        <v>81.6662</v>
+        <v>85.4679</v>
       </c>
       <c r="AQ20" t="n">
-        <v>79.911</v>
+        <v>77.1311</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.0227</v>
+        <v>99.3467</v>
       </c>
       <c r="C21" t="n">
-        <v>99.10120000000001</v>
+        <v>99.5077</v>
       </c>
       <c r="D21" t="n">
-        <v>98.1053</v>
+        <v>99.01909999999999</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>98.76990000000001</v>
+        <v>99.05119999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>92.55970000000001</v>
+        <v>94.89019999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>88.26479999999999</v>
+        <v>94.26819999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>100.4161</v>
+        <v>100.587</v>
       </c>
       <c r="J21" t="n">
-        <v>99.4734</v>
+        <v>99.91419999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>100.3701</v>
+        <v>100.5249</v>
       </c>
       <c r="L21" t="n">
-        <v>94.07729999999999</v>
+        <v>95.393</v>
       </c>
       <c r="M21" t="n">
-        <v>88.0047</v>
+        <v>90.4314</v>
       </c>
       <c r="N21" t="n">
-        <v>96.1891</v>
+        <v>97.38290000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>98.6414</v>
+        <v>99.2972</v>
       </c>
       <c r="P21" t="n">
-        <v>89.0459</v>
+        <v>96.1153</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.7235</v>
+        <v>95.3832</v>
       </c>
       <c r="R21" t="n">
-        <v>99.4406</v>
+        <v>100.0187</v>
       </c>
       <c r="S21" t="n">
-        <v>96.6974</v>
+        <v>96.96469999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>102.2687</v>
+        <v>102.1426</v>
       </c>
       <c r="U21" t="n">
-        <v>98.8344</v>
+        <v>98.90349999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>100.4528</v>
+        <v>100.5074</v>
       </c>
       <c r="W21" t="n">
-        <v>84.4087</v>
+        <v>85.9503</v>
       </c>
       <c r="X21" t="n">
-        <v>97.21469999999999</v>
+        <v>97.65689999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>97.9597</v>
+        <v>98.6097</v>
       </c>
       <c r="Z21" t="n">
-        <v>97.6621</v>
+        <v>98.4372</v>
       </c>
       <c r="AA21" t="n">
-        <v>100.4987</v>
+        <v>100.4435</v>
       </c>
       <c r="AB21" t="n">
-        <v>75.65779999999999</v>
+        <v>81.4391</v>
       </c>
       <c r="AC21" t="n">
-        <v>62.0796</v>
+        <v>63.9271</v>
       </c>
       <c r="AD21" t="n">
-        <v>97.46129999999999</v>
+        <v>97.7398</v>
       </c>
       <c r="AE21" t="n">
-        <v>100.7283</v>
+        <v>100.5932</v>
       </c>
       <c r="AF21" t="n">
-        <v>98.08029999999999</v>
+        <v>98.5218</v>
       </c>
       <c r="AG21" t="n">
-        <v>98.6621</v>
+        <v>98.8909</v>
       </c>
       <c r="AH21" t="n">
-        <v>98.6305</v>
+        <v>98.82040000000001</v>
       </c>
       <c r="AI21" t="n">
-        <v>99.7011</v>
+        <v>100.0791</v>
       </c>
       <c r="AJ21" t="n">
-        <v>97.83969999999999</v>
+        <v>98.19710000000001</v>
       </c>
       <c r="AK21" t="n">
-        <v>96.7043</v>
+        <v>97.5722</v>
       </c>
       <c r="AL21" t="n">
-        <v>99.6108</v>
+        <v>100.0603</v>
       </c>
       <c r="AM21" t="n">
-        <v>96.2372</v>
+        <v>96.6857</v>
       </c>
       <c r="AN21" t="n">
-        <v>97.2144</v>
+        <v>97.16719999999999</v>
       </c>
       <c r="AO21" t="n">
-        <v>100.0623</v>
+        <v>100.0887</v>
       </c>
       <c r="AP21" t="n">
-        <v>81.2367</v>
+        <v>84.30589999999999</v>
       </c>
       <c r="AQ21" t="n">
-        <v>79.6216</v>
+        <v>77.47199999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.0951</v>
+        <v>99.2565</v>
       </c>
       <c r="C22" t="n">
-        <v>99.1858</v>
+        <v>99.4273</v>
       </c>
       <c r="D22" t="n">
-        <v>97.96550000000001</v>
+        <v>99.3475</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>98.51479999999999</v>
+        <v>98.7663</v>
       </c>
       <c r="G22" t="n">
-        <v>91.65309999999999</v>
+        <v>94.9901</v>
       </c>
       <c r="H22" t="n">
-        <v>88.5558</v>
+        <v>91.8486</v>
       </c>
       <c r="I22" t="n">
-        <v>100.2771</v>
+        <v>100.4964</v>
       </c>
       <c r="J22" t="n">
-        <v>99.27889999999999</v>
+        <v>99.59520000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>100.6659</v>
+        <v>100.3754</v>
       </c>
       <c r="L22" t="n">
-        <v>94.05500000000001</v>
+        <v>95.1865</v>
       </c>
       <c r="M22" t="n">
-        <v>87.69799999999999</v>
+        <v>91.4063</v>
       </c>
       <c r="N22" t="n">
-        <v>96.1183</v>
+        <v>96.6511</v>
       </c>
       <c r="O22" t="n">
-        <v>99.542</v>
+        <v>99.05710000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>88.4971</v>
+        <v>94.1439</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.96729999999999</v>
+        <v>95.3224</v>
       </c>
       <c r="R22" t="n">
-        <v>99.46510000000001</v>
+        <v>99.74890000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>96.5166</v>
+        <v>96.9422</v>
       </c>
       <c r="T22" t="n">
-        <v>102.0605</v>
+        <v>102.4794</v>
       </c>
       <c r="U22" t="n">
-        <v>98.9717</v>
+        <v>99.08669999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>100.4579</v>
+        <v>100.5061</v>
       </c>
       <c r="W22" t="n">
-        <v>84.60080000000001</v>
+        <v>84.5788</v>
       </c>
       <c r="X22" t="n">
-        <v>96.3322</v>
+        <v>97.21729999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.00879999999999</v>
+        <v>98.25449999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>97.67</v>
+        <v>98.3745</v>
       </c>
       <c r="AA22" t="n">
-        <v>101.0644</v>
+        <v>100.2372</v>
       </c>
       <c r="AB22" t="n">
-        <v>75.4743</v>
+        <v>81.2402</v>
       </c>
       <c r="AC22" t="n">
-        <v>59.3744</v>
+        <v>67.61879999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>97.53100000000001</v>
+        <v>97.6726</v>
       </c>
       <c r="AE22" t="n">
-        <v>100.8534</v>
+        <v>100.6727</v>
       </c>
       <c r="AF22" t="n">
-        <v>98.61490000000001</v>
+        <v>98.6173</v>
       </c>
       <c r="AG22" t="n">
-        <v>98.78570000000001</v>
+        <v>98.8593</v>
       </c>
       <c r="AH22" t="n">
-        <v>98.8479</v>
+        <v>98.791</v>
       </c>
       <c r="AI22" t="n">
-        <v>99.6914</v>
+        <v>99.809</v>
       </c>
       <c r="AJ22" t="n">
-        <v>98.3091</v>
+        <v>97.9268</v>
       </c>
       <c r="AK22" t="n">
-        <v>96.617</v>
+        <v>97.3963</v>
       </c>
       <c r="AL22" t="n">
-        <v>99.6426</v>
+        <v>99.8188</v>
       </c>
       <c r="AM22" t="n">
-        <v>95.9996</v>
+        <v>96.4986</v>
       </c>
       <c r="AN22" t="n">
-        <v>97.6371</v>
+        <v>97.3569</v>
       </c>
       <c r="AO22" t="n">
-        <v>99.8403</v>
+        <v>100.0096</v>
       </c>
       <c r="AP22" t="n">
-        <v>81.2814</v>
+        <v>83.3488</v>
       </c>
       <c r="AQ22" t="n">
-        <v>80.101</v>
+        <v>79.883</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99</v>
+        <v>99.1572</v>
       </c>
       <c r="C23" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2353</v>
       </c>
       <c r="D23" t="n">
-        <v>98.5</v>
+        <v>98.462</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>98.2</v>
+        <v>98.9714</v>
       </c>
       <c r="G23" t="n">
-        <v>91.7</v>
+        <v>94.2133</v>
       </c>
       <c r="H23" t="n">
-        <v>89.09999999999999</v>
+        <v>89.5553</v>
       </c>
       <c r="I23" t="n">
-        <v>100.1</v>
+        <v>100.4278</v>
       </c>
       <c r="J23" t="n">
-        <v>99.40000000000001</v>
+        <v>99.6186</v>
       </c>
       <c r="K23" t="n">
-        <v>100.6</v>
+        <v>100.3583</v>
       </c>
       <c r="L23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.63079999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>86.8</v>
+        <v>88.5313</v>
       </c>
       <c r="N23" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5655</v>
       </c>
       <c r="O23" t="n">
-        <v>99.7</v>
+        <v>98.62090000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>88.7</v>
+        <v>91.52509999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.2</v>
+        <v>92.2963</v>
       </c>
       <c r="R23" t="n">
-        <v>99.3</v>
+        <v>99.658</v>
       </c>
       <c r="S23" t="n">
-        <v>96.3</v>
+        <v>96.9306</v>
       </c>
       <c r="T23" t="n">
-        <v>102</v>
+        <v>102.4458</v>
       </c>
       <c r="U23" t="n">
-        <v>98.90000000000001</v>
+        <v>98.93680000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>100.4</v>
+        <v>100.495</v>
       </c>
       <c r="W23" t="n">
-        <v>84.2</v>
+        <v>84.8518</v>
       </c>
       <c r="X23" t="n">
-        <v>96</v>
+        <v>97.2518</v>
       </c>
       <c r="Y23" t="n">
-        <v>98.3</v>
+        <v>97.9885</v>
       </c>
       <c r="Z23" t="n">
-        <v>97.59999999999999</v>
+        <v>97.9639</v>
       </c>
       <c r="AA23" t="n">
-        <v>101</v>
+        <v>100.2186</v>
       </c>
       <c r="AB23" t="n">
-        <v>77.5</v>
+        <v>78.9696</v>
       </c>
       <c r="AC23" t="n">
-        <v>60.1</v>
+        <v>65.3925</v>
       </c>
       <c r="AD23" t="n">
-        <v>97.7</v>
+        <v>97.5424</v>
       </c>
       <c r="AE23" t="n">
-        <v>100.9</v>
+        <v>100.7331</v>
       </c>
       <c r="AF23" t="n">
-        <v>98.5</v>
+        <v>98.4207</v>
       </c>
       <c r="AG23" t="n">
-        <v>98.7</v>
+        <v>98.71599999999999</v>
       </c>
       <c r="AH23" t="n">
-        <v>98.90000000000001</v>
+        <v>98.67959999999999</v>
       </c>
       <c r="AI23" t="n">
-        <v>99.5</v>
+        <v>99.7711</v>
       </c>
       <c r="AJ23" t="n">
-        <v>98.40000000000001</v>
+        <v>98.1707</v>
       </c>
       <c r="AK23" t="n">
-        <v>96.40000000000001</v>
+        <v>96.98690000000001</v>
       </c>
       <c r="AL23" t="n">
-        <v>99.7</v>
+        <v>99.74290000000001</v>
       </c>
       <c r="AM23" t="n">
-        <v>95.7</v>
+        <v>96.35590000000001</v>
       </c>
       <c r="AN23" t="n">
-        <v>97.40000000000001</v>
+        <v>97.6751</v>
       </c>
       <c r="AO23" t="n">
-        <v>99.7</v>
+        <v>99.9598</v>
       </c>
       <c r="AP23" t="n">
-        <v>80.90000000000001</v>
+        <v>81.6662</v>
       </c>
       <c r="AQ23" t="n">
-        <v>81.5</v>
+        <v>79.911</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.869</v>
+        <v>99.0227</v>
       </c>
       <c r="C24" t="n">
-        <v>99.0801</v>
+        <v>99.10120000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>98.37390000000001</v>
+        <v>98.1053</v>
       </c>
       <c r="E24" t="n">
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>97.9453</v>
+        <v>98.76990000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>92.13549999999999</v>
+        <v>92.55970000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>89.2865</v>
+        <v>88.26479999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>100.2518</v>
+        <v>100.4161</v>
       </c>
       <c r="J24" t="n">
-        <v>99.3335</v>
+        <v>99.4734</v>
       </c>
       <c r="K24" t="n">
-        <v>100.3786</v>
+        <v>100.3701</v>
       </c>
       <c r="L24" t="n">
-        <v>94.08069999999999</v>
+        <v>94.07729999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>85.09950000000001</v>
+        <v>88.0047</v>
       </c>
       <c r="N24" t="n">
-        <v>95.8687</v>
+        <v>96.1891</v>
       </c>
       <c r="O24" t="n">
-        <v>100.0024</v>
+        <v>98.6414</v>
       </c>
       <c r="P24" t="n">
-        <v>86.52209999999999</v>
+        <v>89.0459</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.5758</v>
+        <v>89.7235</v>
       </c>
       <c r="R24" t="n">
-        <v>99.1806</v>
+        <v>99.4406</v>
       </c>
       <c r="S24" t="n">
-        <v>96.1455</v>
+        <v>96.6974</v>
       </c>
       <c r="T24" t="n">
-        <v>101.9918</v>
+        <v>102.2687</v>
       </c>
       <c r="U24" t="n">
-        <v>98.8736</v>
+        <v>98.8344</v>
       </c>
       <c r="V24" t="n">
-        <v>100.3984</v>
+        <v>100.4528</v>
       </c>
       <c r="W24" t="n">
-        <v>83.1721</v>
+        <v>84.4087</v>
       </c>
       <c r="X24" t="n">
-        <v>96.696</v>
+        <v>97.21469999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>98.1956</v>
+        <v>97.9597</v>
       </c>
       <c r="Z24" t="n">
-        <v>97.37949999999999</v>
+        <v>97.6621</v>
       </c>
       <c r="AA24" t="n">
-        <v>100.8972</v>
+        <v>100.4987</v>
       </c>
       <c r="AB24" t="n">
-        <v>79.3951</v>
+        <v>75.65779999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>63.4575</v>
+        <v>62.0796</v>
       </c>
       <c r="AD24" t="n">
-        <v>97.7924</v>
+        <v>97.46129999999999</v>
       </c>
       <c r="AE24" t="n">
-        <v>100.7836</v>
+        <v>100.7283</v>
       </c>
       <c r="AF24" t="n">
-        <v>98.3918</v>
+        <v>98.08029999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>98.6253</v>
+        <v>98.6621</v>
       </c>
       <c r="AH24" t="n">
-        <v>98.7967</v>
+        <v>98.6305</v>
       </c>
       <c r="AI24" t="n">
-        <v>99.6023</v>
+        <v>99.7011</v>
       </c>
       <c r="AJ24" t="n">
-        <v>98.5904</v>
+        <v>97.83969999999999</v>
       </c>
       <c r="AK24" t="n">
-        <v>95.9601</v>
+        <v>96.7043</v>
       </c>
       <c r="AL24" t="n">
-        <v>99.5441</v>
+        <v>99.6108</v>
       </c>
       <c r="AM24" t="n">
-        <v>95.6985</v>
+        <v>96.2372</v>
       </c>
       <c r="AN24" t="n">
-        <v>97.4825</v>
+        <v>97.2144</v>
       </c>
       <c r="AO24" t="n">
-        <v>99.6336</v>
+        <v>100.0623</v>
       </c>
       <c r="AP24" t="n">
-        <v>80.1469</v>
+        <v>81.2367</v>
       </c>
       <c r="AQ24" t="n">
-        <v>82.03959999999999</v>
+        <v>79.6216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.73909999999999</v>
+        <v>99.0951</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1855</v>
+        <v>99.1858</v>
       </c>
       <c r="D25" t="n">
-        <v>98.4393</v>
+        <v>97.96550000000001</v>
       </c>
       <c r="E25" t="n">
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>98.37350000000001</v>
+        <v>98.51479999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>93.0608</v>
+        <v>91.65309999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>89.1554</v>
+        <v>88.5558</v>
       </c>
       <c r="I25" t="n">
-        <v>99.99639999999999</v>
+        <v>100.2771</v>
       </c>
       <c r="J25" t="n">
-        <v>99.2517</v>
+        <v>99.27889999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>100.5711</v>
+        <v>100.6659</v>
       </c>
       <c r="L25" t="n">
-        <v>94.1186</v>
+        <v>94.05500000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>83.73779999999999</v>
+        <v>87.69799999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>95.3613</v>
+        <v>96.1183</v>
       </c>
       <c r="O25" t="n">
-        <v>99.934</v>
+        <v>99.542</v>
       </c>
       <c r="P25" t="n">
-        <v>86.1401</v>
+        <v>88.4971</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.5264</v>
+        <v>89.96729999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>99.0077</v>
+        <v>99.46510000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>96.41119999999999</v>
+        <v>96.5166</v>
       </c>
       <c r="T25" t="n">
-        <v>101.7868</v>
+        <v>102.0605</v>
       </c>
       <c r="U25" t="n">
-        <v>98.7704</v>
+        <v>98.9717</v>
       </c>
       <c r="V25" t="n">
-        <v>100.1524</v>
+        <v>100.4579</v>
       </c>
       <c r="W25" t="n">
-        <v>82.7989</v>
+        <v>84.60080000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>94.7607</v>
+        <v>96.3322</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.0635</v>
+        <v>98.00879999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>97.2178</v>
+        <v>97.67</v>
       </c>
       <c r="AA25" t="n">
-        <v>101.0951</v>
+        <v>101.0644</v>
       </c>
       <c r="AB25" t="n">
-        <v>81.2551</v>
+        <v>75.4743</v>
       </c>
       <c r="AC25" t="n">
-        <v>62.7278</v>
+        <v>59.3744</v>
       </c>
       <c r="AD25" t="n">
-        <v>97.7873</v>
+        <v>97.53100000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>100.6128</v>
+        <v>100.8534</v>
       </c>
       <c r="AF25" t="n">
-        <v>98.1135</v>
+        <v>98.61490000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>98.60760000000001</v>
+        <v>98.78570000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>98.8772</v>
+        <v>98.8479</v>
       </c>
       <c r="AI25" t="n">
-        <v>99.48820000000001</v>
+        <v>99.6914</v>
       </c>
       <c r="AJ25" t="n">
-        <v>98.3036</v>
+        <v>98.3091</v>
       </c>
       <c r="AK25" t="n">
-        <v>95.82899999999999</v>
+        <v>96.617</v>
       </c>
       <c r="AL25" t="n">
-        <v>99.508</v>
+        <v>99.6426</v>
       </c>
       <c r="AM25" t="n">
-        <v>95.7586</v>
+        <v>95.9996</v>
       </c>
       <c r="AN25" t="n">
-        <v>97.2388</v>
+        <v>97.6371</v>
       </c>
       <c r="AO25" t="n">
-        <v>99.7246</v>
+        <v>99.8403</v>
       </c>
       <c r="AP25" t="n">
-        <v>79.1679</v>
+        <v>81.2814</v>
       </c>
       <c r="AQ25" t="n">
-        <v>82.3852</v>
+        <v>80.101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.7527</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>99.52290000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D26" t="n">
-        <v>100.8348</v>
+        <v>100.7</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>99.0219</v>
+        <v>100.799999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>93.7283</v>
+        <v>100.299999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>90.2585</v>
+        <v>98.5</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2899</v>
+        <v>100.6</v>
       </c>
       <c r="J26" t="n">
-        <v>99.148</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>100.757</v>
+        <v>101.2</v>
       </c>
       <c r="L26" t="n">
-        <v>94.72029999999999</v>
+        <v>101.2</v>
       </c>
       <c r="M26" t="n">
-        <v>87.9867</v>
+        <v>104.1</v>
       </c>
       <c r="N26" t="n">
-        <v>98.42700000000001</v>
+        <v>100.299999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>99.4439</v>
+        <v>103.5</v>
       </c>
       <c r="P26" t="n">
-        <v>87.9243</v>
+        <v>103.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.88590000000001</v>
+        <v>109.2</v>
       </c>
       <c r="R26" t="n">
-        <v>99.29040000000001</v>
+        <v>100</v>
       </c>
       <c r="S26" t="n">
-        <v>97.0355</v>
+        <v>98.5</v>
       </c>
       <c r="T26" t="n">
-        <v>101.5497</v>
+        <v>102</v>
       </c>
       <c r="U26" t="n">
-        <v>98.8732</v>
+        <v>99</v>
       </c>
       <c r="V26" t="n">
-        <v>100.1215</v>
+        <v>100</v>
       </c>
       <c r="W26" t="n">
-        <v>82.2246</v>
+        <v>115.4</v>
       </c>
       <c r="X26" t="n">
-        <v>91.7097</v>
+        <v>90</v>
       </c>
       <c r="Y26" t="n">
-        <v>96.8657</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>97.27800000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AA26" t="n">
-        <v>101.1242</v>
+        <v>100.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>86.50149999999999</v>
+        <v>103.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>61.7392</v>
+        <v>102</v>
       </c>
       <c r="AD26" t="n">
-        <v>97.06229999999999</v>
+        <v>100.299999999999</v>
       </c>
       <c r="AE26" t="n">
-        <v>100.487</v>
+        <v>100.299999999999</v>
       </c>
       <c r="AF26" t="n">
-        <v>98.3092</v>
+        <v>98.7999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>98.42400000000001</v>
+        <v>99.2999999999999</v>
       </c>
       <c r="AH26" t="n">
-        <v>99.04049999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AI26" t="n">
-        <v>99.5295</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100.8834</v>
+        <v>103.6</v>
       </c>
       <c r="AK26" t="n">
-        <v>95.7298</v>
+        <v>100.2</v>
       </c>
       <c r="AL26" t="n">
-        <v>98.9901</v>
+        <v>100.1</v>
       </c>
       <c r="AM26" t="n">
-        <v>95.75539999999999</v>
+        <v>101.1</v>
       </c>
       <c r="AN26" t="n">
-        <v>98.33969999999999</v>
+        <v>99.7999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>99.77500000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AP26" t="n">
-        <v>81.00749999999999</v>
+        <v>113.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>81.1327</v>
+        <v>104.799999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.6431</v>
+        <v>99</v>
       </c>
       <c r="C27" t="n">
-        <v>99.5821</v>
+        <v>100.2</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8106</v>
+        <v>101.1</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>99.2754</v>
+        <v>101.6</v>
       </c>
       <c r="G27" t="n">
-        <v>94.107</v>
+        <v>103.1</v>
       </c>
       <c r="H27" t="n">
-        <v>90.6841</v>
+        <v>100.3</v>
       </c>
       <c r="I27" t="n">
-        <v>100.3744</v>
+        <v>100.6</v>
       </c>
       <c r="J27" t="n">
-        <v>99.1352</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>100.8539</v>
+        <v>101.3</v>
       </c>
       <c r="L27" t="n">
-        <v>95.09739999999999</v>
+        <v>103.3</v>
       </c>
       <c r="M27" t="n">
-        <v>87.78789999999999</v>
+        <v>110.2</v>
       </c>
       <c r="N27" t="n">
-        <v>97.4701</v>
+        <v>102.3</v>
       </c>
       <c r="O27" t="n">
-        <v>100.0012</v>
+        <v>104.2</v>
       </c>
       <c r="P27" t="n">
-        <v>89.2765</v>
+        <v>112.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.947</v>
+        <v>113.7</v>
       </c>
       <c r="R27" t="n">
-        <v>99.2235</v>
+        <v>100.1</v>
       </c>
       <c r="S27" t="n">
-        <v>96.8964</v>
+        <v>99.3</v>
       </c>
       <c r="T27" t="n">
-        <v>101.7487</v>
+        <v>102</v>
       </c>
       <c r="U27" t="n">
-        <v>98.7616</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V27" t="n">
-        <v>100.1298</v>
+        <v>100</v>
       </c>
       <c r="W27" t="n">
-        <v>82.3652</v>
+        <v>128.6</v>
       </c>
       <c r="X27" t="n">
-        <v>90.24979999999999</v>
+        <v>90.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.2817</v>
+        <v>96.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>97.5573</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AA27" t="n">
-        <v>101.1417</v>
+        <v>100.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>85.7011</v>
+        <v>109</v>
       </c>
       <c r="AC27" t="n">
-        <v>63.935</v>
+        <v>106.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>97.3134</v>
+        <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>100.311</v>
+        <v>100.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>98.3169</v>
+        <v>99.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>98.34869999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AH27" t="n">
-        <v>99.2389</v>
+        <v>100.8</v>
       </c>
       <c r="AI27" t="n">
-        <v>99.48820000000001</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="n">
-        <v>101.0747</v>
+        <v>103.6</v>
       </c>
       <c r="AK27" t="n">
-        <v>95.7298</v>
+        <v>101.7</v>
       </c>
       <c r="AL27" t="n">
-        <v>98.94750000000001</v>
+        <v>100.3</v>
       </c>
       <c r="AM27" t="n">
-        <v>95.5582</v>
+        <v>102.7</v>
       </c>
       <c r="AN27" t="n">
-        <v>97.9466</v>
+        <v>100.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>99.6519</v>
+        <v>100.2</v>
       </c>
       <c r="AP27" t="n">
-        <v>83.81870000000001</v>
+        <v>122.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>81.5732</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.6476</v>
+        <v>99.3</v>
       </c>
       <c r="C28" t="n">
-        <v>99.72929999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D28" t="n">
-        <v>100.6995</v>
+        <v>101.8</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>99.6972</v>
+        <v>102.4</v>
       </c>
       <c r="G28" t="n">
-        <v>94.5103</v>
+        <v>106.6</v>
       </c>
       <c r="H28" t="n">
-        <v>92.6707</v>
+        <v>104.6</v>
       </c>
       <c r="I28" t="n">
-        <v>100.2512</v>
+        <v>100.8</v>
       </c>
       <c r="J28" t="n">
-        <v>99.155</v>
+        <v>100.5</v>
       </c>
       <c r="K28" t="n">
-        <v>100.8496</v>
+        <v>101.5</v>
       </c>
       <c r="L28" t="n">
-        <v>95.6793</v>
+        <v>105.5</v>
       </c>
       <c r="M28" t="n">
-        <v>89.842</v>
+        <v>114.8</v>
       </c>
       <c r="N28" t="n">
-        <v>97.7159</v>
+        <v>102.8</v>
       </c>
       <c r="O28" t="n">
-        <v>101.7675</v>
+        <v>103.9</v>
       </c>
       <c r="P28" t="n">
-        <v>91.6982</v>
+        <v>117.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.6516</v>
+        <v>116.9</v>
       </c>
       <c r="R28" t="n">
-        <v>99.1563</v>
+        <v>100.4</v>
       </c>
       <c r="S28" t="n">
-        <v>97.2264</v>
+        <v>100.3</v>
       </c>
       <c r="T28" t="n">
-        <v>101.6034</v>
+        <v>102.1</v>
       </c>
       <c r="U28" t="n">
-        <v>98.7728</v>
+        <v>99.2</v>
       </c>
       <c r="V28" t="n">
-        <v>100.1536</v>
+        <v>100</v>
       </c>
       <c r="W28" t="n">
-        <v>83.4273</v>
+        <v>134</v>
       </c>
       <c r="X28" t="n">
-        <v>89.75700000000001</v>
+        <v>95.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.215</v>
+        <v>96.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>97.7577</v>
+        <v>100.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>101.1985</v>
+        <v>100.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>82.0204</v>
+        <v>116.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>66.2011</v>
+        <v>119.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>97.5034</v>
+        <v>101.8</v>
       </c>
       <c r="AE28" t="n">
-        <v>100.3375</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="n">
-        <v>98.2209</v>
+        <v>99.8</v>
       </c>
       <c r="AG28" t="n">
-        <v>98.563</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>99.34990000000001</v>
+        <v>103.7</v>
       </c>
       <c r="AI28" t="n">
-        <v>99.37560000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>100.9922</v>
+        <v>104.7</v>
       </c>
       <c r="AK28" t="n">
-        <v>96.44070000000001</v>
+        <v>103.4</v>
       </c>
       <c r="AL28" t="n">
-        <v>99.29130000000001</v>
+        <v>100.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>95.67749999999999</v>
+        <v>103.7</v>
       </c>
       <c r="AN28" t="n">
-        <v>97.9349</v>
+        <v>101.1</v>
       </c>
       <c r="AO28" t="n">
-        <v>99.7761</v>
+        <v>100.6</v>
       </c>
       <c r="AP28" t="n">
-        <v>89.0741</v>
+        <v>135</v>
       </c>
       <c r="AQ28" t="n">
-        <v>86.8634</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.80459999999999</v>
+        <v>98.7527</v>
       </c>
       <c r="C29" t="n">
-        <v>99.6921</v>
+        <v>99.52290000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>99.9269</v>
+        <v>100.8348</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>99.6551</v>
+        <v>99.0219</v>
       </c>
       <c r="G29" t="n">
-        <v>94.91330000000001</v>
+        <v>93.7283</v>
       </c>
       <c r="H29" t="n">
-        <v>93.0378</v>
+        <v>90.2585</v>
       </c>
       <c r="I29" t="n">
-        <v>100.3263</v>
+        <v>100.2899</v>
       </c>
       <c r="J29" t="n">
-        <v>99.09139999999999</v>
+        <v>99.148</v>
       </c>
       <c r="K29" t="n">
-        <v>100.8192</v>
+        <v>100.757</v>
       </c>
       <c r="L29" t="n">
-        <v>96.6187</v>
+        <v>94.72029999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>91.6246</v>
+        <v>87.9867</v>
       </c>
       <c r="N29" t="n">
-        <v>97.8409</v>
+        <v>98.42700000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>101.3937</v>
+        <v>99.4439</v>
       </c>
       <c r="P29" t="n">
-        <v>92.31699999999999</v>
+        <v>87.9243</v>
       </c>
       <c r="Q29" t="n">
-        <v>96.50369999999999</v>
+        <v>89.88590000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>99.24209999999999</v>
+        <v>99.29040000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>97.0508</v>
+        <v>97.0355</v>
       </c>
       <c r="T29" t="n">
-        <v>102.0219</v>
+        <v>101.5497</v>
       </c>
       <c r="U29" t="n">
-        <v>98.75839999999999</v>
+        <v>98.8732</v>
       </c>
       <c r="V29" t="n">
-        <v>100.1717</v>
+        <v>100.1215</v>
       </c>
       <c r="W29" t="n">
-        <v>85.47629999999999</v>
+        <v>82.2246</v>
       </c>
       <c r="X29" t="n">
-        <v>89.8389</v>
+        <v>91.7097</v>
       </c>
       <c r="Y29" t="n">
-        <v>96.0479</v>
+        <v>96.8657</v>
       </c>
       <c r="Z29" t="n">
-        <v>97.8673</v>
+        <v>97.27800000000001</v>
       </c>
       <c r="AA29" t="n">
-        <v>100.9427</v>
+        <v>101.1242</v>
       </c>
       <c r="AB29" t="n">
-        <v>83.9415</v>
+        <v>86.50149999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>73.3454</v>
+        <v>61.7392</v>
       </c>
       <c r="AD29" t="n">
-        <v>97.49079999999999</v>
+        <v>97.06229999999999</v>
       </c>
       <c r="AE29" t="n">
-        <v>100.4701</v>
+        <v>100.487</v>
       </c>
       <c r="AF29" t="n">
-        <v>98.09059999999999</v>
+        <v>98.3092</v>
       </c>
       <c r="AG29" t="n">
-        <v>98.68640000000001</v>
+        <v>98.42400000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>99.2439</v>
+        <v>99.04049999999999</v>
       </c>
       <c r="AI29" t="n">
-        <v>99.2734</v>
+        <v>99.5295</v>
       </c>
       <c r="AJ29" t="n">
-        <v>101.021</v>
+        <v>100.8834</v>
       </c>
       <c r="AK29" t="n">
-        <v>97.4344</v>
+        <v>95.7298</v>
       </c>
       <c r="AL29" t="n">
-        <v>99.3612</v>
+        <v>98.9901</v>
       </c>
       <c r="AM29" t="n">
-        <v>96.3571</v>
+        <v>95.75539999999999</v>
       </c>
       <c r="AN29" t="n">
-        <v>98.2938</v>
+        <v>98.33969999999999</v>
       </c>
       <c r="AO29" t="n">
-        <v>99.6416</v>
+        <v>99.77500000000001</v>
       </c>
       <c r="AP29" t="n">
-        <v>97.6123</v>
+        <v>81.00749999999999</v>
       </c>
       <c r="AQ29" t="n">
-        <v>92.5175</v>
+        <v>81.1327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.90000000000001</v>
+        <v>98.6431</v>
       </c>
       <c r="C30" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5821</v>
       </c>
       <c r="D30" t="n">
-        <v>100.4</v>
+        <v>100.8106</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>99.7</v>
+        <v>99.2754</v>
       </c>
       <c r="G30" t="n">
-        <v>94.59999999999999</v>
+        <v>94.107</v>
       </c>
       <c r="H30" t="n">
-        <v>91.7</v>
+        <v>90.6841</v>
       </c>
       <c r="I30" t="n">
-        <v>100.3</v>
+        <v>100.3744</v>
       </c>
       <c r="J30" t="n">
-        <v>99</v>
+        <v>99.1352</v>
       </c>
       <c r="K30" t="n">
-        <v>101</v>
+        <v>100.8539</v>
       </c>
       <c r="L30" t="n">
-        <v>97.2</v>
+        <v>95.09739999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>95.59999999999999</v>
+        <v>87.78789999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>98.8</v>
+        <v>97.4701</v>
       </c>
       <c r="O30" t="n">
-        <v>101.9</v>
+        <v>100.0012</v>
       </c>
       <c r="P30" t="n">
-        <v>92.3</v>
+        <v>89.2765</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.59999999999999</v>
+        <v>91.947</v>
       </c>
       <c r="R30" t="n">
-        <v>99.5</v>
+        <v>99.2235</v>
       </c>
       <c r="S30" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8964</v>
       </c>
       <c r="T30" t="n">
-        <v>102.2</v>
+        <v>101.7487</v>
       </c>
       <c r="U30" t="n">
-        <v>98.8</v>
+        <v>98.7616</v>
       </c>
       <c r="V30" t="n">
-        <v>100.2</v>
+        <v>100.1298</v>
       </c>
       <c r="W30" t="n">
-        <v>89.8</v>
+        <v>82.3652</v>
       </c>
       <c r="X30" t="n">
-        <v>89.40000000000001</v>
+        <v>90.24979999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>97</v>
+        <v>96.2817</v>
       </c>
       <c r="Z30" t="n">
-        <v>97.7</v>
+        <v>97.5573</v>
       </c>
       <c r="AA30" t="n">
-        <v>100.9</v>
+        <v>101.1417</v>
       </c>
       <c r="AB30" t="n">
-        <v>84.40000000000001</v>
+        <v>85.7011</v>
       </c>
       <c r="AC30" t="n">
-        <v>78.5</v>
+        <v>63.935</v>
       </c>
       <c r="AD30" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3134</v>
       </c>
       <c r="AE30" t="n">
-        <v>100.5</v>
+        <v>100.311</v>
       </c>
       <c r="AF30" t="n">
-        <v>98.2</v>
+        <v>98.3169</v>
       </c>
       <c r="AG30" t="n">
-        <v>98.90000000000001</v>
+        <v>98.34869999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>99.2</v>
+        <v>99.2389</v>
       </c>
       <c r="AI30" t="n">
-        <v>99.3</v>
+        <v>99.48820000000001</v>
       </c>
       <c r="AJ30" t="n">
-        <v>101</v>
+        <v>101.0747</v>
       </c>
       <c r="AK30" t="n">
-        <v>98</v>
+        <v>95.7298</v>
       </c>
       <c r="AL30" t="n">
-        <v>99.59999999999999</v>
+        <v>98.94750000000001</v>
       </c>
       <c r="AM30" t="n">
-        <v>97.2</v>
+        <v>95.5582</v>
       </c>
       <c r="AN30" t="n">
-        <v>98.7</v>
+        <v>97.9466</v>
       </c>
       <c r="AO30" t="n">
-        <v>99.5</v>
+        <v>99.6519</v>
       </c>
       <c r="AP30" t="n">
-        <v>101.7</v>
+        <v>83.81870000000001</v>
       </c>
       <c r="AQ30" t="n">
-        <v>95.8</v>
+        <v>81.5732</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.7</v>
+        <v>98.6476</v>
       </c>
       <c r="C31" t="n">
-        <v>99.90000000000001</v>
+        <v>99.72929999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>100.6</v>
+        <v>100.6995</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>100.2</v>
+        <v>99.6972</v>
       </c>
       <c r="G31" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5103</v>
       </c>
       <c r="H31" t="n">
-        <v>92.40000000000001</v>
+        <v>92.6707</v>
       </c>
       <c r="I31" t="n">
-        <v>100.4</v>
+        <v>100.2512</v>
       </c>
       <c r="J31" t="n">
-        <v>99.3</v>
+        <v>99.155</v>
       </c>
       <c r="K31" t="n">
-        <v>101.1</v>
+        <v>100.8496</v>
       </c>
       <c r="L31" t="n">
-        <v>97.40000000000001</v>
+        <v>95.6793</v>
       </c>
       <c r="M31" t="n">
-        <v>94.90000000000001</v>
+        <v>89.842</v>
       </c>
       <c r="N31" t="n">
-        <v>99.7</v>
+        <v>97.7159</v>
       </c>
       <c r="O31" t="n">
-        <v>102.5</v>
+        <v>101.7675</v>
       </c>
       <c r="P31" t="n">
-        <v>93.90000000000001</v>
+        <v>91.6982</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.90000000000001</v>
+        <v>95.6516</v>
       </c>
       <c r="R31" t="n">
-        <v>99.7</v>
+        <v>99.1563</v>
       </c>
       <c r="S31" t="n">
-        <v>96.8</v>
+        <v>97.2264</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1</v>
+        <v>101.6034</v>
       </c>
       <c r="U31" t="n">
-        <v>98.7</v>
+        <v>98.7728</v>
       </c>
       <c r="V31" t="n">
-        <v>100.1</v>
+        <v>100.1536</v>
       </c>
       <c r="W31" t="n">
-        <v>93.09999999999999</v>
+        <v>83.4273</v>
       </c>
       <c r="X31" t="n">
-        <v>89.5</v>
+        <v>89.75700000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.5</v>
+        <v>96.215</v>
       </c>
       <c r="Z31" t="n">
-        <v>98</v>
+        <v>97.7577</v>
       </c>
       <c r="AA31" t="n">
-        <v>101.2</v>
+        <v>101.1985</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.2</v>
+        <v>82.0204</v>
       </c>
       <c r="AC31" t="n">
-        <v>80.09999999999999</v>
+        <v>66.2011</v>
       </c>
       <c r="AD31" t="n">
-        <v>97.7</v>
+        <v>97.5034</v>
       </c>
       <c r="AE31" t="n">
-        <v>100.6</v>
+        <v>100.3375</v>
       </c>
       <c r="AF31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2209</v>
       </c>
       <c r="AG31" t="n">
-        <v>98.90000000000001</v>
+        <v>98.563</v>
       </c>
       <c r="AH31" t="n">
-        <v>99.2</v>
+        <v>99.34990000000001</v>
       </c>
       <c r="AI31" t="n">
-        <v>99.2</v>
+        <v>99.37560000000001</v>
       </c>
       <c r="AJ31" t="n">
-        <v>101.8</v>
+        <v>100.9922</v>
       </c>
       <c r="AK31" t="n">
-        <v>98</v>
+        <v>96.44070000000001</v>
       </c>
       <c r="AL31" t="n">
-        <v>99.8</v>
+        <v>99.29130000000001</v>
       </c>
       <c r="AM31" t="n">
-        <v>97.8</v>
+        <v>95.67749999999999</v>
       </c>
       <c r="AN31" t="n">
-        <v>98.8</v>
+        <v>97.9349</v>
       </c>
       <c r="AO31" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7761</v>
       </c>
       <c r="AP31" t="n">
-        <v>98.7</v>
+        <v>89.0741</v>
       </c>
       <c r="AQ31" t="n">
-        <v>94.2</v>
+        <v>86.8634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.7</v>
+        <v>98.80459999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8</v>
+        <v>99.6921</v>
       </c>
       <c r="D32" t="n">
-        <v>101</v>
+        <v>99.9269</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>100.1</v>
+        <v>99.6551</v>
       </c>
       <c r="G32" t="n">
-        <v>95.3</v>
+        <v>94.91330000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>93.7</v>
+        <v>93.0378</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2</v>
+        <v>100.3263</v>
       </c>
       <c r="J32" t="n">
-        <v>99.2</v>
+        <v>99.09139999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>101.2</v>
+        <v>100.8192</v>
       </c>
       <c r="L32" t="n">
-        <v>98.3</v>
+        <v>96.6187</v>
       </c>
       <c r="M32" t="n">
-        <v>97.2</v>
+        <v>91.6246</v>
       </c>
       <c r="N32" t="n">
-        <v>99.7</v>
+        <v>97.8409</v>
       </c>
       <c r="O32" t="n">
-        <v>104.9</v>
+        <v>101.3937</v>
       </c>
       <c r="P32" t="n">
-        <v>98</v>
+        <v>92.31699999999999</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4</v>
+        <v>96.50369999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>100.4</v>
+        <v>99.24209999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>97</v>
+        <v>97.0508</v>
       </c>
       <c r="T32" t="n">
-        <v>102</v>
+        <v>102.0219</v>
       </c>
       <c r="U32" t="n">
-        <v>98.90000000000001</v>
+        <v>98.75839999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>100.1</v>
+        <v>100.1717</v>
       </c>
       <c r="W32" t="n">
-        <v>94.7</v>
+        <v>85.47629999999999</v>
       </c>
       <c r="X32" t="n">
-        <v>89.40000000000001</v>
+        <v>89.8389</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.5</v>
+        <v>96.0479</v>
       </c>
       <c r="Z32" t="n">
-        <v>98.3</v>
+        <v>97.8673</v>
       </c>
       <c r="AA32" t="n">
-        <v>101.2</v>
+        <v>100.9427</v>
       </c>
       <c r="AB32" t="n">
-        <v>90.8</v>
+        <v>83.9415</v>
       </c>
       <c r="AC32" t="n">
-        <v>84.09999999999999</v>
+        <v>73.3454</v>
       </c>
       <c r="AD32" t="n">
-        <v>98.59999999999999</v>
+        <v>97.49079999999999</v>
       </c>
       <c r="AE32" t="n">
-        <v>100.7</v>
+        <v>100.4701</v>
       </c>
       <c r="AF32" t="n">
-        <v>98.7</v>
+        <v>98.09059999999999</v>
       </c>
       <c r="AG32" t="n">
-        <v>99</v>
+        <v>98.68640000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>99.2</v>
+        <v>99.2439</v>
       </c>
       <c r="AI32" t="n">
-        <v>98.8</v>
+        <v>99.2734</v>
       </c>
       <c r="AJ32" t="n">
-        <v>102.2</v>
+        <v>101.021</v>
       </c>
       <c r="AK32" t="n">
-        <v>98.5</v>
+        <v>97.4344</v>
       </c>
       <c r="AL32" t="n">
-        <v>100</v>
+        <v>99.3612</v>
       </c>
       <c r="AM32" t="n">
-        <v>98.2</v>
+        <v>96.3571</v>
       </c>
       <c r="AN32" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2938</v>
       </c>
       <c r="AO32" t="n">
-        <v>99.7</v>
+        <v>99.6416</v>
       </c>
       <c r="AP32" t="n">
-        <v>102</v>
+        <v>97.6123</v>
       </c>
       <c r="AQ32" t="n">
-        <v>96.3</v>
+        <v>92.5175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="G33" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>99</v>
+      </c>
+      <c r="K33" t="n">
+        <v>101</v>
+      </c>
+      <c r="L33" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="P33" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="S33" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="M33" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="P33" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>97.5</v>
-      </c>
       <c r="T33" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="U33" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="V33" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="W33" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z33" t="n">
         <v>97.7</v>
       </c>
-      <c r="X33" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="AD33" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="Z33" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>99.2</v>
-      </c>
       <c r="AE33" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AF33" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AG33" t="n">
         <v>98.90000000000001</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>99.2</v>
       </c>
       <c r="AH33" t="n">
         <v>99.2</v>
       </c>
       <c r="AI33" t="n">
-        <v>98.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AJ33" t="n">
-        <v>103.6</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AL33" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AM33" t="n">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="AN33" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AO33" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>106.5</v>
+        <v>101.7</v>
       </c>
       <c r="AQ33" t="n">
-        <v>99.5</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.7999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C34" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="G34" t="n">
-        <v>98.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>96.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>100.4</v>
       </c>
       <c r="J34" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="K34" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="L34" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="R34" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="V34" t="n">
         <v>100.1</v>
       </c>
-      <c r="M34" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O34" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="W34" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="X34" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA34" t="n">
         <v>101.2</v>
       </c>
-      <c r="Q34" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>99.7999999999999</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="AB34" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="AD34" t="n">
         <v>97.7</v>
       </c>
-      <c r="T34" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="AE34" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AG34" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="V34" t="n">
-        <v>100</v>
-      </c>
-      <c r="W34" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>89.7999999999999</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>97.2999999999999</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>95.7999999999999</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AH34" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>98</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AO34" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="AE34" t="n">
-        <v>100.299999999999</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AI34" t="n">
+      <c r="AP34" t="n">
         <v>98.7</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>104</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>110.1</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>103.299999999999</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C35" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="D35" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>100.799999999999</v>
+        <v>100.1</v>
       </c>
       <c r="G35" t="n">
-        <v>100.299999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H35" t="n">
-        <v>98.5</v>
+        <v>93.7</v>
       </c>
       <c r="I35" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="J35" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="K35" t="n">
         <v>101.2</v>
       </c>
       <c r="L35" t="n">
-        <v>101.2</v>
+        <v>98.3</v>
       </c>
       <c r="M35" t="n">
-        <v>104.1</v>
+        <v>97.2</v>
       </c>
       <c r="N35" t="n">
-        <v>100.299999999999</v>
+        <v>99.7</v>
       </c>
       <c r="O35" t="n">
-        <v>103.5</v>
+        <v>104.9</v>
       </c>
       <c r="P35" t="n">
-        <v>103.7</v>
+        <v>98</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.2</v>
+        <v>104.4</v>
       </c>
       <c r="R35" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="S35" t="n">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="T35" t="n">
         <v>102</v>
       </c>
       <c r="U35" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="V35" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="X35" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="AG35" t="n">
         <v>99</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AH35" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AL35" t="n">
         <v>100</v>
       </c>
-      <c r="W35" t="n">
-        <v>115.4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="AM35" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AP35" t="n">
         <v>102</v>
       </c>
-      <c r="AD35" t="n">
-        <v>100.299999999999</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>100.299999999999</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>98.7999999999999</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>99.2999999999999</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>99.7999999999999</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>113.1</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>104.799999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C36" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="D36" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>101.6</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>103.1</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>100.3</v>
+        <v>96.2</v>
       </c>
       <c r="I36" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="J36" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="L36" t="n">
-        <v>103.3</v>
+        <v>99.2</v>
       </c>
       <c r="M36" t="n">
-        <v>110.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>102.3</v>
+        <v>100.4</v>
       </c>
       <c r="O36" t="n">
-        <v>104.2</v>
+        <v>105.6</v>
       </c>
       <c r="P36" t="n">
-        <v>112.6</v>
+        <v>100.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7</v>
+        <v>108.6</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="S36" t="n">
-        <v>99.3</v>
+        <v>97.5</v>
       </c>
       <c r="T36" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="U36" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="V36" t="n">
         <v>100</v>
       </c>
       <c r="W36" t="n">
-        <v>128.6</v>
+        <v>97.7</v>
       </c>
       <c r="X36" t="n">
-        <v>90.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Y36" t="n">
-        <v>96.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="AB36" t="n">
-        <v>109</v>
+        <v>94.7</v>
       </c>
       <c r="AC36" t="n">
-        <v>106.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>101</v>
+        <v>99.2</v>
       </c>
       <c r="AE36" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AF36" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AG36" t="n">
         <v>99.2</v>
       </c>
-      <c r="AG36" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="AH36" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="AI36" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AJ36" t="n">
         <v>103.6</v>
       </c>
       <c r="AK36" t="n">
-        <v>101.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AL36" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="AM36" t="n">
-        <v>102.7</v>
+        <v>99</v>
       </c>
       <c r="AN36" t="n">
-        <v>100.5</v>
+        <v>99</v>
       </c>
       <c r="AO36" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AP36" t="n">
-        <v>122.2</v>
+        <v>106.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>110.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.3</v>
+        <v>98.7999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8</v>
+        <v>100.5</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>102.4</v>
+        <v>100.4</v>
       </c>
       <c r="G37" t="n">
-        <v>106.6</v>
+        <v>98.5</v>
       </c>
       <c r="H37" t="n">
-        <v>104.6</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="J37" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>101</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="M37" t="n">
         <v>100.5</v>
       </c>
-      <c r="K37" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="M37" t="n">
-        <v>114.8</v>
-      </c>
       <c r="N37" t="n">
-        <v>102.8</v>
+        <v>100.7</v>
       </c>
       <c r="O37" t="n">
-        <v>103.9</v>
+        <v>104.4</v>
       </c>
       <c r="P37" t="n">
-        <v>117.1</v>
+        <v>101.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>116.9</v>
+        <v>108.4</v>
       </c>
       <c r="R37" t="n">
-        <v>100.4</v>
+        <v>99.7999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>100.3</v>
+        <v>97.7</v>
       </c>
       <c r="T37" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="U37" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V37" t="n">
         <v>100</v>
       </c>
       <c r="W37" t="n">
-        <v>134</v>
+        <v>104.1</v>
       </c>
       <c r="X37" t="n">
-        <v>95.3</v>
+        <v>89.7999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.8</v>
+        <v>97.2999999999999</v>
       </c>
       <c r="Z37" t="n">
-        <v>100.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AA37" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AB37" t="n">
-        <v>116.6</v>
+        <v>100</v>
       </c>
       <c r="AC37" t="n">
-        <v>119.7</v>
+        <v>95.7999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>101.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AE37" t="n">
-        <v>101</v>
+        <v>100.299999999999</v>
       </c>
       <c r="AF37" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="AG37" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>104</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AM37" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="AH37" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>103.7</v>
-      </c>
       <c r="AN37" t="n">
-        <v>101.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AO37" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AP37" t="n">
-        <v>135</v>
+        <v>110.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>118.2</v>
+        <v>103.299999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="C38" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="D38" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>102.6</v>
+        <v>100.3</v>
       </c>
       <c r="G38" t="n">
-        <v>109.2</v>
+        <v>110.7</v>
       </c>
       <c r="H38" t="n">
-        <v>109.3</v>
+        <v>111.6</v>
       </c>
       <c r="I38" t="n">
-        <v>100.7</v>
+        <v>101.8</v>
       </c>
       <c r="J38" t="n">
-        <v>100.6</v>
+        <v>102.2</v>
       </c>
       <c r="K38" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="L38" t="n">
         <v>106.9</v>
       </c>
       <c r="M38" t="n">
-        <v>117.4</v>
+        <v>115.7</v>
       </c>
       <c r="N38" t="n">
-        <v>101.1</v>
+        <v>95.8</v>
       </c>
       <c r="O38" t="n">
-        <v>103.8</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>117.3</v>
+        <v>120</v>
       </c>
       <c r="Q38" t="n">
-        <v>117.7</v>
+        <v>115.5</v>
       </c>
       <c r="R38" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
       <c r="S38" t="n">
-        <v>101</v>
+        <v>103.4</v>
       </c>
       <c r="T38" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="U38" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="V38" t="n">
         <v>100</v>
       </c>
       <c r="W38" t="n">
-        <v>138.4</v>
+        <v>119.7</v>
       </c>
       <c r="X38" t="n">
-        <v>100</v>
+        <v>103.1</v>
       </c>
       <c r="Y38" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z38" t="n">
-        <v>101.1</v>
+        <v>103.4</v>
       </c>
       <c r="AA38" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="AE38" t="n">
         <v>100.7</v>
       </c>
-      <c r="AB38" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>100.6</v>
-      </c>
       <c r="AF38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AG38" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="AH38" t="n">
-        <v>105.7</v>
+        <v>116.6</v>
       </c>
       <c r="AI38" t="n">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="AJ38" t="n">
-        <v>103.9</v>
+        <v>101.6</v>
       </c>
       <c r="AK38" t="n">
-        <v>104.3</v>
+        <v>107</v>
       </c>
       <c r="AL38" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="AM38" t="n">
-        <v>104.6</v>
+        <v>110.3</v>
       </c>
       <c r="AN38" t="n">
-        <v>101.6</v>
+        <v>107.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>100.8</v>
+        <v>101.4</v>
       </c>
       <c r="AP38" t="n">
-        <v>137.7</v>
+        <v>130.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>123.7</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D39" t="n">
         <v>102.4</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="I39" t="n">
         <v>102.1</v>
       </c>
-      <c r="G39" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="H39" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>100.9</v>
-      </c>
       <c r="J39" t="n">
-        <v>100.7</v>
+        <v>101.9</v>
       </c>
       <c r="K39" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="L39" t="n">
-        <v>107.8</v>
+        <v>105.8</v>
       </c>
       <c r="M39" t="n">
-        <v>118.8</v>
+        <v>114</v>
       </c>
       <c r="N39" t="n">
-        <v>101.1</v>
+        <v>94.2</v>
       </c>
       <c r="O39" t="n">
-        <v>103.1</v>
+        <v>99.7</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5</v>
+        <v>114.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.7</v>
+        <v>113.5</v>
       </c>
       <c r="R39" t="n">
+        <v>101</v>
+      </c>
+      <c r="S39" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="U39" t="n">
         <v>100.1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>102</v>
-      </c>
-      <c r="U39" t="n">
-        <v>99.40000000000001</v>
       </c>
       <c r="V39" t="n">
         <v>100</v>
       </c>
       <c r="W39" t="n">
-        <v>139.6</v>
+        <v>108.6</v>
       </c>
       <c r="X39" t="n">
-        <v>101.7</v>
+        <v>103.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>98.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="Z39" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>99</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>101.4</v>
       </c>
-      <c r="AA39" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>103.8</v>
-      </c>
       <c r="AK39" t="n">
-        <v>105.2</v>
+        <v>106.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AM39" t="n">
-        <v>105</v>
+        <v>109.9</v>
       </c>
       <c r="AN39" t="n">
-        <v>103</v>
+        <v>107.4</v>
       </c>
       <c r="AO39" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>140.1</v>
+        <v>123.9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>127.6</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="D40" t="n">
-        <v>103.1</v>
+        <v>102</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>101.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>111.5</v>
+        <v>109</v>
       </c>
       <c r="H40" t="n">
-        <v>110.8</v>
+        <v>107.9</v>
       </c>
       <c r="I40" t="n">
-        <v>101</v>
+        <v>102.6</v>
       </c>
       <c r="J40" t="n">
-        <v>100.9</v>
+        <v>101.7</v>
       </c>
       <c r="K40" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="L40" t="n">
-        <v>107.6</v>
+        <v>104.9</v>
       </c>
       <c r="M40" t="n">
-        <v>119.5</v>
+        <v>114.6</v>
       </c>
       <c r="N40" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="O40" t="n">
         <v>100</v>
       </c>
-      <c r="O40" t="n">
-        <v>102.1</v>
-      </c>
       <c r="P40" t="n">
-        <v>117.3</v>
+        <v>110.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>115.5</v>
+        <v>111.9</v>
       </c>
       <c r="R40" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="S40" t="n">
         <v>102.5</v>
       </c>
       <c r="T40" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="U40" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="V40" t="n">
         <v>100</v>
       </c>
       <c r="W40" t="n">
-        <v>139.6</v>
+        <v>104.7</v>
       </c>
       <c r="X40" t="n">
-        <v>101.6</v>
+        <v>106.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.8</v>
+        <v>99.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="AA40" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>129.9</v>
+        <v>112.3</v>
       </c>
       <c r="AC40" t="n">
-        <v>168.5</v>
+        <v>120.1</v>
       </c>
       <c r="AD40" t="n">
-        <v>103.5</v>
+        <v>102.4</v>
       </c>
       <c r="AE40" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="AI40" t="n">
         <v>101</v>
       </c>
-      <c r="AF40" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="AJ40" t="n">
-        <v>103.7</v>
+        <v>100.4</v>
       </c>
       <c r="AK40" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="AL40" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AM40" t="n">
-        <v>105.8</v>
+        <v>112.4</v>
       </c>
       <c r="AN40" t="n">
-        <v>103.3</v>
+        <v>108</v>
       </c>
       <c r="AO40" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AP40" t="n">
-        <v>136.8</v>
+        <v>118.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>129</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D41" t="n">
-        <v>103.6</v>
+        <v>102.3</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>101</v>
+        <v>102.6</v>
       </c>
       <c r="G41" t="n">
         <v>109.2</v>
       </c>
       <c r="H41" t="n">
-        <v>108.8</v>
+        <v>109.3</v>
       </c>
       <c r="I41" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="M41" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="N41" t="n">
         <v>101.1</v>
       </c>
-      <c r="J41" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>101</v>
+      </c>
+      <c r="T41" t="n">
         <v>101.9</v>
       </c>
-      <c r="L41" t="n">
-        <v>106.4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="N41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="O41" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="P41" t="n">
-        <v>115.8</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>114.9</v>
-      </c>
-      <c r="R41" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="T41" t="n">
-        <v>101.8</v>
-      </c>
       <c r="U41" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V41" t="n">
         <v>100</v>
       </c>
       <c r="W41" t="n">
-        <v>140.4</v>
+        <v>138.4</v>
       </c>
       <c r="X41" t="n">
-        <v>102.1</v>
+        <v>100</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="Z41" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="AA41" t="n">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="AB41" t="n">
-        <v>127.5</v>
+        <v>124.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>143</v>
+        <v>158.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>103.8</v>
+        <v>102.6</v>
       </c>
       <c r="AE41" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="AF41" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AG41" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AH41" t="n">
-        <v>106.1</v>
+        <v>105.7</v>
       </c>
       <c r="AI41" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>104.2</v>
+        <v>103.9</v>
       </c>
       <c r="AK41" t="n">
-        <v>105</v>
+        <v>104.3</v>
       </c>
       <c r="AL41" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AM41" t="n">
-        <v>106.5</v>
+        <v>104.6</v>
       </c>
       <c r="AN41" t="n">
-        <v>103.6</v>
+        <v>101.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AP41" t="n">
-        <v>122.3</v>
+        <v>137.7</v>
       </c>
       <c r="AQ41" t="n">
-        <v>121.8</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>103.5</v>
+        <v>102.4</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>100.4</v>
+        <v>102.1</v>
       </c>
       <c r="G42" t="n">
-        <v>107.7</v>
+        <v>111.9</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4</v>
+        <v>111.9</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="J42" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="K42" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="N42" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="T42" t="n">
         <v>102</v>
       </c>
-      <c r="L42" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="N42" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O42" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="P42" t="n">
-        <v>113.6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="T42" t="n">
-        <v>101.7</v>
-      </c>
       <c r="U42" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V42" t="n">
         <v>100</v>
       </c>
       <c r="W42" t="n">
-        <v>137.2</v>
+        <v>139.6</v>
       </c>
       <c r="X42" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="Y42" t="n">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AA42" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="AB42" t="n">
-        <v>122</v>
+        <v>130.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>127</v>
+        <v>185.3</v>
       </c>
       <c r="AD42" t="n">
-        <v>103.8</v>
+        <v>103.2</v>
       </c>
       <c r="AE42" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AF42" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="AG42" t="n">
         <v>100.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="AI42" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AK42" t="n">
-        <v>104.8</v>
+        <v>105.2</v>
       </c>
       <c r="AL42" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AM42" t="n">
-        <v>107.2</v>
+        <v>105</v>
       </c>
       <c r="AN42" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="AO42" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AP42" t="n">
-        <v>117.7</v>
+        <v>140.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>114</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>99.59999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="G43" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>101</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="L43" t="n">
         <v>107.6</v>
       </c>
-      <c r="H43" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="L43" t="n">
-        <v>105.5</v>
-      </c>
       <c r="M43" t="n">
-        <v>113.7</v>
+        <v>119.5</v>
       </c>
       <c r="N43" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="O43" t="n">
-        <v>101.5</v>
+        <v>102.1</v>
       </c>
       <c r="P43" t="n">
-        <v>113.9</v>
+        <v>117.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.2</v>
+        <v>115.5</v>
       </c>
       <c r="R43" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="S43" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="T43" t="n">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="U43" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="V43" t="n">
         <v>100</v>
       </c>
       <c r="W43" t="n">
-        <v>133.2</v>
+        <v>139.6</v>
       </c>
       <c r="X43" t="n">
-        <v>100.3</v>
+        <v>101.6</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AA43" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="AE43" t="n">
         <v>101</v>
       </c>
-      <c r="AB43" t="n">
-        <v>114.9</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>100.9</v>
-      </c>
       <c r="AF43" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AG43" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>107.5</v>
+        <v>106.7</v>
       </c>
       <c r="AI43" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AJ43" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AK43" t="n">
-        <v>104.9</v>
+        <v>105.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AM43" t="n">
-        <v>107.7</v>
+        <v>105.8</v>
       </c>
       <c r="AN43" t="n">
-        <v>104.7</v>
+        <v>103.3</v>
       </c>
       <c r="AO43" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AP43" t="n">
-        <v>124.5</v>
+        <v>136.8</v>
       </c>
       <c r="AQ43" t="n">
-        <v>111.9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D44" t="n">
-        <v>102.5</v>
+        <v>103.6</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>99.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="G44" t="n">
-        <v>107.6</v>
+        <v>109.2</v>
       </c>
       <c r="H44" t="n">
-        <v>109.5</v>
+        <v>108.8</v>
       </c>
       <c r="I44" t="n">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="J44" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="L44" t="n">
-        <v>105.5</v>
+        <v>106.4</v>
       </c>
       <c r="M44" t="n">
-        <v>114</v>
+        <v>118.6</v>
       </c>
       <c r="N44" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>99.2</v>
+        <v>102.7</v>
       </c>
       <c r="P44" t="n">
-        <v>112.7</v>
+        <v>115.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.7</v>
+        <v>114.9</v>
       </c>
       <c r="R44" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="S44" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="T44" t="n">
         <v>101.8</v>
       </c>
       <c r="U44" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V44" t="n">
         <v>100</v>
       </c>
       <c r="W44" t="n">
-        <v>132.3</v>
+        <v>140.4</v>
       </c>
       <c r="X44" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>143</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AG44" t="n">
         <v>100.6</v>
       </c>
-      <c r="Y44" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>110.9</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>100.7</v>
-      </c>
       <c r="AH44" t="n">
-        <v>108.4</v>
+        <v>106.1</v>
       </c>
       <c r="AI44" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="AJ44" t="n">
-        <v>102.8</v>
+        <v>104.2</v>
       </c>
       <c r="AK44" t="n">
-        <v>105.3</v>
+        <v>105</v>
       </c>
       <c r="AL44" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="AM44" t="n">
-        <v>108.5</v>
+        <v>106.5</v>
       </c>
       <c r="AN44" t="n">
-        <v>105.2</v>
+        <v>103.6</v>
       </c>
       <c r="AO44" t="n">
         <v>101.3</v>
       </c>
       <c r="AP44" t="n">
-        <v>127.5</v>
+        <v>122.3</v>
       </c>
       <c r="AQ44" t="n">
-        <v>112.4</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>102.4</v>
+        <v>103.5</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="G45" t="n">
-        <v>108.4</v>
+        <v>107.7</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5</v>
+        <v>107.4</v>
       </c>
       <c r="I45" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>101</v>
+      </c>
+      <c r="K45" t="n">
+        <v>102</v>
+      </c>
+      <c r="L45" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="N45" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O45" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="T45" t="n">
         <v>101.7</v>
       </c>
-      <c r="J45" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="L45" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="M45" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>103</v>
-      </c>
-      <c r="T45" t="n">
-        <v>102</v>
-      </c>
       <c r="U45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="V45" t="n">
         <v>100</v>
       </c>
       <c r="W45" t="n">
-        <v>132.1</v>
+        <v>137.2</v>
       </c>
       <c r="X45" t="n">
-        <v>102</v>
+        <v>101.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>102.4</v>
+        <v>101.6</v>
       </c>
       <c r="AA45" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="AB45" t="n">
-        <v>116.8</v>
+        <v>122</v>
       </c>
       <c r="AC45" t="n">
-        <v>115.7</v>
+        <v>127</v>
       </c>
       <c r="AD45" t="n">
-        <v>102.9</v>
+        <v>103.8</v>
       </c>
       <c r="AE45" t="n">
         <v>101</v>
       </c>
       <c r="AF45" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>110.2</v>
+        <v>106.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="AJ45" t="n">
-        <v>101.1</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="n">
-        <v>105.9</v>
+        <v>104.8</v>
       </c>
       <c r="AL45" t="n">
         <v>101.3</v>
       </c>
       <c r="AM45" t="n">
-        <v>109</v>
+        <v>107.2</v>
       </c>
       <c r="AN45" t="n">
-        <v>105.7</v>
+        <v>103.9</v>
       </c>
       <c r="AO45" t="n">
         <v>101.4</v>
       </c>
       <c r="AP45" t="n">
-        <v>129.1</v>
+        <v>117.7</v>
       </c>
       <c r="AQ45" t="n">
-        <v>114.1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101</v>
+        <v>100.2</v>
       </c>
       <c r="C46" t="n">
         <v>99.90000000000001</v>
@@ -6474,511 +6474,511 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>110</v>
+        <v>107.6</v>
       </c>
       <c r="H46" t="n">
-        <v>110.9</v>
+        <v>108.2</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="J46" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="K46" t="n">
         <v>101.9</v>
       </c>
-      <c r="K46" t="n">
-        <v>101.6</v>
-      </c>
       <c r="L46" t="n">
-        <v>106.9</v>
+        <v>105.5</v>
       </c>
       <c r="M46" t="n">
-        <v>115.4</v>
+        <v>113.7</v>
       </c>
       <c r="N46" t="n">
-        <v>97</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>99.7</v>
+        <v>101.5</v>
       </c>
       <c r="P46" t="n">
-        <v>120.2</v>
+        <v>113.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.1</v>
+        <v>113.2</v>
       </c>
       <c r="R46" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="S46" t="n">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="T46" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="U46" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V46" t="n">
         <v>100</v>
       </c>
       <c r="W46" t="n">
-        <v>128.6</v>
+        <v>133.2</v>
       </c>
       <c r="X46" t="n">
-        <v>102.5</v>
+        <v>100.3</v>
       </c>
       <c r="Y46" t="n">
         <v>99.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>103</v>
+        <v>101.6</v>
       </c>
       <c r="AA46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="AO46" t="n">
         <v>101.3</v>
       </c>
-      <c r="AB46" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>103</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>109.8</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>101.4</v>
-      </c>
       <c r="AP46" t="n">
-        <v>131.5</v>
+        <v>124.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>113.7</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="C47" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>110.7</v>
+        <v>107.6</v>
       </c>
       <c r="H47" t="n">
-        <v>111.6</v>
+        <v>109.5</v>
       </c>
       <c r="I47" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="J47" t="n">
-        <v>102.2</v>
+        <v>101.3</v>
       </c>
       <c r="K47" t="n">
         <v>101.7</v>
       </c>
       <c r="L47" t="n">
-        <v>106.9</v>
+        <v>105.5</v>
       </c>
       <c r="M47" t="n">
-        <v>115.7</v>
+        <v>114</v>
       </c>
       <c r="N47" t="n">
-        <v>95.8</v>
+        <v>98.2</v>
       </c>
       <c r="O47" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="P47" t="n">
-        <v>120</v>
+        <v>112.7</v>
       </c>
       <c r="Q47" t="n">
-        <v>115.5</v>
+        <v>110.7</v>
       </c>
       <c r="R47" t="n">
-        <v>100.8</v>
+        <v>99.7</v>
       </c>
       <c r="S47" t="n">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="T47" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="U47" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="V47" t="n">
         <v>100</v>
       </c>
       <c r="W47" t="n">
-        <v>119.7</v>
+        <v>132.3</v>
       </c>
       <c r="X47" t="n">
-        <v>103.1</v>
+        <v>100.6</v>
       </c>
       <c r="Y47" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>103.4</v>
+        <v>101.9</v>
       </c>
       <c r="AA47" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AB47" t="n">
-        <v>115.5</v>
+        <v>110.9</v>
       </c>
       <c r="AC47" t="n">
-        <v>116.5</v>
+        <v>105.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>102.7</v>
+        <v>103.2</v>
       </c>
       <c r="AE47" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG47" t="n">
         <v>100.7</v>
       </c>
-      <c r="AF47" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>101.2</v>
-      </c>
       <c r="AH47" t="n">
-        <v>116.6</v>
+        <v>108.4</v>
       </c>
       <c r="AI47" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>101.6</v>
+        <v>102.8</v>
       </c>
       <c r="AK47" t="n">
-        <v>107</v>
+        <v>105.3</v>
       </c>
       <c r="AL47" t="n">
         <v>101.2</v>
       </c>
       <c r="AM47" t="n">
-        <v>110.3</v>
+        <v>108.5</v>
       </c>
       <c r="AN47" t="n">
-        <v>107.1</v>
+        <v>105.2</v>
       </c>
       <c r="AO47" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AP47" t="n">
-        <v>130.8</v>
+        <v>127.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>111.4</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="C48" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D48" t="n">
         <v>102.4</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>103</v>
+      </c>
+      <c r="T48" t="n">
+        <v>102</v>
+      </c>
+      <c r="U48" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="G48" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="L48" t="n">
-        <v>105.8</v>
-      </c>
-      <c r="M48" t="n">
-        <v>114</v>
-      </c>
-      <c r="N48" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="O48" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="P48" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>101</v>
-      </c>
-      <c r="S48" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="T48" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="U48" t="n">
-        <v>100.1</v>
       </c>
       <c r="V48" t="n">
         <v>100</v>
       </c>
       <c r="W48" t="n">
-        <v>108.6</v>
+        <v>132.1</v>
       </c>
       <c r="X48" t="n">
-        <v>103.5</v>
+        <v>102</v>
       </c>
       <c r="Y48" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Z48" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="AA48" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>101.1</v>
       </c>
-      <c r="AB48" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>99</v>
-      </c>
-      <c r="AG48" t="n">
+      <c r="AK48" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="AL48" t="n">
         <v>101.3</v>
       </c>
-      <c r="AH48" t="n">
-        <v>114.9</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>101.2</v>
-      </c>
       <c r="AM48" t="n">
-        <v>109.9</v>
+        <v>109</v>
       </c>
       <c r="AN48" t="n">
-        <v>107.4</v>
+        <v>105.7</v>
       </c>
       <c r="AO48" t="n">
         <v>101.4</v>
       </c>
       <c r="AP48" t="n">
-        <v>123.9</v>
+        <v>129.1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>107.5</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>102</v>
+        <v>102.7</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="G49" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49" t="n">
-        <v>107.9</v>
+        <v>110.9</v>
       </c>
       <c r="I49" t="n">
-        <v>102.6</v>
+        <v>101.8</v>
       </c>
       <c r="J49" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="K49" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="L49" t="n">
-        <v>104.9</v>
+        <v>106.9</v>
       </c>
       <c r="M49" t="n">
-        <v>114.6</v>
+        <v>115.4</v>
       </c>
       <c r="N49" t="n">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="O49" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="P49" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="U49" t="n">
         <v>100</v>
-      </c>
-      <c r="P49" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="R49" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="U49" t="n">
-        <v>100.1</v>
       </c>
       <c r="V49" t="n">
         <v>100</v>
       </c>
       <c r="W49" t="n">
-        <v>104.7</v>
+        <v>128.6</v>
       </c>
       <c r="X49" t="n">
-        <v>106.4</v>
+        <v>102.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>101.9</v>
+        <v>103</v>
       </c>
       <c r="AA49" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>103</v>
+      </c>
+      <c r="AE49" t="n">
         <v>100.8</v>
       </c>
-      <c r="AB49" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>100.5</v>
-      </c>
       <c r="AF49" t="n">
-        <v>98.5</v>
+        <v>99.3</v>
       </c>
       <c r="AG49" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AH49" t="n">
-        <v>110.7</v>
+        <v>113.8</v>
       </c>
       <c r="AI49" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AJ49" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="AK49" t="n">
-        <v>105.8</v>
+        <v>106.5</v>
       </c>
       <c r="AL49" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="AO49" t="n">
         <v>101.4</v>
       </c>
-      <c r="AM49" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>108</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>101.2</v>
-      </c>
       <c r="AP49" t="n">
-        <v>118.5</v>
+        <v>131.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>104.9</v>
+        <v>113.7</v>
       </c>
     </row>
   </sheetData>
